--- a/results/GAIA__TESS_candidate__matches__unique_planets.xlsx
+++ b/results/GAIA__TESS_candidate__matches__unique_planets.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,13 +32,22 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -68,11 +77,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,22 +460,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
-    <col width="29" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
-    <col width="9" customWidth="1" min="13" max="13"/>
-    <col width="35" customWidth="1" min="14" max="14"/>
-    <col width="42" customWidth="1" min="15" max="15"/>
-    <col width="31" customWidth="1" min="16" max="16"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="39" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="8" max="8"/>
+    <col width="31" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="41" customWidth="1" min="14" max="14"/>
+    <col width="32" customWidth="1" min="15" max="15"/>
+    <col width="30" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
     <col width="22" customWidth="1" min="18" max="18"/>
   </cols>
@@ -470,12 +483,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>toi</t>
+          <t>TESS Object of Interest</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tid</t>
+          <t>TESS Input Catalog ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -490,65 +503,65 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pl_tranmid</t>
+          <t>Planet Transit Midpoint Value [BJD]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Orbital Period [days]</t>
+          <t>Planet Orbital Period Value [days]</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pl_trandurh</t>
+          <t>Planet Transit Duration Value [hours]</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pl_trandep</t>
+          <t>Planet Transit Depth Value [ppm]</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Planet Radius [Earth Radius]</t>
+          <t>Planet Radius Value [R_Earth]</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Insolation Flux [Earth Flux]</t>
+          <t>Planet Insolation Value [Earth flux]</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Equilibrium Temperature [K]</t>
+          <t>Planet Equilibrium Temperature Value [K]</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>st_tmag</t>
+          <t>TESS Magnitude</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>st_dist</t>
+          <t>Stellar Distance [pc]</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Stellar Effective Temperature [K]</t>
+          <t>Stellar Effective Temperature Value [K]</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Stellar Surface Gravity [log10(cm/s**2)]</t>
+          <t>Stellar log(g) Value [cm/s**2]</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Stellar Radius [Solar Radius]</t>
+          <t>Stellar Radius Value [R_Sun]</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>HZ_Detection_Limit</t>
         </is>
@@ -561,506 +574,503 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>139.01</v>
+        <v>1773.01</v>
       </c>
       <c r="B2" t="n">
-        <v>62483237</v>
+        <v>332064670</v>
       </c>
       <c r="C2" t="n">
-        <v>336.402414</v>
+        <v>133.146837</v>
       </c>
       <c r="D2" t="n">
-        <v>-34.909713</v>
+        <v>28.329815</v>
       </c>
       <c r="E2" t="n">
-        <v>2458334.891563</v>
+        <v>2458870.692828</v>
       </c>
       <c r="F2" t="n">
-        <v>11.0708575</v>
+        <v>0.7365463</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1937617</v>
+        <v>1.5732208</v>
       </c>
       <c r="H2" t="n">
-        <v>1149.7328034</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.3337648</v>
+        <v>384.6733121</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2.0231121</v>
       </c>
       <c r="J2" t="n">
-        <v>22.4219066</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K2" t="n">
-        <v>554.9934842</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L2" t="n">
-        <v>9.3636</v>
+        <v>5.2058</v>
       </c>
       <c r="M2" t="n">
-        <v>42.4061</v>
+        <v>12.5855</v>
       </c>
       <c r="N2" t="n">
-        <v>4356</v>
+        <v>5250</v>
       </c>
       <c r="O2" t="n">
-        <v>4.53491</v>
+        <v>4.42</v>
       </c>
       <c r="P2" t="n">
-        <v>0.700727</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.066808676581831</v>
+        <v>0.963515</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>1.058179580845991</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02144133406012659</v>
+        <v>0.2680494911322885</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>141.01</v>
+        <v>2011.03</v>
       </c>
       <c r="B3" t="n">
-        <v>403224672</v>
+        <v>136916387</v>
       </c>
       <c r="C3" t="n">
-        <v>338.983717</v>
+        <v>230.440115</v>
       </c>
       <c r="D3" t="n">
-        <v>-59.864829</v>
+        <v>-48.318817</v>
       </c>
       <c r="E3" t="n">
-        <v>2460178.671412</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.0082361</v>
+        <v>2460081.126376</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>3.5341354</v>
       </c>
       <c r="H3" t="n">
-        <v>228</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.7202</v>
+        <v>195.1972939</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1.6208326</v>
       </c>
       <c r="J3" t="n">
-        <v>1882.94</v>
+        <v>335.6075222</v>
       </c>
       <c r="K3" t="n">
-        <v>1835</v>
+        <v>1091.635552</v>
       </c>
       <c r="L3" t="n">
-        <v>7.384</v>
+        <v>5.0494</v>
       </c>
       <c r="M3" t="n">
-        <v>48.0883</v>
+        <v>14.682</v>
       </c>
       <c r="N3" t="n">
-        <v>5795.29</v>
+        <v>5739</v>
       </c>
       <c r="O3" t="n">
-        <v>4.438</v>
+        <v>4.51</v>
       </c>
       <c r="P3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.208501350154981</v>
+        <v>1.02607</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>1.244933048070707</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06928742024772654</v>
+        <v>0.824166803690751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>144.01</v>
+        <v>2011.02</v>
       </c>
       <c r="B4" t="n">
-        <v>261136679</v>
+        <v>136916387</v>
       </c>
       <c r="C4" t="n">
-        <v>84.29928</v>
+        <v>230.440115</v>
       </c>
       <c r="D4" t="n">
-        <v>-80.46460399999999</v>
+        <v>-48.318817</v>
       </c>
       <c r="E4" t="n">
-        <v>2460011.550653</v>
+        <v>2458650.89757</v>
       </c>
       <c r="F4" t="n">
-        <v>6.267832</v>
+        <v>27.5920718</v>
       </c>
       <c r="G4" t="n">
-        <v>2.789</v>
+        <v>3.2743016</v>
       </c>
       <c r="H4" t="n">
-        <v>321</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.99779</v>
+        <v>555.3352929</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>2.7050278</v>
       </c>
       <c r="J4" t="n">
-        <v>203.434</v>
+        <v>31.3830711</v>
       </c>
       <c r="K4" t="n">
-        <v>1052</v>
+        <v>603.6616824</v>
       </c>
       <c r="L4" t="n">
-        <v>5.1054</v>
+        <v>5.0494</v>
       </c>
       <c r="M4" t="n">
-        <v>18.2702</v>
+        <v>14.682</v>
       </c>
       <c r="N4" t="n">
-        <v>5950</v>
+        <v>5739</v>
       </c>
       <c r="O4" t="n">
-        <v>4.438</v>
+        <v>4.51</v>
       </c>
       <c r="P4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.616889990960014</v>
+        <v>1.02607</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>1.244933048070707</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5469902615930315</v>
+        <v>0.824166803690751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>174.01</v>
+        <v>2011.01</v>
       </c>
       <c r="B5" t="n">
-        <v>425997655</v>
+        <v>136916387</v>
       </c>
       <c r="C5" t="n">
-        <v>55.459031</v>
+        <v>230.440115</v>
       </c>
       <c r="D5" t="n">
-        <v>-62.767267</v>
+        <v>-48.318817</v>
       </c>
       <c r="E5" t="n">
-        <v>2460180.378105</v>
+        <v>2458631.767617</v>
       </c>
       <c r="F5" t="n">
-        <v>17.6671687</v>
+        <v>11.5778362</v>
       </c>
       <c r="G5" t="n">
-        <v>2.525</v>
+        <v>3.8772499</v>
       </c>
       <c r="H5" t="n">
-        <v>854</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.87042</v>
+        <v>217.3994918</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1.5422129</v>
       </c>
       <c r="J5" t="n">
-        <v>7.60884</v>
+        <v>99.9013415</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>806.3295568999999</v>
       </c>
       <c r="L5" t="n">
-        <v>8.751300000000001</v>
+        <v>5.0494</v>
       </c>
       <c r="M5" t="n">
-        <v>39.0341</v>
+        <v>14.682</v>
       </c>
       <c r="N5" t="n">
-        <v>4813</v>
+        <v>5739</v>
       </c>
       <c r="O5" t="n">
-        <v>4.38</v>
+        <v>4.51</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.992721170613064</v>
+        <v>1.02607</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>1.244933048070707</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.824166803690751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>174.02</v>
+        <v>6276.03</v>
       </c>
       <c r="B6" t="n">
-        <v>425997655</v>
+        <v>397362481</v>
       </c>
       <c r="C6" t="n">
-        <v>55.459031</v>
+        <v>175.256304</v>
       </c>
       <c r="D6" t="n">
-        <v>-62.767267</v>
+        <v>-44.404149</v>
       </c>
       <c r="E6" t="n">
-        <v>2460157.951364</v>
+        <v>2460018.572448</v>
       </c>
       <c r="F6" t="n">
-        <v>29.7975205</v>
+        <v>7.8708661</v>
       </c>
       <c r="G6" t="n">
-        <v>2.782</v>
+        <v>1.6355898</v>
       </c>
       <c r="H6" t="n">
-        <v>671</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.60982</v>
+        <v>190.7947353</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1.0314874</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2713</v>
+        <v>33.4599699</v>
       </c>
       <c r="K6" t="n">
-        <v>374</v>
+        <v>613.4104018</v>
       </c>
       <c r="L6" t="n">
-        <v>8.751300000000001</v>
+        <v>6.7213</v>
       </c>
       <c r="M6" t="n">
-        <v>39.0341</v>
+        <v>12.7781</v>
       </c>
       <c r="N6" t="n">
-        <v>4813</v>
+        <v>4633.87</v>
       </c>
       <c r="O6" t="n">
-        <v>4.38</v>
+        <v>4.70763</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.992721170613064</v>
+        <v>0.630715</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>1.422947157415711</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.3529309610224289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>174.03</v>
+        <v>6276.01</v>
       </c>
       <c r="B7" t="n">
-        <v>425997655</v>
+        <v>397362481</v>
       </c>
       <c r="C7" t="n">
-        <v>55.459031</v>
+        <v>175.256304</v>
       </c>
       <c r="D7" t="n">
-        <v>-62.767267</v>
+        <v>-44.404149</v>
       </c>
       <c r="E7" t="n">
-        <v>2460184.414244</v>
+        <v>2460017.108056</v>
       </c>
       <c r="F7" t="n">
-        <v>12.1623316</v>
+        <v>6.207472</v>
       </c>
       <c r="G7" t="n">
-        <v>2.614</v>
+        <v>1.5587404</v>
       </c>
       <c r="H7" t="n">
-        <v>317</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.15643</v>
+        <v>230.9041397</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0.9558514</v>
       </c>
       <c r="J7" t="n">
-        <v>27.5458</v>
+        <v>45.9200706</v>
       </c>
       <c r="K7" t="n">
-        <v>638</v>
+        <v>663.9270852</v>
       </c>
       <c r="L7" t="n">
-        <v>8.751300000000001</v>
+        <v>6.7213</v>
       </c>
       <c r="M7" t="n">
-        <v>39.0341</v>
+        <v>12.7781</v>
       </c>
       <c r="N7" t="n">
-        <v>4813</v>
+        <v>4633.87</v>
       </c>
       <c r="O7" t="n">
-        <v>4.38</v>
+        <v>4.70763</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.992721170613064</v>
+        <v>0.630715</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1.422947157415711</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.3529309610224289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>174.04</v>
+        <v>6276.02</v>
       </c>
       <c r="B8" t="n">
-        <v>425997655</v>
+        <v>397362481</v>
       </c>
       <c r="C8" t="n">
-        <v>55.459031</v>
+        <v>175.256304</v>
       </c>
       <c r="D8" t="n">
-        <v>-62.767267</v>
+        <v>-44.404149</v>
       </c>
       <c r="E8" t="n">
-        <v>2460203.017928</v>
+        <v>2460014.846822</v>
       </c>
       <c r="F8" t="n">
-        <v>3.9766833</v>
+        <v>4.4653471</v>
       </c>
       <c r="G8" t="n">
-        <v>1.859</v>
+        <v>1.5691486</v>
       </c>
       <c r="H8" t="n">
-        <v>142</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.757588</v>
+        <v>186.7606727</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0.8856846</v>
       </c>
       <c r="J8" t="n">
-        <v>89.0886</v>
+        <v>71.2440519</v>
       </c>
       <c r="K8" t="n">
-        <v>855</v>
+        <v>740.9807105</v>
       </c>
       <c r="L8" t="n">
-        <v>8.751300000000001</v>
+        <v>6.7213</v>
       </c>
       <c r="M8" t="n">
-        <v>39.0341</v>
+        <v>12.7781</v>
       </c>
       <c r="N8" t="n">
-        <v>4813</v>
+        <v>4633.87</v>
       </c>
       <c r="O8" t="n">
-        <v>4.38</v>
+        <v>4.70763</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.992721170613064</v>
+        <v>0.630715</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>1.422947157415711</v>
       </c>
       <c r="R8" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.3529309610224289</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>174.05</v>
+        <v>144.01</v>
       </c>
       <c r="B9" t="n">
-        <v>425997655</v>
+        <v>261136679</v>
       </c>
       <c r="C9" t="n">
-        <v>55.459031</v>
+        <v>84.29928</v>
       </c>
       <c r="D9" t="n">
-        <v>-62.767267</v>
+        <v>-80.46460399999999</v>
       </c>
       <c r="E9" t="n">
-        <v>2460197.038739</v>
+        <v>2460011.550653</v>
       </c>
       <c r="F9" t="n">
-        <v>7.9076222</v>
+        <v>6.267832</v>
       </c>
       <c r="G9" t="n">
-        <v>2.611</v>
+        <v>2.789</v>
       </c>
       <c r="H9" t="n">
-        <v>217</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.969819</v>
+        <v>321</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1.99779</v>
       </c>
       <c r="J9" t="n">
-        <v>44.8107</v>
+        <v>203.434</v>
       </c>
       <c r="K9" t="n">
-        <v>720</v>
+        <v>1052</v>
       </c>
       <c r="L9" t="n">
-        <v>8.751300000000001</v>
+        <v>5.1054</v>
       </c>
       <c r="M9" t="n">
-        <v>39.0341</v>
+        <v>18.2702</v>
       </c>
       <c r="N9" t="n">
-        <v>4813</v>
+        <v>5950</v>
       </c>
       <c r="O9" t="n">
-        <v>4.38</v>
+        <v>4.438</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3.992721170613064</v>
+        <v>1.15</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>1.616889990960014</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.5469902615930315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>179.01</v>
+        <v>4470.01</v>
       </c>
       <c r="B10" t="n">
-        <v>207141131</v>
+        <v>256364928</v>
       </c>
       <c r="C10" t="n">
-        <v>44.262014</v>
+        <v>300.182122</v>
       </c>
       <c r="D10" t="n">
-        <v>-56.191869</v>
+        <v>22.709776</v>
       </c>
       <c r="E10" t="n">
-        <v>2458354.588198</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F10" t="n">
-        <v>4.1374379</v>
+        <v>2.2185748</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8454937</v>
+        <v>1.8233621</v>
       </c>
       <c r="H10" t="n">
-        <v>1125.5354645</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.6757659</v>
+        <v>25854.2144559</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>13.3010355</v>
       </c>
       <c r="J10" t="n">
-        <v>168.3361754</v>
+        <v>348.1506195</v>
       </c>
       <c r="K10" t="n">
-        <v>918.6796864</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L10" t="n">
-        <v>8.179600000000001</v>
+        <v>6.8481</v>
       </c>
       <c r="M10" t="n">
-        <v>38.5653</v>
+        <v>19.7638</v>
       </c>
       <c r="N10" t="n">
-        <v>5058</v>
+        <v>5023</v>
       </c>
       <c r="O10" t="n">
-        <v>4.51761</v>
+        <v>4.58</v>
       </c>
       <c r="P10" t="n">
-        <v>0.802633</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.281657243391717</v>
+        <v>0.776484</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>1.756279763925608</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02954374353693721</v>
+        <v>0.1256230421635217</v>
       </c>
     </row>
     <row r="11">
@@ -1088,7 +1098,7 @@
       <c r="H11" t="n">
         <v>1575</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="3" t="n">
         <v>3.12194</v>
       </c>
       <c r="J11" t="n">
@@ -1112,7 +1122,7 @@
       <c r="P11" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="3" t="n">
         <v>1.768355141422782</v>
       </c>
       <c r="R11" t="n">
@@ -1144,7 +1154,7 @@
       <c r="H12" t="n">
         <v>194</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="3" t="n">
         <v>1.00084</v>
       </c>
       <c r="J12" t="n">
@@ -1168,7 +1178,7 @@
       <c r="P12" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="3" t="n">
         <v>1.768355141422782</v>
       </c>
       <c r="R12" t="n">
@@ -1177,4511 +1187,4515 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>200.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B13" t="n">
-        <v>410214986</v>
+        <v>87216634</v>
       </c>
       <c r="C13" t="n">
-        <v>354.915467</v>
+        <v>302.773447</v>
       </c>
       <c r="D13" t="n">
-        <v>-69.196043</v>
+        <v>16.189714</v>
       </c>
       <c r="E13" t="n">
-        <v>2458332.308323</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F13" t="n">
-        <v>8.1382222</v>
+        <v>12.9256051</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2797025</v>
+        <v>1.691</v>
       </c>
       <c r="H13" t="n">
-        <v>3852.0299874</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.1757682</v>
+        <v>790</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>2.53704</v>
       </c>
       <c r="J13" t="n">
-        <v>115.8275563</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>836.7056912</v>
+        <v>478</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8541</v>
+        <v>6.5715</v>
       </c>
       <c r="M13" t="n">
-        <v>44.0622</v>
+        <v>20.4581</v>
       </c>
       <c r="N13" t="n">
-        <v>5414</v>
+        <v>5132</v>
       </c>
       <c r="O13" t="n">
-        <v>4.438</v>
+        <v>4.49</v>
       </c>
       <c r="P13" t="n">
-        <v>0.951985</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4.006602775726686</v>
+        <v>0.88</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>1.772154586364076</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05260215923995968</v>
+        <v>0.2860097255631882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>214.01</v>
+        <v>6713.01</v>
       </c>
       <c r="B14" t="n">
-        <v>167415965</v>
+        <v>428673146</v>
       </c>
       <c r="C14" t="n">
-        <v>99.458741</v>
+        <v>179.792354</v>
       </c>
       <c r="D14" t="n">
-        <v>-70.931327</v>
+        <v>-20.355606</v>
       </c>
       <c r="E14" t="n">
-        <v>2460154.945542</v>
+        <v>2458571.522303</v>
       </c>
       <c r="F14" t="n">
-        <v>18.5537012</v>
+        <v>2.1538049</v>
       </c>
       <c r="G14" t="n">
-        <v>3.438</v>
+        <v>1.6541007</v>
       </c>
       <c r="H14" t="n">
-        <v>448</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.57606</v>
+        <v>137.9312313</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.8814471</v>
       </c>
       <c r="J14" t="n">
-        <v>25.0891</v>
+        <v>331.6009868</v>
       </c>
       <c r="K14" t="n">
-        <v>623</v>
+        <v>1088.3628347</v>
       </c>
       <c r="L14" t="n">
-        <v>8.008900000000001</v>
+        <v>7.0276</v>
       </c>
       <c r="M14" t="n">
-        <v>38.96</v>
+        <v>20.3632</v>
       </c>
       <c r="N14" t="n">
-        <v>5346.2</v>
+        <v>4944.24</v>
       </c>
       <c r="O14" t="n">
-        <v>4.6</v>
+        <v>4.58767</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.568330244588864</v>
+        <v>0.757603</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>1.909890670031086</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.2228342109737272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>214.02</v>
+        <v>1821.01</v>
       </c>
       <c r="B15" t="n">
-        <v>167415965</v>
+        <v>82308728</v>
       </c>
       <c r="C15" t="n">
-        <v>99.458741</v>
+        <v>168.637658</v>
       </c>
       <c r="D15" t="n">
-        <v>-70.931327</v>
+        <v>25.710596</v>
       </c>
       <c r="E15" t="n">
-        <v>2460174.709658</v>
+        <v>2459664.085255</v>
       </c>
       <c r="F15" t="n">
-        <v>9.695961</v>
+        <v>9.4893231</v>
       </c>
       <c r="G15" t="n">
-        <v>2.772</v>
+        <v>2.757</v>
       </c>
       <c r="H15" t="n">
-        <v>122</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.808552</v>
+        <v>940</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>2.4304</v>
       </c>
       <c r="J15" t="n">
-        <v>66.2914</v>
+        <v>41.924</v>
       </c>
       <c r="K15" t="n">
-        <v>794</v>
+        <v>708</v>
       </c>
       <c r="L15" t="n">
-        <v>8.008900000000001</v>
+        <v>6.9859</v>
       </c>
       <c r="M15" t="n">
-        <v>38.96</v>
+        <v>21.5618</v>
       </c>
       <c r="N15" t="n">
-        <v>5346.2</v>
+        <v>5120</v>
       </c>
       <c r="O15" t="n">
         <v>4.6</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.568330244588864</v>
+        <v>0.77</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>1.953747416139957</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.05814337774157254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>253.01</v>
+        <v>1726.01</v>
       </c>
       <c r="B16" t="n">
-        <v>322063810</v>
+        <v>130181866</v>
       </c>
       <c r="C16" t="n">
-        <v>14.318503</v>
+        <v>117.47937</v>
       </c>
       <c r="D16" t="n">
-        <v>-51.585251</v>
+        <v>27.363134</v>
       </c>
       <c r="E16" t="n">
-        <v>2458355.622789</v>
+        <v>2458845.373051</v>
       </c>
       <c r="F16" t="n">
-        <v>3.5104148</v>
+        <v>7.107934</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3.440833</v>
       </c>
       <c r="H16" t="n">
-        <v>308.8285985</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.328654</v>
+        <v>501.6058242</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>2.2881711</v>
       </c>
       <c r="J16" t="n">
-        <v>64.709886</v>
+        <v>145.5706555</v>
       </c>
       <c r="K16" t="n">
-        <v>723.3731892</v>
+        <v>885.9071544</v>
       </c>
       <c r="L16" t="n">
-        <v>9.3626</v>
+        <v>6.2683</v>
       </c>
       <c r="M16" t="n">
-        <v>30.8431</v>
+        <v>22.4035</v>
       </c>
       <c r="N16" t="n">
-        <v>4020</v>
+        <v>5694.11</v>
       </c>
       <c r="O16" t="n">
-        <v>4.438</v>
+        <v>4.53108</v>
       </c>
       <c r="P16" t="n">
-        <v>0.639371</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.21466158162215</v>
+        <v>0.902932</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>2.060089842471463</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08762883919541069</v>
+        <v>0.007274958046568345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>260.01</v>
+        <v>1726.02</v>
       </c>
       <c r="B17" t="n">
-        <v>37749396</v>
+        <v>130181866</v>
       </c>
       <c r="C17" t="n">
-        <v>4.773018</v>
+        <v>117.47937</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.966150000000001</v>
+        <v>27.363134</v>
       </c>
       <c r="E17" t="n">
-        <v>2458392.294018</v>
+        <v>2459583.637103</v>
       </c>
       <c r="F17" t="n">
-        <v>13.4758478</v>
+        <v>20.5438153</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0643913</v>
+        <v>4.0537919</v>
       </c>
       <c r="H17" t="n">
-        <v>708.9461601</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.9840882</v>
+        <v>799.3817133</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>2.5734283</v>
       </c>
       <c r="J17" t="n">
-        <v>10.1837519</v>
+        <v>35.3582059</v>
       </c>
       <c r="K17" t="n">
-        <v>455.6136246</v>
+        <v>621.931143</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4991</v>
+        <v>6.2683</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1852</v>
+        <v>22.4035</v>
       </c>
       <c r="N17" t="n">
-        <v>4111</v>
+        <v>5694.11</v>
       </c>
       <c r="O17" t="n">
-        <v>4.6461</v>
+        <v>4.53108</v>
       </c>
       <c r="P17" t="n">
-        <v>0.618173</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.343640475796769</v>
+        <v>0.902932</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>2.060089842471463</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.007274958046568345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>262.01</v>
+        <v>2194.01</v>
       </c>
       <c r="B18" t="n">
-        <v>70513361</v>
+        <v>271478281</v>
       </c>
       <c r="C18" t="n">
-        <v>32.534687</v>
+        <v>299.156339</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.070627</v>
+        <v>-31.335181</v>
       </c>
       <c r="E18" t="n">
-        <v>2459136.576258</v>
+        <v>2460141.982191</v>
       </c>
       <c r="F18" t="n">
-        <v>11.1452784</v>
+        <v>15.3419095</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3947705</v>
+        <v>2.736</v>
       </c>
       <c r="H18" t="n">
-        <v>566.2736451</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.0671456</v>
+        <v>683</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1.7005</v>
       </c>
       <c r="J18" t="n">
-        <v>56.9132658</v>
+        <v>14.2526</v>
       </c>
       <c r="K18" t="n">
-        <v>700.5241733</v>
+        <v>541</v>
       </c>
       <c r="L18" t="n">
-        <v>8.134499999999999</v>
+        <v>7.4259</v>
       </c>
       <c r="M18" t="n">
-        <v>43.932</v>
+        <v>19.5711</v>
       </c>
       <c r="N18" t="n">
-        <v>5302.58</v>
+        <v>4669</v>
       </c>
       <c r="O18" t="n">
-        <v>4.53515</v>
+        <v>4.63</v>
       </c>
       <c r="P18" t="n">
-        <v>0.848675</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.674405832762042</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>2.086618763444284</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1492879722753243</v>
+        <v>0.2060338426977061</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>396.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B19" t="n">
-        <v>178155732</v>
+        <v>243187830</v>
       </c>
       <c r="C19" t="n">
-        <v>42.984978</v>
+        <v>16.908292</v>
       </c>
       <c r="D19" t="n">
-        <v>-30.814061</v>
+        <v>22.952868</v>
       </c>
       <c r="E19" t="n">
-        <v>2459120.537697</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F19" t="n">
-        <v>5.9739124</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1235464</v>
+        <v>2.1734134</v>
       </c>
       <c r="H19" t="n">
-        <v>232.5621027</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.3917735</v>
+        <v>865.169438</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>2.2407785</v>
       </c>
       <c r="J19" t="n">
-        <v>488.0089226</v>
+        <v>1.3880259</v>
       </c>
       <c r="K19" t="n">
-        <v>1198.7446729</v>
+        <v>276.8338183</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9053</v>
+        <v>7.3551</v>
       </c>
       <c r="M19" t="n">
-        <v>31.964</v>
+        <v>20.5272</v>
       </c>
       <c r="N19" t="n">
-        <v>6308.31</v>
+        <v>4755.33</v>
       </c>
       <c r="O19" t="n">
-        <v>4.438</v>
+        <v>4.62683</v>
       </c>
       <c r="P19" t="n">
-        <v>1.2845</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>16.45944919601968</v>
+        <v>0.701499</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>2.116113831581009</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08132008275074698</v>
+        <v>0.2489958576352085</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>396.02</v>
+        <v>1099.01</v>
       </c>
       <c r="B20" t="n">
-        <v>178155732</v>
+        <v>290348383</v>
       </c>
       <c r="C20" t="n">
-        <v>42.984978</v>
+        <v>328.718171</v>
       </c>
       <c r="D20" t="n">
-        <v>-30.814061</v>
+        <v>-77.338802</v>
       </c>
       <c r="E20" t="n">
-        <v>2459169.27128</v>
+        <v>2460140.220927</v>
       </c>
       <c r="F20" t="n">
-        <v>3.58529</v>
+        <v>6.441006</v>
       </c>
       <c r="G20" t="n">
-        <v>2.495</v>
+        <v>1.812</v>
       </c>
       <c r="H20" t="n">
-        <v>180</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.77141</v>
+        <v>914</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>2.56374</v>
       </c>
       <c r="J20" t="n">
-        <v>646.628</v>
+        <v>87.89019999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>1404</v>
+        <v>853</v>
       </c>
       <c r="L20" t="n">
-        <v>5.9053</v>
+        <v>7.3661</v>
       </c>
       <c r="M20" t="n">
-        <v>31.964</v>
+        <v>23.606</v>
       </c>
       <c r="N20" t="n">
-        <v>6308.31</v>
+        <v>4867</v>
       </c>
       <c r="O20" t="n">
         <v>4.438</v>
       </c>
       <c r="P20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>16.45944919601968</v>
+        <v>0.8</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>2.231973848418512</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08132008275074698</v>
+        <v>0.1472633163109245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>396.03</v>
+        <v>5084.01</v>
       </c>
       <c r="B21" t="n">
-        <v>178155732</v>
+        <v>438260486</v>
       </c>
       <c r="C21" t="n">
-        <v>42.984978</v>
+        <v>45.954561</v>
       </c>
       <c r="D21" t="n">
-        <v>-30.814061</v>
+        <v>20.110588</v>
       </c>
       <c r="E21" t="n">
-        <v>2459117.261055</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F21" t="n">
-        <v>11.2304605</v>
+        <v>5.8321337</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6009978</v>
+        <v>2.039</v>
       </c>
       <c r="H21" t="n">
-        <v>208.629137</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.0754665</v>
+        <v>274</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>1.15554</v>
       </c>
       <c r="J21" t="n">
-        <v>210.3340005</v>
+        <v>49.8722</v>
       </c>
       <c r="K21" t="n">
-        <v>971.2859803</v>
+        <v>740</v>
       </c>
       <c r="L21" t="n">
-        <v>5.9053</v>
+        <v>7.564</v>
       </c>
       <c r="M21" t="n">
-        <v>31.964</v>
+        <v>21.3575</v>
       </c>
       <c r="N21" t="n">
-        <v>6308.31</v>
+        <v>4544</v>
       </c>
       <c r="O21" t="n">
-        <v>4.438</v>
+        <v>4.54</v>
       </c>
       <c r="P21" t="n">
-        <v>1.2845</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>16.45944919601968</v>
+        <v>0.75</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>2.266108314030604</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08132008275074698</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>402.01</v>
+        <v>6978.01</v>
       </c>
       <c r="B22" t="n">
-        <v>120896927</v>
+        <v>320847025</v>
       </c>
       <c r="C22" t="n">
-        <v>36.867885</v>
+        <v>299.638248</v>
       </c>
       <c r="D22" t="n">
-        <v>-27.636117</v>
+        <v>-54.937423</v>
       </c>
       <c r="E22" t="n">
-        <v>2459139.126535</v>
+        <v>2458661.083459</v>
       </c>
       <c r="F22" t="n">
-        <v>4.7559737</v>
+        <v>9.125813600000001</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5469696</v>
+        <v>3.173012</v>
       </c>
       <c r="H22" t="n">
-        <v>398.6310113</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.725417</v>
+        <v>169.7218223</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0.9704787</v>
       </c>
       <c r="J22" t="n">
-        <v>161.7314334</v>
+        <v>42.107688</v>
       </c>
       <c r="K22" t="n">
-        <v>909.5327855</v>
+        <v>649.6958588</v>
       </c>
       <c r="L22" t="n">
-        <v>8.3157</v>
+        <v>7.5621</v>
       </c>
       <c r="M22" t="n">
-        <v>44.8155</v>
+        <v>23.6103</v>
       </c>
       <c r="N22" t="n">
-        <v>5175.2</v>
+        <v>4747.13</v>
       </c>
       <c r="O22" t="n">
-        <v>4.37657</v>
+        <v>4.56794</v>
       </c>
       <c r="P22" t="n">
-        <v>0.841842</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3.769031705355568</v>
+        <v>0.750709</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>2.337273193337812</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1131206969624331</v>
+        <v>0.08153377876240343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>402.02</v>
+        <v>260.01</v>
       </c>
       <c r="B23" t="n">
-        <v>120896927</v>
+        <v>37749396</v>
       </c>
       <c r="C23" t="n">
-        <v>36.867885</v>
+        <v>4.773018</v>
       </c>
       <c r="D23" t="n">
-        <v>-27.636117</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>2459118.955569</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F23" t="n">
-        <v>17.1807214</v>
+        <v>13.4758478</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1004813</v>
+        <v>2.0643913</v>
       </c>
       <c r="H23" t="n">
-        <v>680.1385904</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.1954034</v>
+        <v>708.9461601</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1.9840882</v>
       </c>
       <c r="J23" t="n">
-        <v>29.1782002</v>
+        <v>10.1837519</v>
       </c>
       <c r="K23" t="n">
-        <v>592.7674866</v>
+        <v>455.6136246</v>
       </c>
       <c r="L23" t="n">
-        <v>8.3157</v>
+        <v>8.4991</v>
       </c>
       <c r="M23" t="n">
-        <v>44.8155</v>
+        <v>20.1852</v>
       </c>
       <c r="N23" t="n">
-        <v>5175.2</v>
+        <v>4111</v>
       </c>
       <c r="O23" t="n">
-        <v>4.37657</v>
+        <v>4.6461</v>
       </c>
       <c r="P23" t="n">
-        <v>0.841842</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.769031705355568</v>
+        <v>0.618173</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>2.343640475796769</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1131206969624331</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>431.01</v>
+        <v>2666.01</v>
       </c>
       <c r="B24" t="n">
-        <v>31374837</v>
+        <v>170889511</v>
       </c>
       <c r="C24" t="n">
-        <v>83.26925</v>
+        <v>139.480865</v>
       </c>
       <c r="D24" t="n">
-        <v>-26.72387</v>
+        <v>-3.387525</v>
       </c>
       <c r="E24" t="n">
-        <v>2458440.630295</v>
-      </c>
-      <c r="F24" t="n">
-        <v>12.4610086</v>
+        <v>2459259.141383</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3195777</v>
+        <v>1.445</v>
       </c>
       <c r="H24" t="n">
-        <v>2078.1425981</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.2809492</v>
+        <v>22040</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>16.6553</v>
       </c>
       <c r="J24" t="n">
-        <v>28.3587888</v>
+        <v>21.4281</v>
       </c>
       <c r="K24" t="n">
-        <v>588.5612549</v>
+        <v>599</v>
       </c>
       <c r="L24" t="n">
-        <v>8.170500000000001</v>
+        <v>6.9887</v>
       </c>
       <c r="M24" t="n">
-        <v>32.5686</v>
+        <v>32.6024</v>
       </c>
       <c r="N24" t="n">
-        <v>4891</v>
+        <v>5212</v>
       </c>
       <c r="O24" t="n">
-        <v>4.62</v>
+        <v>4.3</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7266319999999999</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.180623248192477</v>
+        <v>1.11</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>2.391281741446773</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.03358799800878934</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>431.02</v>
+        <v>4328.01</v>
       </c>
       <c r="B25" t="n">
-        <v>31374837</v>
+        <v>77175217</v>
       </c>
       <c r="C25" t="n">
-        <v>83.26925</v>
+        <v>68.288836</v>
       </c>
       <c r="D25" t="n">
-        <v>-26.72387</v>
+        <v>-36.945858</v>
       </c>
       <c r="E25" t="n">
-        <v>2458438.375965</v>
+        <v>2458459.446061</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4900589</v>
+        <v>703.79367</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0123328</v>
+        <v>2.9297301</v>
       </c>
       <c r="H25" t="n">
-        <v>291.0399722</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.4741529</v>
+        <v>601.9566843</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1.860295</v>
       </c>
       <c r="J25" t="n">
-        <v>2120.4474663</v>
+        <v>0.3066589</v>
       </c>
       <c r="K25" t="n">
-        <v>1730.7192689</v>
+        <v>189.7945133</v>
       </c>
       <c r="L25" t="n">
-        <v>8.170500000000001</v>
+        <v>7.7679</v>
       </c>
       <c r="M25" t="n">
-        <v>32.5686</v>
+        <v>25.0039</v>
       </c>
       <c r="N25" t="n">
-        <v>4891</v>
+        <v>4709</v>
       </c>
       <c r="O25" t="n">
-        <v>4.62</v>
+        <v>4.57486</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7266319999999999</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.180623248192477</v>
+        <v>0.739835</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>2.496769003128451</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.02282511607964633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>440.01</v>
+        <v>1028.01</v>
       </c>
       <c r="B26" t="n">
-        <v>143350972</v>
+        <v>447283466</v>
       </c>
       <c r="C26" t="n">
-        <v>82.245986</v>
+        <v>157.098337</v>
       </c>
       <c r="D26" t="n">
-        <v>-17.429564</v>
+        <v>-51.705409</v>
       </c>
       <c r="E26" t="n">
-        <v>2458439.13519</v>
+        <v>2458544.48066</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0817</v>
+        <v>1.01606</v>
       </c>
       <c r="G26" t="n">
-        <v>1.588</v>
+        <v>2.843</v>
       </c>
       <c r="H26" t="n">
-        <v>341.533</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.07554</v>
+        <v>240</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1.20704</v>
       </c>
       <c r="J26" t="n">
-        <v>2462.7009749</v>
+        <v>2784.04</v>
       </c>
       <c r="K26" t="n">
-        <v>1796.6880123</v>
+        <v>2023</v>
       </c>
       <c r="L26" t="n">
-        <v>7.6818</v>
+        <v>7.9059</v>
       </c>
       <c r="M26" t="n">
-        <v>49.3375</v>
+        <v>23.7748</v>
       </c>
       <c r="N26" t="n">
-        <v>5759.2</v>
+        <v>4634</v>
       </c>
       <c r="O26" t="n">
-        <v>4.45</v>
+        <v>4.64</v>
       </c>
       <c r="P26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4.315781758736281</v>
+        <v>0.68</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>2.520844037452445</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05708224099375498</v>
+        <v>0.02376373411801855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>461.01</v>
+        <v>2540.02</v>
       </c>
       <c r="B27" t="n">
-        <v>4646810</v>
+        <v>354518617</v>
       </c>
       <c r="C27" t="n">
-        <v>38.271253</v>
+        <v>82.558548</v>
       </c>
       <c r="D27" t="n">
-        <v>-10.352178</v>
+        <v>-42.697946</v>
       </c>
       <c r="E27" t="n">
-        <v>2458416.351956</v>
+        <v>2459223.145597</v>
       </c>
       <c r="F27" t="n">
-        <v>10.9245478</v>
+        <v>22.0819969</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8716477</v>
+        <v>3.073</v>
       </c>
       <c r="H27" t="n">
-        <v>653.537141</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.9015018</v>
+        <v>1019</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>2.28729</v>
       </c>
       <c r="J27" t="n">
-        <v>35.242668</v>
+        <v>5.94816</v>
       </c>
       <c r="K27" t="n">
-        <v>621.4224577</v>
+        <v>435</v>
       </c>
       <c r="L27" t="n">
-        <v>8.872299999999999</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>45.5621</v>
+        <v>19.1419</v>
       </c>
       <c r="N27" t="n">
-        <v>4884</v>
+        <v>4036.3</v>
       </c>
       <c r="O27" t="n">
-        <v>4.49</v>
+        <v>4.65</v>
       </c>
       <c r="P27" t="n">
-        <v>0.74413</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4.353113514170607</v>
+        <v>0.66</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>2.573431856217872</v>
       </c>
       <c r="R27" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.07410788920890607</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>509.01</v>
+        <v>2540.01</v>
       </c>
       <c r="B28" t="n">
-        <v>453211454</v>
+        <v>354518617</v>
       </c>
       <c r="C28" t="n">
-        <v>117.924642</v>
+        <v>82.558548</v>
       </c>
       <c r="D28" t="n">
-        <v>9.385241000000001</v>
+        <v>-42.697946</v>
       </c>
       <c r="E28" t="n">
-        <v>2460269.974997</v>
+        <v>2458480.943804</v>
       </c>
       <c r="F28" t="n">
-        <v>9.058820900000001</v>
+        <v>12.7187255</v>
       </c>
       <c r="G28" t="n">
-        <v>3.342</v>
+        <v>3.1582562</v>
       </c>
       <c r="H28" t="n">
-        <v>875</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.67607</v>
+        <v>1144.1789073</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>2.5924633</v>
       </c>
       <c r="J28" t="n">
-        <v>92.839</v>
+        <v>12.2599233</v>
       </c>
       <c r="K28" t="n">
-        <v>864</v>
+        <v>477.2453303</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9259</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>48.9739</v>
+        <v>19.1419</v>
       </c>
       <c r="N28" t="n">
-        <v>5560.26</v>
+        <v>4036.3</v>
       </c>
       <c r="O28" t="n">
-        <v>4.438</v>
+        <v>4.65</v>
       </c>
       <c r="P28" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>4.060332463177636</v>
+        <v>0.661076</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>2.573431856217872</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.07410788920890607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>509.02</v>
+        <v>802.01</v>
       </c>
       <c r="B29" t="n">
-        <v>453211454</v>
+        <v>167303382</v>
       </c>
       <c r="C29" t="n">
-        <v>117.924642</v>
+        <v>97.985715</v>
       </c>
       <c r="D29" t="n">
-        <v>9.385241000000001</v>
+        <v>-68.7118</v>
       </c>
       <c r="E29" t="n">
-        <v>2460259.048369</v>
+        <v>2458327.391469</v>
       </c>
       <c r="F29" t="n">
-        <v>21.4003129</v>
+        <v>3.693916</v>
       </c>
       <c r="G29" t="n">
-        <v>5.3847459</v>
+        <v>1.7264201</v>
       </c>
       <c r="H29" t="n">
-        <v>960.7539877</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.0010426</v>
+        <v>74.807186</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>0.6501353</v>
       </c>
       <c r="J29" t="n">
-        <v>35.2811724</v>
+        <v>186.8668956</v>
       </c>
       <c r="K29" t="n">
-        <v>621.592122</v>
+        <v>942.9807829</v>
       </c>
       <c r="L29" t="n">
-        <v>7.9259</v>
+        <v>7.5209</v>
       </c>
       <c r="M29" t="n">
-        <v>48.9739</v>
+        <v>28.1042</v>
       </c>
       <c r="N29" t="n">
-        <v>5560.26</v>
+        <v>5235.78</v>
       </c>
       <c r="O29" t="n">
         <v>4.438</v>
       </c>
       <c r="P29" t="n">
-        <v>0.962324</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4.060332463177636</v>
+        <v>0.74982</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>2.608985362147536</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.2277199720930105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>544.01</v>
+        <v>1835.02</v>
       </c>
       <c r="B30" t="n">
-        <v>50618703</v>
+        <v>347332255</v>
       </c>
       <c r="C30" t="n">
-        <v>82.290072</v>
+        <v>189.839224</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.342898</v>
+        <v>20.027338</v>
       </c>
       <c r="E30" t="n">
-        <v>2458469.756983</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.5483542</v>
+        <v>2458937.873023</v>
       </c>
       <c r="G30" t="n">
-        <v>1.2030925</v>
+        <v>3.9454498</v>
       </c>
       <c r="H30" t="n">
-        <v>926.4111032</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.1601741</v>
+        <v>886.4838237</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>2.5398986</v>
       </c>
       <c r="J30" t="n">
-        <v>240.1950345</v>
+        <v>48.4006234</v>
       </c>
       <c r="K30" t="n">
-        <v>1004.0625199</v>
+        <v>672.7171326</v>
       </c>
       <c r="L30" t="n">
-        <v>9.650399999999999</v>
+        <v>7.6621</v>
       </c>
       <c r="M30" t="n">
-        <v>41.1166</v>
+        <v>32.1585</v>
       </c>
       <c r="N30" t="n">
-        <v>4665</v>
+        <v>5297</v>
       </c>
       <c r="O30" t="n">
-        <v>4.67631</v>
+        <v>4.61016</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6634139999999999</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4.802977507666216</v>
+        <v>0.782479</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>2.76374786632559</v>
       </c>
       <c r="R30" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.06661906644424098</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>554.01</v>
+        <v>1835.01</v>
       </c>
       <c r="B31" t="n">
-        <v>407966340</v>
+        <v>347332255</v>
       </c>
       <c r="C31" t="n">
-        <v>60.748336</v>
+        <v>189.839224</v>
       </c>
       <c r="D31" t="n">
-        <v>9.207768</v>
+        <v>20.027338</v>
       </c>
       <c r="E31" t="n">
-        <v>2458442.61543</v>
+        <v>2458932.763635</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0491608</v>
+        <v>5.6419598</v>
       </c>
       <c r="G31" t="n">
-        <v>3.5024531</v>
+        <v>3.0871502</v>
       </c>
       <c r="H31" t="n">
-        <v>300.5227138</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.8464941</v>
+        <v>543.838848</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>1.8245844</v>
       </c>
       <c r="J31" t="n">
-        <v>489.6346689</v>
+        <v>119.4171181</v>
       </c>
       <c r="K31" t="n">
-        <v>1199.7417985</v>
+        <v>843.1141848</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4386</v>
+        <v>7.6621</v>
       </c>
       <c r="M31" t="n">
-        <v>45.6181</v>
+        <v>32.1585</v>
       </c>
       <c r="N31" t="n">
-        <v>6337.87</v>
+        <v>5297</v>
       </c>
       <c r="O31" t="n">
-        <v>4.438</v>
+        <v>4.61016</v>
       </c>
       <c r="P31" t="n">
-        <v>1.42717</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>31.3192949850797</v>
+        <v>0.782479</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>2.76374786632559</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09557954007745355</v>
+        <v>0.06661906644424098</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>554.02</v>
+        <v>2443.01</v>
       </c>
       <c r="B32" t="n">
-        <v>407966340</v>
+        <v>318753380</v>
       </c>
       <c r="C32" t="n">
-        <v>60.748336</v>
+        <v>40.179861</v>
       </c>
       <c r="D32" t="n">
-        <v>9.207768</v>
+        <v>1.199676</v>
       </c>
       <c r="E32" t="n">
-        <v>2458438.475888</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F32" t="n">
-        <v>3.0440441</v>
+        <v>15.6692322</v>
       </c>
       <c r="G32" t="n">
-        <v>1.3542885</v>
+        <v>4.562853</v>
       </c>
       <c r="H32" t="n">
-        <v>82.7350431</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.3337425</v>
+        <v>1393.3814802</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>2.6868893</v>
       </c>
       <c r="J32" t="n">
-        <v>1500.1020491</v>
+        <v>13.2931176</v>
       </c>
       <c r="K32" t="n">
-        <v>1587.2668665</v>
+        <v>486.9971964</v>
       </c>
       <c r="L32" t="n">
-        <v>6.4386</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>45.6181</v>
+        <v>23.9258</v>
       </c>
       <c r="N32" t="n">
-        <v>6337.87</v>
+        <v>4214.44</v>
       </c>
       <c r="O32" t="n">
-        <v>4.438</v>
+        <v>4.52845</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42717</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>31.3192949850797</v>
+        <v>0.732115</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>2.839885605748058</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09557954007745355</v>
+        <v>0.1818675256571092</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>560.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B33" t="n">
-        <v>101011575</v>
+        <v>80224448</v>
       </c>
       <c r="C33" t="n">
-        <v>129.688303</v>
+        <v>103.678273</v>
       </c>
       <c r="D33" t="n">
-        <v>-13.256527</v>
+        <v>24.245141</v>
       </c>
       <c r="E33" t="n">
-        <v>2459982.845399</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F33" t="n">
-        <v>6.3980642</v>
+        <v>5.9693397</v>
       </c>
       <c r="G33" t="n">
-        <v>2.004</v>
+        <v>3.441038</v>
       </c>
       <c r="H33" t="n">
-        <v>1656</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.62025</v>
+        <v>105.5424205</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1.3473608</v>
       </c>
       <c r="J33" t="n">
-        <v>33.7178</v>
+        <v>334.6170929</v>
       </c>
       <c r="K33" t="n">
-        <v>671</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L33" t="n">
-        <v>8.592499999999999</v>
+        <v>6.3103</v>
       </c>
       <c r="M33" t="n">
-        <v>31.5666</v>
+        <v>31.1664</v>
       </c>
       <c r="N33" t="n">
-        <v>4695</v>
+        <v>6007</v>
       </c>
       <c r="O33" t="n">
-        <v>4.5</v>
+        <v>4.37729</v>
       </c>
       <c r="P33" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.521787600818508</v>
+        <v>1.12993</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>2.880011854113967</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03908929712115194</v>
+        <v>0.05173693485062012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>560.02</v>
+        <v>6965.02</v>
       </c>
       <c r="B34" t="n">
-        <v>101011575</v>
+        <v>80224448</v>
       </c>
       <c r="C34" t="n">
-        <v>129.688303</v>
+        <v>103.678273</v>
       </c>
       <c r="D34" t="n">
-        <v>-13.256527</v>
+        <v>24.245141</v>
       </c>
       <c r="E34" t="n">
-        <v>2459987.337647</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F34" t="n">
-        <v>18.8792871</v>
+        <v>28.0693949</v>
       </c>
       <c r="G34" t="n">
-        <v>3.262</v>
+        <v>6.0393818</v>
       </c>
       <c r="H34" t="n">
-        <v>1199</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.99787</v>
+        <v>154.3008171</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1.6221344</v>
       </c>
       <c r="J34" t="n">
-        <v>10.5814</v>
+        <v>42.4755605</v>
       </c>
       <c r="K34" t="n">
-        <v>502</v>
+        <v>651.1102456</v>
       </c>
       <c r="L34" t="n">
-        <v>8.592499999999999</v>
+        <v>6.3103</v>
       </c>
       <c r="M34" t="n">
-        <v>31.5666</v>
+        <v>31.1664</v>
       </c>
       <c r="N34" t="n">
-        <v>4695</v>
+        <v>6007</v>
       </c>
       <c r="O34" t="n">
-        <v>4.5</v>
+        <v>4.37729</v>
       </c>
       <c r="P34" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.521787600818508</v>
+        <v>1.12993</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>2.880011854113967</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03908929712115194</v>
+        <v>0.05173693485062012</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>652.01</v>
+        <v>1793.01</v>
       </c>
       <c r="B35" t="n">
-        <v>22221375</v>
+        <v>304142124</v>
       </c>
       <c r="C35" t="n">
-        <v>149.123515</v>
+        <v>164.856336</v>
       </c>
       <c r="D35" t="n">
-        <v>-24.099186</v>
+        <v>-56.623556</v>
       </c>
       <c r="E35" t="n">
-        <v>2460013.591733</v>
+        <v>2460017.429225</v>
       </c>
       <c r="F35" t="n">
-        <v>3.9846589</v>
+        <v>55.087</v>
       </c>
       <c r="G35" t="n">
-        <v>2.146</v>
+        <v>5.709</v>
       </c>
       <c r="H35" t="n">
-        <v>445</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.12827</v>
+        <v>2509</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>4.36639</v>
       </c>
       <c r="J35" t="n">
-        <v>647.901</v>
+        <v>16.5899</v>
       </c>
       <c r="K35" t="n">
-        <v>1405</v>
+        <v>562</v>
       </c>
       <c r="L35" t="n">
-        <v>7.3635</v>
+        <v>7.8436</v>
       </c>
       <c r="M35" t="n">
-        <v>45.683</v>
+        <v>36.9941</v>
       </c>
       <c r="N35" t="n">
-        <v>5903</v>
+        <v>5175</v>
       </c>
       <c r="O35" t="n">
-        <v>4.44653</v>
+        <v>4.51</v>
       </c>
       <c r="P35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4.161623333076339</v>
+        <v>0.87</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>3.075412942076768</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09064358825212875</v>
+        <v>0.2165786356227843</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>687.01</v>
+        <v>431.01</v>
       </c>
       <c r="B36" t="n">
-        <v>74534430</v>
+        <v>31374837</v>
       </c>
       <c r="C36" t="n">
-        <v>137.672815</v>
+        <v>83.26925</v>
       </c>
       <c r="D36" t="n">
-        <v>-45.098845</v>
+        <v>-26.72387</v>
       </c>
       <c r="E36" t="n">
-        <v>2459977.554802</v>
+        <v>2458440.630295</v>
       </c>
       <c r="F36" t="n">
-        <v>36.2995129</v>
+        <v>12.4610086</v>
       </c>
       <c r="G36" t="n">
-        <v>4.4333923</v>
+        <v>3.3195777</v>
       </c>
       <c r="H36" t="n">
-        <v>1322.2472746</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.2115007</v>
+        <v>2078.1425981</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>3.2809492</v>
       </c>
       <c r="J36" t="n">
-        <v>3.169782</v>
+        <v>28.3587888</v>
       </c>
       <c r="K36" t="n">
-        <v>340.3118696</v>
+        <v>588.5612549</v>
       </c>
       <c r="L36" t="n">
-        <v>9.8445</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>42.4467</v>
+        <v>32.5686</v>
       </c>
       <c r="N36" t="n">
-        <v>4253.9</v>
+        <v>4891</v>
       </c>
       <c r="O36" t="n">
-        <v>4.57</v>
+        <v>4.62</v>
       </c>
       <c r="P36" t="n">
-        <v>0.617519</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5.968498212205658</v>
+        <v>0.7266319999999999</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>3.180623248192477</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1945912951651126</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>802.01</v>
+        <v>431.02</v>
       </c>
       <c r="B37" t="n">
-        <v>167303382</v>
+        <v>31374837</v>
       </c>
       <c r="C37" t="n">
-        <v>97.985715</v>
+        <v>83.26925</v>
       </c>
       <c r="D37" t="n">
-        <v>-68.7118</v>
+        <v>-26.72387</v>
       </c>
       <c r="E37" t="n">
-        <v>2458327.391469</v>
+        <v>2458438.375965</v>
       </c>
       <c r="F37" t="n">
-        <v>3.693916</v>
+        <v>0.4900589</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7264201</v>
+        <v>1.0123328</v>
       </c>
       <c r="H37" t="n">
-        <v>74.807186</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.6501353</v>
+        <v>291.0399722</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1.4741529</v>
       </c>
       <c r="J37" t="n">
-        <v>186.8668956</v>
+        <v>2120.4474663</v>
       </c>
       <c r="K37" t="n">
-        <v>942.9807829</v>
+        <v>1730.7192689</v>
       </c>
       <c r="L37" t="n">
-        <v>7.5209</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>28.1042</v>
+        <v>32.5686</v>
       </c>
       <c r="N37" t="n">
-        <v>5235.78</v>
+        <v>4891</v>
       </c>
       <c r="O37" t="n">
-        <v>4.438</v>
+        <v>4.62</v>
       </c>
       <c r="P37" t="n">
-        <v>0.74982</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.608985362147536</v>
+        <v>0.7266319999999999</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>3.180623248192477</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2277199720930105</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>833.01</v>
+        <v>253.01</v>
       </c>
       <c r="B38" t="n">
-        <v>362249359</v>
+        <v>322063810</v>
       </c>
       <c r="C38" t="n">
-        <v>145.645472</v>
+        <v>14.318503</v>
       </c>
       <c r="D38" t="n">
-        <v>-62.475886</v>
+        <v>-51.585251</v>
       </c>
       <c r="E38" t="n">
-        <v>2458544.120496</v>
+        <v>2458355.622789</v>
       </c>
       <c r="F38" t="n">
-        <v>1.041889</v>
+        <v>3.5104148</v>
       </c>
       <c r="G38" t="n">
-        <v>1.2737667</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>465.3854112</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.389031</v>
+        <v>308.8285985</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1.328654</v>
       </c>
       <c r="J38" t="n">
-        <v>270.068174</v>
+        <v>64.709886</v>
       </c>
       <c r="K38" t="n">
-        <v>1033.9227741</v>
+        <v>723.3731892</v>
       </c>
       <c r="L38" t="n">
-        <v>10.1461</v>
+        <v>9.3626</v>
       </c>
       <c r="M38" t="n">
-        <v>41.7148</v>
+        <v>30.8431</v>
       </c>
       <c r="N38" t="n">
-        <v>3965</v>
+        <v>4020</v>
       </c>
       <c r="O38" t="n">
-        <v>4.68337</v>
+        <v>4.438</v>
       </c>
       <c r="P38" t="n">
-        <v>0.603336</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5.02924784540017</v>
+        <v>0.639371</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>3.21466158162215</v>
       </c>
       <c r="R38" t="n">
-        <v>0.08879781145072711</v>
+        <v>0.08762883919541069</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>836.01</v>
+        <v>179.01</v>
       </c>
       <c r="B39" t="n">
-        <v>440887364</v>
+        <v>207141131</v>
       </c>
       <c r="C39" t="n">
-        <v>225.079883</v>
+        <v>44.262014</v>
       </c>
       <c r="D39" t="n">
-        <v>-24.454202</v>
+        <v>-56.191869</v>
       </c>
       <c r="E39" t="n">
-        <v>2459356.164023</v>
+        <v>2458354.588198</v>
       </c>
       <c r="F39" t="n">
-        <v>8.5954792</v>
+        <v>4.1374379</v>
       </c>
       <c r="G39" t="n">
-        <v>2.47</v>
+        <v>1.8454937</v>
       </c>
       <c r="H39" t="n">
-        <v>1140</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.64032</v>
+        <v>1125.5354645</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>2.6757659</v>
       </c>
       <c r="J39" t="n">
-        <v>40.8229</v>
+        <v>168.3361754</v>
       </c>
       <c r="K39" t="n">
-        <v>704</v>
+        <v>918.6796864</v>
       </c>
       <c r="L39" t="n">
-        <v>8.6486</v>
+        <v>8.179600000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>27.5024</v>
+        <v>38.5653</v>
       </c>
       <c r="N39" t="n">
-        <v>4476</v>
+        <v>5058</v>
       </c>
       <c r="O39" t="n">
-        <v>4.58156</v>
+        <v>4.51761</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.425707330003564</v>
+        <v>0.802633</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>3.281657243391717</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1003368034905729</v>
+        <v>0.02954374353693721</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>836.02</v>
+        <v>5961.01</v>
       </c>
       <c r="B40" t="n">
-        <v>440887364</v>
+        <v>262689575</v>
       </c>
       <c r="C40" t="n">
-        <v>225.079883</v>
+        <v>349.216044</v>
       </c>
       <c r="D40" t="n">
-        <v>-24.454202</v>
+        <v>5.695887</v>
       </c>
       <c r="E40" t="n">
-        <v>2459355.705342</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F40" t="n">
-        <v>3.8167262</v>
+        <v>1.617487</v>
       </c>
       <c r="G40" t="n">
-        <v>1.602</v>
+        <v>1.2809267</v>
       </c>
       <c r="H40" t="n">
-        <v>580</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.69257</v>
+        <v>342.1852102</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>1.3134056</v>
       </c>
       <c r="J40" t="n">
-        <v>40.9119</v>
+        <v>197.2074933</v>
       </c>
       <c r="K40" t="n">
-        <v>763.9863872</v>
+        <v>955.7638559</v>
       </c>
       <c r="L40" t="n">
-        <v>8.6486</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>27.5024</v>
+        <v>26.2533</v>
       </c>
       <c r="N40" t="n">
-        <v>4476</v>
+        <v>3900.68</v>
       </c>
       <c r="O40" t="n">
-        <v>4.58156</v>
+        <v>4.5239</v>
       </c>
       <c r="P40" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.425707330003564</v>
+        <v>0.7017099999999999</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>3.403379315970769</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1003368034905729</v>
+        <v>0.01821666933566217</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1028.01</v>
+        <v>4307.02</v>
       </c>
       <c r="B41" t="n">
-        <v>447283466</v>
+        <v>141186075</v>
       </c>
       <c r="C41" t="n">
-        <v>157.098337</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D41" t="n">
-        <v>-51.705409</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E41" t="n">
-        <v>2458544.48066</v>
+        <v>2458328.004126</v>
       </c>
       <c r="F41" t="n">
-        <v>1.01606</v>
+        <v>4.6545798</v>
       </c>
       <c r="G41" t="n">
-        <v>2.843</v>
+        <v>3.1445137</v>
       </c>
       <c r="H41" t="n">
-        <v>240</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.20704</v>
+        <v>24.5834929</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>0.5531037</v>
       </c>
       <c r="J41" t="n">
-        <v>2784.04</v>
+        <v>454.0182322</v>
       </c>
       <c r="K41" t="n">
-        <v>2023</v>
+        <v>1177.3025181</v>
       </c>
       <c r="L41" t="n">
-        <v>7.9059</v>
+        <v>6.6418</v>
       </c>
       <c r="M41" t="n">
-        <v>23.7748</v>
+        <v>36.0469</v>
       </c>
       <c r="N41" t="n">
-        <v>4634</v>
+        <v>6079.16</v>
       </c>
       <c r="O41" t="n">
-        <v>4.64</v>
+        <v>4.438</v>
       </c>
       <c r="P41" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.520844037452445</v>
+        <v>1.09843</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>3.40741529341964</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02376373411801855</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1099.01</v>
+        <v>4307.01</v>
       </c>
       <c r="B42" t="n">
-        <v>290348383</v>
+        <v>141186075</v>
       </c>
       <c r="C42" t="n">
-        <v>328.718171</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D42" t="n">
-        <v>-77.338802</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E42" t="n">
-        <v>2460140.220927</v>
+        <v>2458349.759358</v>
       </c>
       <c r="F42" t="n">
-        <v>6.441006</v>
+        <v>32.696666</v>
       </c>
       <c r="G42" t="n">
-        <v>1.812</v>
+        <v>4.428309</v>
       </c>
       <c r="H42" t="n">
-        <v>914</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.56374</v>
+        <v>108.5170828</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1.3159881</v>
       </c>
       <c r="J42" t="n">
-        <v>87.89019999999999</v>
+        <v>33.7475807</v>
       </c>
       <c r="K42" t="n">
-        <v>853</v>
+        <v>614.7243418</v>
       </c>
       <c r="L42" t="n">
-        <v>7.3661</v>
+        <v>6.6418</v>
       </c>
       <c r="M42" t="n">
-        <v>23.606</v>
+        <v>36.0469</v>
       </c>
       <c r="N42" t="n">
-        <v>4867</v>
+        <v>6079.16</v>
       </c>
       <c r="O42" t="n">
         <v>4.438</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.231973848418512</v>
+        <v>1.09843</v>
+      </c>
+      <c r="Q42" s="3" t="n">
+        <v>3.40741529341964</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1472633163109245</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1726.01</v>
+        <v>836.01</v>
       </c>
       <c r="B43" t="n">
-        <v>130181866</v>
+        <v>440887364</v>
       </c>
       <c r="C43" t="n">
-        <v>117.47937</v>
+        <v>225.079883</v>
       </c>
       <c r="D43" t="n">
-        <v>27.363134</v>
+        <v>-24.454202</v>
       </c>
       <c r="E43" t="n">
-        <v>2458845.373051</v>
+        <v>2459356.164023</v>
       </c>
       <c r="F43" t="n">
-        <v>7.107934</v>
+        <v>8.5954792</v>
       </c>
       <c r="G43" t="n">
-        <v>3.440833</v>
+        <v>2.47</v>
       </c>
       <c r="H43" t="n">
-        <v>501.6058242</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.2881711</v>
+        <v>1140</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>2.64032</v>
       </c>
       <c r="J43" t="n">
-        <v>145.5706555</v>
+        <v>40.8229</v>
       </c>
       <c r="K43" t="n">
-        <v>885.9071544</v>
+        <v>704</v>
       </c>
       <c r="L43" t="n">
-        <v>6.2683</v>
+        <v>8.6486</v>
       </c>
       <c r="M43" t="n">
-        <v>22.4035</v>
+        <v>27.5024</v>
       </c>
       <c r="N43" t="n">
-        <v>5694.11</v>
+        <v>4476</v>
       </c>
       <c r="O43" t="n">
-        <v>4.53108</v>
+        <v>4.58156</v>
       </c>
       <c r="P43" t="n">
-        <v>0.902932</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.060089842471463</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q43" s="3" t="n">
+        <v>3.425707330003564</v>
       </c>
       <c r="R43" t="n">
-        <v>0.007274958046568345</v>
+        <v>0.1003368034905729</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1726.02</v>
+        <v>836.02</v>
       </c>
       <c r="B44" t="n">
-        <v>130181866</v>
+        <v>440887364</v>
       </c>
       <c r="C44" t="n">
-        <v>117.47937</v>
+        <v>225.079883</v>
       </c>
       <c r="D44" t="n">
-        <v>27.363134</v>
+        <v>-24.454202</v>
       </c>
       <c r="E44" t="n">
-        <v>2459583.637103</v>
+        <v>2459355.705342</v>
       </c>
       <c r="F44" t="n">
-        <v>20.5438153</v>
+        <v>3.8167262</v>
       </c>
       <c r="G44" t="n">
-        <v>4.0537919</v>
+        <v>1.602</v>
       </c>
       <c r="H44" t="n">
-        <v>799.3817133</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.5734283</v>
+        <v>580</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>1.69257</v>
       </c>
       <c r="J44" t="n">
-        <v>35.3582059</v>
+        <v>40.9119</v>
       </c>
       <c r="K44" t="n">
-        <v>621.931143</v>
+        <v>763.9863872</v>
       </c>
       <c r="L44" t="n">
-        <v>6.2683</v>
+        <v>8.6486</v>
       </c>
       <c r="M44" t="n">
-        <v>22.4035</v>
+        <v>27.5024</v>
       </c>
       <c r="N44" t="n">
-        <v>5694.11</v>
+        <v>4476</v>
       </c>
       <c r="O44" t="n">
-        <v>4.53108</v>
+        <v>4.58156</v>
       </c>
       <c r="P44" t="n">
-        <v>0.902932</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.060089842471463</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>3.425707330003564</v>
       </c>
       <c r="R44" t="n">
-        <v>0.007274958046568345</v>
+        <v>0.1003368034905729</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1773.01</v>
+        <v>560.02</v>
       </c>
       <c r="B45" t="n">
-        <v>332064670</v>
+        <v>101011575</v>
       </c>
       <c r="C45" t="n">
-        <v>133.146837</v>
+        <v>129.688303</v>
       </c>
       <c r="D45" t="n">
-        <v>28.329815</v>
+        <v>-13.256527</v>
       </c>
       <c r="E45" t="n">
-        <v>2458870.692828</v>
+        <v>2459987.337647</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7365463</v>
+        <v>18.8792871</v>
       </c>
       <c r="G45" t="n">
-        <v>1.5732208</v>
+        <v>3.262</v>
       </c>
       <c r="H45" t="n">
-        <v>384.6733121</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.0231121</v>
+        <v>1199</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>1.99787</v>
       </c>
       <c r="J45" t="n">
-        <v>2657.8322415</v>
+        <v>10.5814</v>
       </c>
       <c r="K45" t="n">
-        <v>1831.2668801</v>
+        <v>502</v>
       </c>
       <c r="L45" t="n">
-        <v>5.2058</v>
+        <v>8.592499999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>12.5855</v>
+        <v>31.5666</v>
       </c>
       <c r="N45" t="n">
-        <v>5250</v>
+        <v>4695</v>
       </c>
       <c r="O45" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="P45" t="n">
-        <v>0.963515</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.058179580845991</v>
+        <v>0.63</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>3.521787600818508</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2680494911322885</v>
+        <v>0.03908929712115194</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1793.01</v>
+        <v>560.01</v>
       </c>
       <c r="B46" t="n">
-        <v>304142124</v>
+        <v>101011575</v>
       </c>
       <c r="C46" t="n">
-        <v>164.856336</v>
+        <v>129.688303</v>
       </c>
       <c r="D46" t="n">
-        <v>-56.623556</v>
+        <v>-13.256527</v>
       </c>
       <c r="E46" t="n">
-        <v>2460017.429225</v>
+        <v>2459982.845399</v>
       </c>
       <c r="F46" t="n">
-        <v>55.087</v>
+        <v>6.3980642</v>
       </c>
       <c r="G46" t="n">
-        <v>5.709</v>
+        <v>2.004</v>
       </c>
       <c r="H46" t="n">
-        <v>2509</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.36639</v>
+        <v>1656</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>2.62025</v>
       </c>
       <c r="J46" t="n">
-        <v>16.5899</v>
+        <v>33.7178</v>
       </c>
       <c r="K46" t="n">
-        <v>562</v>
+        <v>671</v>
       </c>
       <c r="L46" t="n">
-        <v>7.8436</v>
+        <v>8.592499999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>36.9941</v>
+        <v>31.5666</v>
       </c>
       <c r="N46" t="n">
-        <v>5175</v>
+        <v>4695</v>
       </c>
       <c r="O46" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="P46" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3.075412942076768</v>
+        <v>0.63</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>3.521787600818508</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2165786356227843</v>
+        <v>0.03908929712115194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1821.01</v>
+        <v>214.01</v>
       </c>
       <c r="B47" t="n">
-        <v>82308728</v>
+        <v>167415965</v>
       </c>
       <c r="C47" t="n">
-        <v>168.637658</v>
+        <v>99.458741</v>
       </c>
       <c r="D47" t="n">
-        <v>25.710596</v>
+        <v>-70.931327</v>
       </c>
       <c r="E47" t="n">
-        <v>2459664.085255</v>
+        <v>2460154.945542</v>
       </c>
       <c r="F47" t="n">
-        <v>9.4893231</v>
+        <v>18.5537012</v>
       </c>
       <c r="G47" t="n">
-        <v>2.757</v>
+        <v>3.438</v>
       </c>
       <c r="H47" t="n">
-        <v>940</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.4304</v>
+        <v>448</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1.57606</v>
       </c>
       <c r="J47" t="n">
-        <v>41.924</v>
+        <v>25.0891</v>
       </c>
       <c r="K47" t="n">
-        <v>708</v>
+        <v>623</v>
       </c>
       <c r="L47" t="n">
-        <v>6.9859</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>21.5618</v>
+        <v>38.96</v>
       </c>
       <c r="N47" t="n">
-        <v>5120</v>
+        <v>5346.2</v>
       </c>
       <c r="O47" t="n">
         <v>4.6</v>
       </c>
       <c r="P47" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.953747416139957</v>
+        <v>0.8</v>
+      </c>
+      <c r="Q47" s="3" t="n">
+        <v>3.568330244588864</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05814337774157254</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1835.01</v>
+        <v>214.02</v>
       </c>
       <c r="B48" t="n">
-        <v>347332255</v>
+        <v>167415965</v>
       </c>
       <c r="C48" t="n">
-        <v>189.839224</v>
+        <v>99.458741</v>
       </c>
       <c r="D48" t="n">
-        <v>20.027338</v>
+        <v>-70.931327</v>
       </c>
       <c r="E48" t="n">
-        <v>2458932.763635</v>
+        <v>2460174.709658</v>
       </c>
       <c r="F48" t="n">
-        <v>5.6419598</v>
+        <v>9.695961</v>
       </c>
       <c r="G48" t="n">
-        <v>3.0871502</v>
+        <v>2.772</v>
       </c>
       <c r="H48" t="n">
-        <v>543.838848</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.8245844</v>
+        <v>122</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>0.808552</v>
       </c>
       <c r="J48" t="n">
-        <v>119.4171181</v>
+        <v>66.2914</v>
       </c>
       <c r="K48" t="n">
-        <v>843.1141848</v>
+        <v>794</v>
       </c>
       <c r="L48" t="n">
-        <v>7.6621</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>32.1585</v>
+        <v>38.96</v>
       </c>
       <c r="N48" t="n">
-        <v>5297</v>
+        <v>5346.2</v>
       </c>
       <c r="O48" t="n">
-        <v>4.61016</v>
+        <v>4.6</v>
       </c>
       <c r="P48" t="n">
-        <v>0.782479</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.76374786632559</v>
+        <v>0.8</v>
+      </c>
+      <c r="Q48" s="3" t="n">
+        <v>3.568330244588864</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06661906644424098</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1835.02</v>
+        <v>5082.01</v>
       </c>
       <c r="B49" t="n">
-        <v>347332255</v>
+        <v>437011608</v>
       </c>
       <c r="C49" t="n">
-        <v>189.839224</v>
+        <v>106.569578</v>
       </c>
       <c r="D49" t="n">
-        <v>20.027338</v>
+        <v>22.683148</v>
       </c>
       <c r="E49" t="n">
-        <v>2458937.873023</v>
+        <v>2460284.802643</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.2403543</v>
       </c>
       <c r="G49" t="n">
-        <v>3.9454498</v>
+        <v>2.353</v>
       </c>
       <c r="H49" t="n">
-        <v>886.4838237</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.5398986</v>
+        <v>842</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>2.64301</v>
       </c>
       <c r="J49" t="n">
-        <v>48.4006234</v>
+        <v>255.637</v>
       </c>
       <c r="K49" t="n">
-        <v>672.7171326</v>
+        <v>1113</v>
       </c>
       <c r="L49" t="n">
-        <v>7.6621</v>
+        <v>7.6253</v>
       </c>
       <c r="M49" t="n">
-        <v>32.1585</v>
+        <v>43.1406</v>
       </c>
       <c r="N49" t="n">
-        <v>5297</v>
+        <v>5670</v>
       </c>
       <c r="O49" t="n">
-        <v>4.61016</v>
+        <v>4.5</v>
       </c>
       <c r="P49" t="n">
-        <v>0.782479</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.76374786632559</v>
+        <v>0.93</v>
+      </c>
+      <c r="Q49" s="3" t="n">
+        <v>3.649745289465404</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06661906644424098</v>
+        <v>0.06111348028634735</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2009.01</v>
+        <v>262.01</v>
       </c>
       <c r="B50" t="n">
-        <v>243187830</v>
+        <v>70513361</v>
       </c>
       <c r="C50" t="n">
-        <v>16.908292</v>
+        <v>32.534687</v>
       </c>
       <c r="D50" t="n">
-        <v>22.952868</v>
+        <v>-31.070627</v>
       </c>
       <c r="E50" t="n">
-        <v>2458783.768755</v>
+        <v>2459136.576258</v>
       </c>
       <c r="F50" t="n">
-        <v>1071.0898448</v>
+        <v>11.1452784</v>
       </c>
       <c r="G50" t="n">
-        <v>2.1734134</v>
+        <v>1.3947705</v>
       </c>
       <c r="H50" t="n">
-        <v>865.169438</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.2407785</v>
+        <v>566.2736451</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>2.0671456</v>
       </c>
       <c r="J50" t="n">
-        <v>1.3880259</v>
+        <v>56.9132658</v>
       </c>
       <c r="K50" t="n">
-        <v>276.8338183</v>
+        <v>700.5241733</v>
       </c>
       <c r="L50" t="n">
-        <v>7.3551</v>
+        <v>8.134499999999999</v>
       </c>
       <c r="M50" t="n">
-        <v>20.5272</v>
+        <v>43.932</v>
       </c>
       <c r="N50" t="n">
-        <v>4755.33</v>
+        <v>5302.58</v>
       </c>
       <c r="O50" t="n">
-        <v>4.62683</v>
+        <v>4.53515</v>
       </c>
       <c r="P50" t="n">
-        <v>0.701499</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.116113831581009</v>
+        <v>0.848675</v>
+      </c>
+      <c r="Q50" s="3" t="n">
+        <v>3.674405832762042</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2489958576352085</v>
+        <v>0.1492879722753243</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2011.01</v>
+        <v>402.02</v>
       </c>
       <c r="B51" t="n">
-        <v>136916387</v>
+        <v>120896927</v>
       </c>
       <c r="C51" t="n">
-        <v>230.440115</v>
+        <v>36.867885</v>
       </c>
       <c r="D51" t="n">
-        <v>-48.318817</v>
+        <v>-27.636117</v>
       </c>
       <c r="E51" t="n">
-        <v>2458631.767617</v>
+        <v>2459118.955569</v>
       </c>
       <c r="F51" t="n">
-        <v>11.5778362</v>
+        <v>17.1807214</v>
       </c>
       <c r="G51" t="n">
-        <v>3.8772499</v>
+        <v>2.1004813</v>
       </c>
       <c r="H51" t="n">
-        <v>217.3994918</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.5422129</v>
+        <v>680.1385904</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>2.1954034</v>
       </c>
       <c r="J51" t="n">
-        <v>99.9013415</v>
+        <v>29.1782002</v>
       </c>
       <c r="K51" t="n">
-        <v>806.3295568999999</v>
+        <v>592.7674866</v>
       </c>
       <c r="L51" t="n">
-        <v>5.0494</v>
+        <v>8.3157</v>
       </c>
       <c r="M51" t="n">
-        <v>14.682</v>
+        <v>44.8155</v>
       </c>
       <c r="N51" t="n">
-        <v>5739</v>
+        <v>5175.2</v>
       </c>
       <c r="O51" t="n">
-        <v>4.51</v>
+        <v>4.37657</v>
       </c>
       <c r="P51" t="n">
-        <v>1.02607</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.244933048070707</v>
+        <v>0.841842</v>
+      </c>
+      <c r="Q51" s="3" t="n">
+        <v>3.769031705355568</v>
       </c>
       <c r="R51" t="n">
-        <v>0.824166803690751</v>
+        <v>0.1131206969624331</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2011.02</v>
+        <v>402.01</v>
       </c>
       <c r="B52" t="n">
-        <v>136916387</v>
+        <v>120896927</v>
       </c>
       <c r="C52" t="n">
-        <v>230.440115</v>
+        <v>36.867885</v>
       </c>
       <c r="D52" t="n">
-        <v>-48.318817</v>
+        <v>-27.636117</v>
       </c>
       <c r="E52" t="n">
-        <v>2458650.89757</v>
+        <v>2459139.126535</v>
       </c>
       <c r="F52" t="n">
-        <v>27.5920718</v>
+        <v>4.7559737</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2743016</v>
+        <v>2.5469696</v>
       </c>
       <c r="H52" t="n">
-        <v>555.3352929</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.7050278</v>
+        <v>398.6310113</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1.725417</v>
       </c>
       <c r="J52" t="n">
-        <v>31.3830711</v>
+        <v>161.7314334</v>
       </c>
       <c r="K52" t="n">
-        <v>603.6616824</v>
+        <v>909.5327855</v>
       </c>
       <c r="L52" t="n">
-        <v>5.0494</v>
+        <v>8.3157</v>
       </c>
       <c r="M52" t="n">
-        <v>14.682</v>
+        <v>44.8155</v>
       </c>
       <c r="N52" t="n">
-        <v>5739</v>
+        <v>5175.2</v>
       </c>
       <c r="O52" t="n">
-        <v>4.51</v>
+        <v>4.37657</v>
       </c>
       <c r="P52" t="n">
-        <v>1.02607</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.244933048070707</v>
+        <v>0.841842</v>
+      </c>
+      <c r="Q52" s="3" t="n">
+        <v>3.769031705355568</v>
       </c>
       <c r="R52" t="n">
-        <v>0.824166803690751</v>
+        <v>0.1131206969624331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2011.03</v>
+        <v>6266.01</v>
       </c>
       <c r="B53" t="n">
-        <v>136916387</v>
+        <v>193023697</v>
       </c>
       <c r="C53" t="n">
-        <v>230.440115</v>
+        <v>155.597851</v>
       </c>
       <c r="D53" t="n">
-        <v>-48.318817</v>
+        <v>-28.847487</v>
       </c>
       <c r="E53" t="n">
-        <v>2460081.126376</v>
+        <v>2460013.265158</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.7895524</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5341354</v>
+        <v>1.969</v>
       </c>
       <c r="H53" t="n">
-        <v>195.1972939</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.6208326</v>
+        <v>262</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>0.986147</v>
       </c>
       <c r="J53" t="n">
-        <v>335.6075222</v>
+        <v>376.853</v>
       </c>
       <c r="K53" t="n">
-        <v>1091.635552</v>
+        <v>1227</v>
       </c>
       <c r="L53" t="n">
-        <v>5.0494</v>
+        <v>8.5953</v>
       </c>
       <c r="M53" t="n">
-        <v>14.682</v>
+        <v>42.6435</v>
       </c>
       <c r="N53" t="n">
-        <v>5739</v>
+        <v>5039</v>
       </c>
       <c r="O53" t="n">
-        <v>4.51</v>
+        <v>4.62</v>
       </c>
       <c r="P53" t="n">
-        <v>1.02607</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.244933048070707</v>
+        <v>0.74</v>
+      </c>
+      <c r="Q53" s="3" t="n">
+        <v>3.8722412377071</v>
       </c>
       <c r="R53" t="n">
-        <v>0.824166803690751</v>
+        <v>0.01595707167941454</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2018.01</v>
+        <v>4517.01</v>
       </c>
       <c r="B54" t="n">
-        <v>357501308</v>
+        <v>301289516</v>
       </c>
       <c r="C54" t="n">
-        <v>229.837442</v>
+        <v>351.771776</v>
       </c>
       <c r="D54" t="n">
-        <v>29.207877</v>
+        <v>-1.285343</v>
       </c>
       <c r="E54" t="n">
-        <v>2458958.257962</v>
+        <v>2460231.733831</v>
       </c>
       <c r="F54" t="n">
-        <v>7.4355709</v>
+        <v>1.2089755</v>
       </c>
       <c r="G54" t="n">
-        <v>2.3450321</v>
+        <v>1.286</v>
       </c>
       <c r="H54" t="n">
-        <v>1310.6803156</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.2761564</v>
+        <v>668</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>1.68645</v>
       </c>
       <c r="J54" t="n">
-        <v>26.0757607</v>
+        <v>325.749</v>
       </c>
       <c r="K54" t="n">
-        <v>576.3403106</v>
+        <v>1183</v>
       </c>
       <c r="L54" t="n">
-        <v>8.962</v>
+        <v>9.0684</v>
       </c>
       <c r="M54" t="n">
-        <v>27.9956</v>
+        <v>29.661</v>
       </c>
       <c r="N54" t="n">
-        <v>4218.9</v>
+        <v>4199</v>
       </c>
       <c r="O54" t="n">
-        <v>4.67</v>
+        <v>4.65321</v>
       </c>
       <c r="P54" t="n">
-        <v>0.622512</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4.588032766810645</v>
+        <v>0.63</v>
+      </c>
+      <c r="Q54" s="3" t="n">
+        <v>3.917080320565909</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2100230324731976</v>
+        <v>0.216608172812752</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2194.01</v>
+        <v>6985.01</v>
       </c>
       <c r="B55" t="n">
-        <v>271478281</v>
+        <v>59490344</v>
       </c>
       <c r="C55" t="n">
-        <v>299.156339</v>
+        <v>108.993831</v>
       </c>
       <c r="D55" t="n">
-        <v>-31.335181</v>
+        <v>18.691658</v>
       </c>
       <c r="E55" t="n">
-        <v>2460141.982191</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F55" t="n">
-        <v>15.3419095</v>
+        <v>748.7146251</v>
       </c>
       <c r="G55" t="n">
-        <v>2.736</v>
+        <v>6.6689152</v>
       </c>
       <c r="H55" t="n">
-        <v>683</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.7005</v>
+        <v>1655.3509066</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>3.4308988</v>
       </c>
       <c r="J55" t="n">
-        <v>14.2526</v>
+        <v>0.1991332</v>
       </c>
       <c r="K55" t="n">
-        <v>541</v>
+        <v>170.3749226</v>
       </c>
       <c r="L55" t="n">
-        <v>7.4259</v>
+        <v>8.3323</v>
       </c>
       <c r="M55" t="n">
-        <v>19.5711</v>
+        <v>46.2206</v>
       </c>
       <c r="N55" t="n">
-        <v>4669</v>
+        <v>5235</v>
       </c>
       <c r="O55" t="n">
-        <v>4.63</v>
+        <v>4.5339</v>
       </c>
       <c r="P55" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.086618763444284</v>
+        <v>0.844852</v>
+      </c>
+      <c r="Q55" s="3" t="n">
+        <v>3.979865678119569</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2060338426977061</v>
+        <v>0.05116830390931167</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2326.01</v>
+        <v>174.03</v>
       </c>
       <c r="B56" t="n">
-        <v>175456679</v>
+        <v>425997655</v>
       </c>
       <c r="C56" t="n">
-        <v>350.491313</v>
+        <v>55.459031</v>
       </c>
       <c r="D56" t="n">
-        <v>-40.174352</v>
+        <v>-62.767267</v>
       </c>
       <c r="E56" t="n">
-        <v>2460201.334015</v>
+        <v>2460184.414244</v>
       </c>
       <c r="F56" t="n">
-        <v>58.9970907</v>
+        <v>12.1623316</v>
       </c>
       <c r="G56" t="n">
-        <v>5.722</v>
+        <v>2.614</v>
       </c>
       <c r="H56" t="n">
-        <v>2725</v>
+        <v>317</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>1.15643</v>
+      </c>
+      <c r="J56" t="n">
+        <v>27.5458</v>
+      </c>
+      <c r="K56" t="n">
+        <v>638</v>
       </c>
       <c r="L56" t="n">
-        <v>9.456</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M56" t="n">
-        <v>154.124</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>187.1954334784244</v>
+        <v>39.0341</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4813</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q56" s="3" t="n">
+        <v>3.992721170613064</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0305854259260738</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2431.01</v>
+        <v>174.02</v>
       </c>
       <c r="B57" t="n">
-        <v>258804746</v>
+        <v>425997655</v>
       </c>
       <c r="C57" t="n">
-        <v>37.765299</v>
+        <v>55.459031</v>
       </c>
       <c r="D57" t="n">
-        <v>8.381625</v>
+        <v>-62.767267</v>
       </c>
       <c r="E57" t="n">
-        <v>2460258.868869</v>
+        <v>2460157.951364</v>
       </c>
       <c r="F57" t="n">
-        <v>0.224195</v>
+        <v>29.7975205</v>
       </c>
       <c r="G57" t="n">
-        <v>0.292</v>
+        <v>2.782</v>
       </c>
       <c r="H57" t="n">
-        <v>540</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.59553</v>
+        <v>671</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>1.60982</v>
       </c>
       <c r="J57" t="n">
-        <v>2649.15</v>
+        <v>3.2713</v>
       </c>
       <c r="K57" t="n">
-        <v>1998</v>
+        <v>374</v>
       </c>
       <c r="L57" t="n">
-        <v>9.520899999999999</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>36.0559</v>
+        <v>39.0341</v>
       </c>
       <c r="N57" t="n">
-        <v>4079</v>
+        <v>4813</v>
       </c>
       <c r="O57" t="n">
-        <v>4.58</v>
+        <v>4.38</v>
       </c>
       <c r="P57" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>6.453311691204767</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q57" s="3" t="n">
+        <v>3.992721170613064</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1915281956726753</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2443.01</v>
+        <v>174.05</v>
       </c>
       <c r="B58" t="n">
-        <v>318753380</v>
+        <v>425997655</v>
       </c>
       <c r="C58" t="n">
-        <v>40.179861</v>
+        <v>55.459031</v>
       </c>
       <c r="D58" t="n">
-        <v>1.199676</v>
+        <v>-62.767267</v>
       </c>
       <c r="E58" t="n">
-        <v>2459148.098617</v>
+        <v>2460197.038739</v>
       </c>
       <c r="F58" t="n">
-        <v>15.6692322</v>
+        <v>7.9076222</v>
       </c>
       <c r="G58" t="n">
-        <v>4.562853</v>
+        <v>2.611</v>
       </c>
       <c r="H58" t="n">
-        <v>1393.3814802</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.6868893</v>
+        <v>217</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>0.969819</v>
       </c>
       <c r="J58" t="n">
-        <v>13.2931176</v>
+        <v>44.8107</v>
       </c>
       <c r="K58" t="n">
-        <v>486.9971964</v>
+        <v>720</v>
       </c>
       <c r="L58" t="n">
-        <v>8.296900000000001</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>23.9258</v>
+        <v>39.0341</v>
       </c>
       <c r="N58" t="n">
-        <v>4214.44</v>
+        <v>4813</v>
       </c>
       <c r="O58" t="n">
-        <v>4.52845</v>
+        <v>4.38</v>
       </c>
       <c r="P58" t="n">
-        <v>0.732115</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.839885605748058</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q58" s="3" t="n">
+        <v>3.992721170613064</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1818675256571092</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2459.01</v>
+        <v>174.01</v>
       </c>
       <c r="B59" t="n">
-        <v>192790476</v>
+        <v>425997655</v>
       </c>
       <c r="C59" t="n">
-        <v>82.143332</v>
+        <v>55.459031</v>
       </c>
       <c r="D59" t="n">
-        <v>-39.373046</v>
+        <v>-62.767267</v>
       </c>
       <c r="E59" t="n">
-        <v>2458452.334564</v>
+        <v>2460180.378105</v>
       </c>
       <c r="F59" t="n">
-        <v>19.1047019</v>
+        <v>17.6671687</v>
       </c>
       <c r="G59" t="n">
-        <v>3.2516728</v>
+        <v>2.525</v>
       </c>
       <c r="H59" t="n">
-        <v>1906.0596245</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2.9365337</v>
+        <v>854</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>1.87042</v>
       </c>
       <c r="J59" t="n">
-        <v>8.5187297</v>
+        <v>7.60884</v>
       </c>
       <c r="K59" t="n">
-        <v>435.7259839</v>
+        <v>462</v>
       </c>
       <c r="L59" t="n">
-        <v>9.395099999999999</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>36.6113</v>
+        <v>39.0341</v>
       </c>
       <c r="N59" t="n">
-        <v>4195</v>
+        <v>4813</v>
       </c>
       <c r="O59" t="n">
-        <v>4.59888</v>
+        <v>4.38</v>
       </c>
       <c r="P59" t="n">
-        <v>0.6750930000000001</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4.31253190430223</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q59" s="3" t="n">
+        <v>3.992721170613064</v>
       </c>
       <c r="R59" t="n">
-        <v>0.04566165863559627</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2540.01</v>
+        <v>174.04</v>
       </c>
       <c r="B60" t="n">
-        <v>354518617</v>
+        <v>425997655</v>
       </c>
       <c r="C60" t="n">
-        <v>82.558548</v>
+        <v>55.459031</v>
       </c>
       <c r="D60" t="n">
-        <v>-42.697946</v>
+        <v>-62.767267</v>
       </c>
       <c r="E60" t="n">
-        <v>2458480.943804</v>
+        <v>2460203.017928</v>
       </c>
       <c r="F60" t="n">
-        <v>12.7187255</v>
+        <v>3.9766833</v>
       </c>
       <c r="G60" t="n">
-        <v>3.1582562</v>
+        <v>1.859</v>
       </c>
       <c r="H60" t="n">
-        <v>1144.1789073</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.5924633</v>
+        <v>142</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0.757588</v>
       </c>
       <c r="J60" t="n">
-        <v>12.2599233</v>
+        <v>89.0886</v>
       </c>
       <c r="K60" t="n">
-        <v>477.2453303</v>
+        <v>855</v>
       </c>
       <c r="L60" t="n">
-        <v>8.273099999999999</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M60" t="n">
-        <v>19.1419</v>
+        <v>39.0341</v>
       </c>
       <c r="N60" t="n">
-        <v>4036.3</v>
+        <v>4813</v>
       </c>
       <c r="O60" t="n">
-        <v>4.65</v>
+        <v>4.38</v>
       </c>
       <c r="P60" t="n">
-        <v>0.661076</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2.573431856217872</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q60" s="3" t="n">
+        <v>3.992721170613064</v>
       </c>
       <c r="R60" t="n">
-        <v>0.07410788920890607</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2540.02</v>
+        <v>200.01</v>
       </c>
       <c r="B61" t="n">
-        <v>354518617</v>
+        <v>410214986</v>
       </c>
       <c r="C61" t="n">
-        <v>82.558548</v>
+        <v>354.915467</v>
       </c>
       <c r="D61" t="n">
-        <v>-42.697946</v>
+        <v>-69.196043</v>
       </c>
       <c r="E61" t="n">
-        <v>2459223.145597</v>
+        <v>2458332.308323</v>
       </c>
       <c r="F61" t="n">
-        <v>22.0819969</v>
+        <v>8.1382222</v>
       </c>
       <c r="G61" t="n">
-        <v>3.073</v>
+        <v>3.2797025</v>
       </c>
       <c r="H61" t="n">
-        <v>1019</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.28729</v>
+        <v>3852.0299874</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>6.1757682</v>
       </c>
       <c r="J61" t="n">
-        <v>5.94816</v>
+        <v>115.8275563</v>
       </c>
       <c r="K61" t="n">
-        <v>435</v>
+        <v>836.7056912</v>
       </c>
       <c r="L61" t="n">
-        <v>8.273099999999999</v>
+        <v>7.8541</v>
       </c>
       <c r="M61" t="n">
-        <v>19.1419</v>
+        <v>44.0622</v>
       </c>
       <c r="N61" t="n">
-        <v>4036.3</v>
+        <v>5414</v>
       </c>
       <c r="O61" t="n">
-        <v>4.65</v>
+        <v>4.438</v>
       </c>
       <c r="P61" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.573431856217872</v>
+        <v>0.951985</v>
+      </c>
+      <c r="Q61" s="3" t="n">
+        <v>4.006602775726686</v>
       </c>
       <c r="R61" t="n">
-        <v>0.07410788920890607</v>
+        <v>0.05260215923995968</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2666.01</v>
+        <v>509.02</v>
       </c>
       <c r="B62" t="n">
-        <v>170889511</v>
+        <v>453211454</v>
       </c>
       <c r="C62" t="n">
-        <v>139.480865</v>
+        <v>117.924642</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.387525</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>2459259.141383</v>
+        <v>2460259.048369</v>
+      </c>
+      <c r="F62" t="n">
+        <v>21.4003129</v>
       </c>
       <c r="G62" t="n">
-        <v>1.445</v>
+        <v>5.3847459</v>
       </c>
       <c r="H62" t="n">
-        <v>22040</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16.6553</v>
+        <v>960.7539877</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>3.0010426</v>
       </c>
       <c r="J62" t="n">
-        <v>21.4281</v>
+        <v>35.2811724</v>
       </c>
       <c r="K62" t="n">
-        <v>599</v>
+        <v>621.592122</v>
       </c>
       <c r="L62" t="n">
-        <v>6.9887</v>
+        <v>7.9259</v>
       </c>
       <c r="M62" t="n">
-        <v>32.6024</v>
+        <v>48.9739</v>
       </c>
       <c r="N62" t="n">
-        <v>5212</v>
+        <v>5560.26</v>
       </c>
       <c r="O62" t="n">
-        <v>4.3</v>
+        <v>4.438</v>
       </c>
       <c r="P62" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.391281741446773</v>
+        <v>0.962324</v>
+      </c>
+      <c r="Q62" s="3" t="n">
+        <v>4.060332463177636</v>
       </c>
       <c r="R62" t="n">
-        <v>0.03358799800878934</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4307.01</v>
+        <v>509.01</v>
       </c>
       <c r="B63" t="n">
-        <v>141186075</v>
+        <v>453211454</v>
       </c>
       <c r="C63" t="n">
-        <v>81.32749800000001</v>
+        <v>117.924642</v>
       </c>
       <c r="D63" t="n">
-        <v>-75.69373400000001</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>2458349.759358</v>
+        <v>2460269.974997</v>
       </c>
       <c r="F63" t="n">
-        <v>32.696666</v>
+        <v>9.058820900000001</v>
       </c>
       <c r="G63" t="n">
-        <v>4.428309</v>
+        <v>3.342</v>
       </c>
       <c r="H63" t="n">
-        <v>108.5170828</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.3159881</v>
+        <v>875</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>2.67607</v>
       </c>
       <c r="J63" t="n">
-        <v>33.7475807</v>
+        <v>92.839</v>
       </c>
       <c r="K63" t="n">
-        <v>614.7243418</v>
+        <v>864</v>
       </c>
       <c r="L63" t="n">
-        <v>6.6418</v>
+        <v>7.9259</v>
       </c>
       <c r="M63" t="n">
-        <v>36.0469</v>
+        <v>48.9739</v>
       </c>
       <c r="N63" t="n">
-        <v>6079.16</v>
+        <v>5560.26</v>
       </c>
       <c r="O63" t="n">
         <v>4.438</v>
       </c>
       <c r="P63" t="n">
-        <v>1.09843</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3.40741529341964</v>
+        <v>0.96</v>
+      </c>
+      <c r="Q63" s="3" t="n">
+        <v>4.060332463177636</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4307.02</v>
+        <v>4568.01</v>
       </c>
       <c r="B64" t="n">
-        <v>141186075</v>
+        <v>447088034</v>
       </c>
       <c r="C64" t="n">
-        <v>81.32749800000001</v>
+        <v>238.702259</v>
       </c>
       <c r="D64" t="n">
-        <v>-75.69373400000001</v>
+        <v>-65.901121</v>
       </c>
       <c r="E64" t="n">
-        <v>2458328.004126</v>
+        <v>2460121.465283</v>
       </c>
       <c r="F64" t="n">
-        <v>4.6545798</v>
+        <v>14.0063765</v>
       </c>
       <c r="G64" t="n">
-        <v>3.1445137</v>
+        <v>1.971</v>
       </c>
       <c r="H64" t="n">
-        <v>24.5834929</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.5531037</v>
+        <v>300</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>2.26316</v>
       </c>
       <c r="J64" t="n">
-        <v>454.0182322</v>
+        <v>19.2603</v>
       </c>
       <c r="K64" t="n">
-        <v>1177.3025181</v>
+        <v>583</v>
       </c>
       <c r="L64" t="n">
-        <v>6.6418</v>
+        <v>6.9608</v>
       </c>
       <c r="M64" t="n">
-        <v>36.0469</v>
+        <v>48.0378</v>
       </c>
       <c r="N64" t="n">
-        <v>6079.16</v>
+        <v>5899</v>
       </c>
       <c r="O64" t="n">
-        <v>4.438</v>
+        <v>4.22221</v>
       </c>
       <c r="P64" t="n">
-        <v>1.09843</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3.40741529341964</v>
+        <v>1.33</v>
+      </c>
+      <c r="Q64" s="3" t="n">
+        <v>4.090376870471276</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.01183878718422854</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4310.01</v>
+        <v>6709.01</v>
       </c>
       <c r="B65" t="n">
-        <v>303317324</v>
+        <v>20375215</v>
       </c>
       <c r="C65" t="n">
-        <v>351.903531</v>
+        <v>167.608218</v>
       </c>
       <c r="D65" t="n">
-        <v>-25.508462</v>
+        <v>-29.414302</v>
       </c>
       <c r="E65" t="n">
-        <v>2458365.181534</v>
+        <v>2458544.543307</v>
       </c>
       <c r="F65" t="n">
-        <v>739.1670007</v>
+        <v>2.3477336</v>
       </c>
       <c r="G65" t="n">
-        <v>5.7183604</v>
+        <v>1.8624266</v>
       </c>
       <c r="H65" t="n">
-        <v>1376.1395053</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.6735992</v>
+        <v>182.9434914</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>1.0903541</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0724872</v>
+        <v>215.4979378</v>
       </c>
       <c r="K65" t="n">
-        <v>132.3381364</v>
+        <v>977.1934094</v>
       </c>
       <c r="L65" t="n">
-        <v>9.4961</v>
+        <v>8.8392</v>
       </c>
       <c r="M65" t="n">
-        <v>40.0268</v>
+        <v>39.7429</v>
       </c>
       <c r="N65" t="n">
-        <v>4159</v>
+        <v>4799</v>
       </c>
       <c r="O65" t="n">
-        <v>4.53501</v>
+        <v>4.66766</v>
       </c>
       <c r="P65" t="n">
-        <v>0.7210839999999999</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>4.856890565061564</v>
+        <v>0.678033</v>
+      </c>
+      <c r="Q65" s="3" t="n">
+        <v>4.12818079432414</v>
       </c>
       <c r="R65" t="n">
-        <v>0.04720909238790994</v>
+        <v>0.03672621593360964</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4328.01</v>
+        <v>652.01</v>
       </c>
       <c r="B66" t="n">
-        <v>77175217</v>
+        <v>22221375</v>
       </c>
       <c r="C66" t="n">
-        <v>68.288836</v>
+        <v>149.123515</v>
       </c>
       <c r="D66" t="n">
-        <v>-36.945858</v>
+        <v>-24.099186</v>
       </c>
       <c r="E66" t="n">
-        <v>2458459.446061</v>
+        <v>2460013.591733</v>
       </c>
       <c r="F66" t="n">
-        <v>703.79367</v>
+        <v>3.9846589</v>
       </c>
       <c r="G66" t="n">
-        <v>2.9297301</v>
+        <v>2.146</v>
       </c>
       <c r="H66" t="n">
-        <v>601.9566843</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.860295</v>
+        <v>445</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>2.12827</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3066589</v>
+        <v>647.901</v>
       </c>
       <c r="K66" t="n">
-        <v>189.7945133</v>
+        <v>1405</v>
       </c>
       <c r="L66" t="n">
-        <v>7.7679</v>
+        <v>7.3635</v>
       </c>
       <c r="M66" t="n">
-        <v>25.0039</v>
+        <v>45.683</v>
       </c>
       <c r="N66" t="n">
-        <v>4709</v>
+        <v>5903</v>
       </c>
       <c r="O66" t="n">
-        <v>4.57486</v>
+        <v>4.44653</v>
       </c>
       <c r="P66" t="n">
-        <v>0.739835</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.496769003128451</v>
+        <v>1.03</v>
+      </c>
+      <c r="Q66" s="3" t="n">
+        <v>4.161623333076339</v>
       </c>
       <c r="R66" t="n">
-        <v>0.02282511607964633</v>
+        <v>0.09064358825212875</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4470.01</v>
+        <v>141.01</v>
       </c>
       <c r="B67" t="n">
-        <v>256364928</v>
+        <v>403224672</v>
       </c>
       <c r="C67" t="n">
-        <v>300.182122</v>
+        <v>338.983717</v>
       </c>
       <c r="D67" t="n">
-        <v>22.709776</v>
+        <v>-59.864829</v>
       </c>
       <c r="E67" t="n">
-        <v>2459770.410421</v>
+        <v>2460178.671412</v>
       </c>
       <c r="F67" t="n">
-        <v>2.2185748</v>
+        <v>1.0082361</v>
       </c>
       <c r="G67" t="n">
-        <v>1.8233621</v>
+        <v>1.41</v>
       </c>
       <c r="H67" t="n">
-        <v>25854.2144559</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13.3010355</v>
+        <v>228</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>1.7202</v>
       </c>
       <c r="J67" t="n">
-        <v>348.1506195</v>
+        <v>1882.94</v>
       </c>
       <c r="K67" t="n">
-        <v>1101.6954166</v>
+        <v>1835</v>
       </c>
       <c r="L67" t="n">
-        <v>6.8481</v>
+        <v>7.384</v>
       </c>
       <c r="M67" t="n">
-        <v>19.7638</v>
+        <v>48.0883</v>
       </c>
       <c r="N67" t="n">
-        <v>5023</v>
+        <v>5795.29</v>
       </c>
       <c r="O67" t="n">
-        <v>4.58</v>
+        <v>4.438</v>
       </c>
       <c r="P67" t="n">
-        <v>0.776484</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1.756279763925608</v>
+        <v>1.13</v>
+      </c>
+      <c r="Q67" s="3" t="n">
+        <v>4.208501350154981</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1256230421635217</v>
+        <v>0.06928742024772654</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4517.01</v>
+        <v>2459.01</v>
       </c>
       <c r="B68" t="n">
-        <v>301289516</v>
+        <v>192790476</v>
       </c>
       <c r="C68" t="n">
-        <v>351.771776</v>
+        <v>82.143332</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.285343</v>
+        <v>-39.373046</v>
       </c>
       <c r="E68" t="n">
-        <v>2460231.733831</v>
+        <v>2458452.334564</v>
       </c>
       <c r="F68" t="n">
-        <v>1.2089755</v>
+        <v>19.1047019</v>
       </c>
       <c r="G68" t="n">
-        <v>1.286</v>
+        <v>3.2516728</v>
       </c>
       <c r="H68" t="n">
-        <v>668</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.68645</v>
+        <v>1906.0596245</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>2.9365337</v>
       </c>
       <c r="J68" t="n">
-        <v>325.749</v>
+        <v>8.5187297</v>
       </c>
       <c r="K68" t="n">
-        <v>1183</v>
+        <v>435.7259839</v>
       </c>
       <c r="L68" t="n">
-        <v>9.0684</v>
+        <v>9.395099999999999</v>
       </c>
       <c r="M68" t="n">
-        <v>29.661</v>
+        <v>36.6113</v>
       </c>
       <c r="N68" t="n">
-        <v>4199</v>
+        <v>4195</v>
       </c>
       <c r="O68" t="n">
-        <v>4.65321</v>
+        <v>4.59888</v>
       </c>
       <c r="P68" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>3.917080320565909</v>
+        <v>0.6750930000000001</v>
+      </c>
+      <c r="Q68" s="3" t="n">
+        <v>4.31253190430223</v>
       </c>
       <c r="R68" t="n">
-        <v>0.216608172812752</v>
+        <v>0.04566165863559627</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4568.01</v>
+        <v>440.01</v>
       </c>
       <c r="B69" t="n">
-        <v>447088034</v>
+        <v>143350972</v>
       </c>
       <c r="C69" t="n">
-        <v>238.702259</v>
+        <v>82.245986</v>
       </c>
       <c r="D69" t="n">
-        <v>-65.901121</v>
+        <v>-17.429564</v>
       </c>
       <c r="E69" t="n">
-        <v>2460121.465283</v>
+        <v>2458439.13519</v>
       </c>
       <c r="F69" t="n">
-        <v>14.0063765</v>
+        <v>1.0817</v>
       </c>
       <c r="G69" t="n">
-        <v>1.971</v>
+        <v>1.588</v>
       </c>
       <c r="H69" t="n">
-        <v>300</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.26316</v>
+        <v>341.533</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>2.07554</v>
       </c>
       <c r="J69" t="n">
-        <v>19.2603</v>
+        <v>2462.7009749</v>
       </c>
       <c r="K69" t="n">
-        <v>583</v>
+        <v>1796.6880123</v>
       </c>
       <c r="L69" t="n">
-        <v>6.9608</v>
+        <v>7.6818</v>
       </c>
       <c r="M69" t="n">
-        <v>48.0378</v>
+        <v>49.3375</v>
       </c>
       <c r="N69" t="n">
-        <v>5899</v>
+        <v>5759.2</v>
       </c>
       <c r="O69" t="n">
-        <v>4.22221</v>
+        <v>4.45</v>
       </c>
       <c r="P69" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>4.090376870471276</v>
+        <v>1.02</v>
+      </c>
+      <c r="Q69" s="3" t="n">
+        <v>4.315781758736281</v>
       </c>
       <c r="R69" t="n">
-        <v>0.01183878718422854</v>
+        <v>0.05708224099375498</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5082.01</v>
+        <v>6678.01</v>
       </c>
       <c r="B70" t="n">
-        <v>437011608</v>
+        <v>253864764</v>
       </c>
       <c r="C70" t="n">
-        <v>106.569578</v>
+        <v>283.536275</v>
       </c>
       <c r="D70" t="n">
-        <v>22.683148</v>
+        <v>-36.65686</v>
       </c>
       <c r="E70" t="n">
-        <v>2460284.802643</v>
+        <v>2460149.83497</v>
       </c>
       <c r="F70" t="n">
-        <v>4.2403543</v>
+        <v>3.4268387</v>
       </c>
       <c r="G70" t="n">
-        <v>2.353</v>
+        <v>1.288</v>
       </c>
       <c r="H70" t="n">
-        <v>842</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.64301</v>
+        <v>844</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>2.12571</v>
       </c>
       <c r="J70" t="n">
-        <v>255.637</v>
+        <v>94.0962</v>
       </c>
       <c r="K70" t="n">
-        <v>1113</v>
+        <v>867</v>
       </c>
       <c r="L70" t="n">
-        <v>7.6253</v>
+        <v>8.8688</v>
       </c>
       <c r="M70" t="n">
-        <v>43.1406</v>
+        <v>44.8496</v>
       </c>
       <c r="N70" t="n">
-        <v>5670</v>
+        <v>4794</v>
       </c>
       <c r="O70" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="P70" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>3.649745289465404</v>
+        <v>0.77</v>
+      </c>
+      <c r="Q70" s="3" t="n">
+        <v>4.318029703234699</v>
       </c>
       <c r="R70" t="n">
-        <v>0.06111348028634735</v>
+        <v>0.0352176809563584</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5084.01</v>
+        <v>461.01</v>
       </c>
       <c r="B71" t="n">
-        <v>438260486</v>
+        <v>4646810</v>
       </c>
       <c r="C71" t="n">
-        <v>45.954561</v>
+        <v>38.271253</v>
       </c>
       <c r="D71" t="n">
-        <v>20.110588</v>
+        <v>-10.352178</v>
       </c>
       <c r="E71" t="n">
-        <v>2460252.991856</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F71" t="n">
-        <v>5.8321337</v>
+        <v>10.9245478</v>
       </c>
       <c r="G71" t="n">
-        <v>2.039</v>
+        <v>1.8716477</v>
       </c>
       <c r="H71" t="n">
-        <v>274</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.15554</v>
+        <v>653.537141</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>1.9015018</v>
       </c>
       <c r="J71" t="n">
-        <v>49.8722</v>
+        <v>35.242668</v>
       </c>
       <c r="K71" t="n">
-        <v>740</v>
+        <v>621.4224577</v>
       </c>
       <c r="L71" t="n">
-        <v>7.564</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M71" t="n">
-        <v>21.3575</v>
+        <v>45.5621</v>
       </c>
       <c r="N71" t="n">
-        <v>4544</v>
+        <v>4884</v>
       </c>
       <c r="O71" t="n">
-        <v>4.54</v>
+        <v>4.49</v>
       </c>
       <c r="P71" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>2.266108314030604</v>
+        <v>0.74413</v>
+      </c>
+      <c r="Q71" s="3" t="n">
+        <v>4.353113514170607</v>
       </c>
       <c r="R71" t="n">
-        <v>0.03576864546243089</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5140.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B72" t="n">
-        <v>175193677</v>
+        <v>23961340</v>
       </c>
       <c r="C72" t="n">
-        <v>129.689446</v>
+        <v>313.292091</v>
       </c>
       <c r="D72" t="n">
-        <v>23.685265</v>
+        <v>-9.044055</v>
       </c>
       <c r="E72" t="n">
-        <v>2459547.722323</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F72" t="n">
-        <v>15.6113633</v>
+        <v>10.5137924</v>
       </c>
       <c r="G72" t="n">
-        <v>3.2002615</v>
+        <v>2.275</v>
       </c>
       <c r="H72" t="n">
-        <v>520.4897607</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.9033347</v>
+        <v>1611</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>3.1867</v>
       </c>
       <c r="J72" t="n">
-        <v>111.9728668</v>
+        <v>25.6571</v>
       </c>
       <c r="K72" t="n">
-        <v>829.6557911</v>
+        <v>627</v>
       </c>
       <c r="L72" t="n">
-        <v>6.3687</v>
+        <v>8.863</v>
       </c>
       <c r="M72" t="n">
-        <v>35.26</v>
+        <v>47.6049</v>
       </c>
       <c r="N72" t="n">
-        <v>6061.77</v>
+        <v>4942</v>
       </c>
       <c r="O72" t="n">
-        <v>4.31439</v>
+        <v>4.58</v>
       </c>
       <c r="P72" t="n">
-        <v>1.22568</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>5.536407362972046</v>
+        <v>0.77</v>
+      </c>
+      <c r="Q72" s="3" t="n">
+        <v>4.366730157831123</v>
       </c>
       <c r="R72" t="n">
-        <v>0.07805369347634761</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5554.01</v>
+        <v>5972.01</v>
       </c>
       <c r="B73" t="n">
-        <v>91287873</v>
+        <v>420814525</v>
       </c>
       <c r="C73" t="n">
-        <v>104.74387</v>
+        <v>330.795022</v>
       </c>
       <c r="D73" t="n">
-        <v>28.715768</v>
+        <v>18.884242</v>
       </c>
       <c r="E73" t="n">
-        <v>2459515.17161</v>
+        <v>2460552.87974</v>
       </c>
       <c r="F73" t="n">
-        <v>26.694279</v>
+        <v>3.5247546</v>
       </c>
       <c r="G73" t="n">
-        <v>3.7831301</v>
+        <v>2.958</v>
       </c>
       <c r="H73" t="n">
-        <v>1854.2924324</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.6845863</v>
+        <v>17803</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>16.3776</v>
       </c>
       <c r="J73" t="n">
-        <v>4.0851419</v>
+        <v>587.098</v>
       </c>
       <c r="K73" t="n">
-        <v>362.5947706</v>
+        <v>1371</v>
       </c>
       <c r="L73" t="n">
-        <v>9.83733</v>
+        <v>7.1274</v>
       </c>
       <c r="M73" t="n">
-        <v>39.4478</v>
+        <v>48.3016</v>
       </c>
       <c r="N73" t="n">
-        <v>3997</v>
+        <v>6052</v>
       </c>
       <c r="O73" t="n">
-        <v>4.6288</v>
+        <v>4.34258</v>
       </c>
       <c r="P73" t="n">
-        <v>0.626722</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>5.572070940329513</v>
+        <v>1.19</v>
+      </c>
+      <c r="Q73" s="3" t="n">
+        <v>4.377038819618784</v>
       </c>
       <c r="R73" t="n">
-        <v>0.05933370244641179</v>
+        <v>0.01731301610536855</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5789.01</v>
+        <v>6726.01</v>
       </c>
       <c r="B74" t="n">
-        <v>87216634</v>
+        <v>121490076</v>
       </c>
       <c r="C74" t="n">
-        <v>302.773447</v>
+        <v>343.572379</v>
       </c>
       <c r="D74" t="n">
-        <v>16.189714</v>
+        <v>-43.010229</v>
       </c>
       <c r="E74" t="n">
-        <v>2459776.255982</v>
+        <v>2460160.495921</v>
       </c>
       <c r="F74" t="n">
-        <v>12.9256051</v>
+        <v>14.2456603</v>
       </c>
       <c r="G74" t="n">
-        <v>1.691</v>
+        <v>3.403</v>
       </c>
       <c r="H74" t="n">
-        <v>790</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.53704</v>
+        <v>1084</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>3.68209</v>
       </c>
       <c r="J74" t="n">
-        <v>8.719390000000001</v>
+        <v>180.487</v>
       </c>
       <c r="K74" t="n">
-        <v>478</v>
+        <v>1021</v>
       </c>
       <c r="L74" t="n">
-        <v>6.5715</v>
+        <v>8.998799999999999</v>
       </c>
       <c r="M74" t="n">
-        <v>20.4581</v>
+        <v>46.2122</v>
       </c>
       <c r="N74" t="n">
-        <v>5132</v>
+        <v>4760</v>
       </c>
       <c r="O74" t="n">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="P74" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.772154586364076</v>
+        <v>0.76</v>
+      </c>
+      <c r="Q74" s="3" t="n">
+        <v>4.479953862662206</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2860097255631882</v>
+        <v>0.01321577039811966</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5801.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B75" t="n">
-        <v>243921117</v>
+        <v>357501308</v>
       </c>
       <c r="C75" t="n">
-        <v>303.1668</v>
+        <v>229.837442</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.144437</v>
+        <v>29.207877</v>
       </c>
       <c r="E75" t="n">
-        <v>2459770.026754</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F75" t="n">
-        <v>3.067816</v>
+        <v>7.4355709</v>
       </c>
       <c r="G75" t="n">
-        <v>2.1103325</v>
+        <v>2.3450321</v>
       </c>
       <c r="H75" t="n">
-        <v>34536.7848173</v>
-      </c>
-      <c r="I75" t="n">
-        <v>11.7996868</v>
+        <v>1310.6803156</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>2.2761564</v>
       </c>
       <c r="J75" t="n">
-        <v>72.44198299999999</v>
+        <v>26.0757607</v>
       </c>
       <c r="K75" t="n">
-        <v>744.0760606</v>
+        <v>576.3403106</v>
       </c>
       <c r="L75" t="n">
-        <v>10.3622</v>
+        <v>8.962</v>
       </c>
       <c r="M75" t="n">
-        <v>49.7876</v>
+        <v>27.9956</v>
       </c>
       <c r="N75" t="n">
-        <v>3965</v>
+        <v>4218.9</v>
       </c>
       <c r="O75" t="n">
-        <v>4.62</v>
+        <v>4.67</v>
       </c>
       <c r="P75" t="n">
-        <v>0.636572</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>7.581180974499388</v>
+        <v>0.622512</v>
+      </c>
+      <c r="Q75" s="3" t="n">
+        <v>4.588032766810645</v>
       </c>
       <c r="R75" t="n">
-        <v>0.07251061220725062</v>
+        <v>0.2100230324731976</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5955.01</v>
+        <v>6263.01</v>
       </c>
       <c r="B76" t="n">
-        <v>434116397</v>
+        <v>293547742</v>
       </c>
       <c r="C76" t="n">
-        <v>355.467833</v>
+        <v>139.199747</v>
       </c>
       <c r="D76" t="n">
-        <v>14.106803</v>
+        <v>-49.300844</v>
       </c>
       <c r="E76" t="n">
-        <v>2459825.845336</v>
+        <v>2460009.249357</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5902387</v>
+        <v>3.0178746</v>
       </c>
       <c r="G76" t="n">
-        <v>1.045052</v>
+        <v>2.679</v>
       </c>
       <c r="H76" t="n">
-        <v>518.7240999000001</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.6802901</v>
+        <v>193</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>0.930891</v>
       </c>
       <c r="J76" t="n">
-        <v>517.0065166000001</v>
+        <v>303.499</v>
       </c>
       <c r="K76" t="n">
-        <v>1216.1685093</v>
+        <v>1162</v>
       </c>
       <c r="L76" t="n">
-        <v>10.3224</v>
+        <v>9.1348</v>
       </c>
       <c r="M76" t="n">
-        <v>42.8747</v>
+        <v>46.2588</v>
       </c>
       <c r="N76" t="n">
-        <v>3844</v>
+        <v>4717</v>
       </c>
       <c r="O76" t="n">
-        <v>4.6589</v>
+        <v>4.61</v>
       </c>
       <c r="P76" t="n">
-        <v>0.590924</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>8.091722393905563</v>
+        <v>0.71</v>
+      </c>
+      <c r="Q76" s="3" t="n">
+        <v>4.794261754598314</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1022963165103159</v>
+        <v>0.1214124616387142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5961.01</v>
+        <v>544.01</v>
       </c>
       <c r="B77" t="n">
-        <v>262689575</v>
+        <v>50618703</v>
       </c>
       <c r="C77" t="n">
-        <v>349.216044</v>
+        <v>82.290072</v>
       </c>
       <c r="D77" t="n">
-        <v>5.695887</v>
+        <v>-0.342898</v>
       </c>
       <c r="E77" t="n">
-        <v>2459447.785905</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F77" t="n">
-        <v>1.617487</v>
+        <v>1.5483542</v>
       </c>
       <c r="G77" t="n">
-        <v>1.2809267</v>
+        <v>1.2030925</v>
       </c>
       <c r="H77" t="n">
-        <v>342.1852102</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.3134056</v>
+        <v>926.4111032</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>2.1601741</v>
       </c>
       <c r="J77" t="n">
-        <v>197.2074933</v>
+        <v>240.1950345</v>
       </c>
       <c r="K77" t="n">
-        <v>955.7638559</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L77" t="n">
-        <v>9.039199999999999</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M77" t="n">
-        <v>26.2533</v>
+        <v>41.1166</v>
       </c>
       <c r="N77" t="n">
-        <v>3900.68</v>
+        <v>4665</v>
       </c>
       <c r="O77" t="n">
-        <v>4.5239</v>
+        <v>4.67631</v>
       </c>
       <c r="P77" t="n">
-        <v>0.7017099999999999</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>3.403379315970769</v>
+        <v>0.6634139999999999</v>
+      </c>
+      <c r="Q77" s="3" t="n">
+        <v>4.802977507666216</v>
       </c>
       <c r="R77" t="n">
-        <v>0.01821666933566217</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5972.01</v>
+        <v>4310.01</v>
       </c>
       <c r="B78" t="n">
-        <v>420814525</v>
+        <v>303317324</v>
       </c>
       <c r="C78" t="n">
-        <v>330.795022</v>
+        <v>351.903531</v>
       </c>
       <c r="D78" t="n">
-        <v>18.884242</v>
+        <v>-25.508462</v>
       </c>
       <c r="E78" t="n">
-        <v>2460552.87974</v>
+        <v>2458365.181534</v>
       </c>
       <c r="F78" t="n">
-        <v>3.5247546</v>
+        <v>739.1670007</v>
       </c>
       <c r="G78" t="n">
-        <v>2.958</v>
+        <v>5.7183604</v>
       </c>
       <c r="H78" t="n">
-        <v>17803</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16.3776</v>
+        <v>1376.1395053</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>2.6735992</v>
       </c>
       <c r="J78" t="n">
-        <v>587.098</v>
+        <v>0.0724872</v>
       </c>
       <c r="K78" t="n">
-        <v>1371</v>
+        <v>132.3381364</v>
       </c>
       <c r="L78" t="n">
-        <v>7.1274</v>
+        <v>9.4961</v>
       </c>
       <c r="M78" t="n">
-        <v>48.3016</v>
+        <v>40.0268</v>
       </c>
       <c r="N78" t="n">
-        <v>6052</v>
+        <v>4159</v>
       </c>
       <c r="O78" t="n">
-        <v>4.34258</v>
+        <v>4.53501</v>
       </c>
       <c r="P78" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>4.377038819618784</v>
+        <v>0.7210839999999999</v>
+      </c>
+      <c r="Q78" s="3" t="n">
+        <v>4.856890565061564</v>
       </c>
       <c r="R78" t="n">
-        <v>0.01731301610536855</v>
+        <v>0.04720909238790994</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6263.01</v>
+        <v>833.01</v>
       </c>
       <c r="B79" t="n">
-        <v>293547742</v>
+        <v>362249359</v>
       </c>
       <c r="C79" t="n">
-        <v>139.199747</v>
+        <v>145.645472</v>
       </c>
       <c r="D79" t="n">
-        <v>-49.300844</v>
+        <v>-62.475886</v>
       </c>
       <c r="E79" t="n">
-        <v>2460009.249357</v>
+        <v>2458544.120496</v>
       </c>
       <c r="F79" t="n">
-        <v>3.0178746</v>
+        <v>1.041889</v>
       </c>
       <c r="G79" t="n">
-        <v>2.679</v>
+        <v>1.2737667</v>
       </c>
       <c r="H79" t="n">
-        <v>193</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.930891</v>
+        <v>465.3854112</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>1.389031</v>
       </c>
       <c r="J79" t="n">
-        <v>303.499</v>
+        <v>270.068174</v>
       </c>
       <c r="K79" t="n">
-        <v>1162</v>
+        <v>1033.9227741</v>
       </c>
       <c r="L79" t="n">
-        <v>9.1348</v>
+        <v>10.1461</v>
       </c>
       <c r="M79" t="n">
-        <v>46.2588</v>
+        <v>41.7148</v>
       </c>
       <c r="N79" t="n">
-        <v>4717</v>
+        <v>3965</v>
       </c>
       <c r="O79" t="n">
-        <v>4.61</v>
+        <v>4.68337</v>
       </c>
       <c r="P79" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>4.794261754598314</v>
+        <v>0.603336</v>
+      </c>
+      <c r="Q79" s="3" t="n">
+        <v>5.02924784540017</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1214124616387142</v>
+        <v>0.08879781145072711</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6266.01</v>
+        <v>139.01</v>
       </c>
       <c r="B80" t="n">
-        <v>193023697</v>
+        <v>62483237</v>
       </c>
       <c r="C80" t="n">
-        <v>155.597851</v>
+        <v>336.402414</v>
       </c>
       <c r="D80" t="n">
-        <v>-28.847487</v>
+        <v>-34.909713</v>
       </c>
       <c r="E80" t="n">
-        <v>2460013.265158</v>
+        <v>2458334.891563</v>
       </c>
       <c r="F80" t="n">
-        <v>2.7895524</v>
+        <v>11.0708575</v>
       </c>
       <c r="G80" t="n">
-        <v>1.969</v>
+        <v>2.1937617</v>
       </c>
       <c r="H80" t="n">
-        <v>262</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.986147</v>
+        <v>1149.7328034</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>2.3337648</v>
       </c>
       <c r="J80" t="n">
-        <v>376.853</v>
+        <v>22.4219066</v>
       </c>
       <c r="K80" t="n">
-        <v>1227</v>
+        <v>554.9934842</v>
       </c>
       <c r="L80" t="n">
-        <v>8.5953</v>
+        <v>9.3636</v>
       </c>
       <c r="M80" t="n">
-        <v>42.6435</v>
+        <v>42.4061</v>
       </c>
       <c r="N80" t="n">
-        <v>5039</v>
+        <v>4356</v>
       </c>
       <c r="O80" t="n">
-        <v>4.62</v>
+        <v>4.53491</v>
       </c>
       <c r="P80" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>3.8722412377071</v>
+        <v>0.700727</v>
+      </c>
+      <c r="Q80" s="3" t="n">
+        <v>5.066808676581831</v>
       </c>
       <c r="R80" t="n">
-        <v>0.01595707167941454</v>
+        <v>0.02144133406012659</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6276.01</v>
+        <v>5140.01</v>
       </c>
       <c r="B81" t="n">
-        <v>397362481</v>
+        <v>175193677</v>
       </c>
       <c r="C81" t="n">
-        <v>175.256304</v>
+        <v>129.689446</v>
       </c>
       <c r="D81" t="n">
-        <v>-44.404149</v>
+        <v>23.685265</v>
       </c>
       <c r="E81" t="n">
-        <v>2460017.108056</v>
+        <v>2459547.722323</v>
       </c>
       <c r="F81" t="n">
-        <v>6.207472</v>
+        <v>15.6113633</v>
       </c>
       <c r="G81" t="n">
-        <v>1.5587404</v>
+        <v>3.2002615</v>
       </c>
       <c r="H81" t="n">
-        <v>230.9041397</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.9558514</v>
+        <v>520.4897607</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>2.9033347</v>
       </c>
       <c r="J81" t="n">
-        <v>45.9200706</v>
+        <v>111.9728668</v>
       </c>
       <c r="K81" t="n">
-        <v>663.9270852</v>
+        <v>829.6557911</v>
       </c>
       <c r="L81" t="n">
-        <v>6.7213</v>
+        <v>6.3687</v>
       </c>
       <c r="M81" t="n">
-        <v>12.7781</v>
+        <v>35.26</v>
       </c>
       <c r="N81" t="n">
-        <v>4633.87</v>
+        <v>6061.77</v>
       </c>
       <c r="O81" t="n">
-        <v>4.70763</v>
+        <v>4.31439</v>
       </c>
       <c r="P81" t="n">
-        <v>0.630715</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>1.422947157415711</v>
+        <v>1.22568</v>
+      </c>
+      <c r="Q81" s="3" t="n">
+        <v>5.536407362972046</v>
       </c>
       <c r="R81" t="n">
-        <v>0.3529309610224289</v>
+        <v>0.07805369347634761</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6276.02</v>
+        <v>5554.01</v>
       </c>
       <c r="B82" t="n">
-        <v>397362481</v>
+        <v>91287873</v>
       </c>
       <c r="C82" t="n">
-        <v>175.256304</v>
+        <v>104.74387</v>
       </c>
       <c r="D82" t="n">
-        <v>-44.404149</v>
+        <v>28.715768</v>
       </c>
       <c r="E82" t="n">
-        <v>2460014.846822</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F82" t="n">
-        <v>4.4653471</v>
+        <v>26.694279</v>
       </c>
       <c r="G82" t="n">
-        <v>1.5691486</v>
+        <v>3.7831301</v>
       </c>
       <c r="H82" t="n">
-        <v>186.7606727</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.8856846</v>
+        <v>1854.2924324</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>2.6845863</v>
       </c>
       <c r="J82" t="n">
-        <v>71.2440519</v>
+        <v>4.0851419</v>
       </c>
       <c r="K82" t="n">
-        <v>740.9807105</v>
+        <v>362.5947706</v>
       </c>
       <c r="L82" t="n">
-        <v>6.7213</v>
+        <v>9.83733</v>
       </c>
       <c r="M82" t="n">
-        <v>12.7781</v>
+        <v>39.4478</v>
       </c>
       <c r="N82" t="n">
-        <v>4633.87</v>
+        <v>3997</v>
       </c>
       <c r="O82" t="n">
-        <v>4.70763</v>
+        <v>4.6288</v>
       </c>
       <c r="P82" t="n">
-        <v>0.630715</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.422947157415711</v>
+        <v>0.626722</v>
+      </c>
+      <c r="Q82" s="3" t="n">
+        <v>5.572070940329513</v>
       </c>
       <c r="R82" t="n">
-        <v>0.3529309610224289</v>
+        <v>0.05933370244641179</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6276.03</v>
+        <v>687.01</v>
       </c>
       <c r="B83" t="n">
-        <v>397362481</v>
+        <v>74534430</v>
       </c>
       <c r="C83" t="n">
-        <v>175.256304</v>
+        <v>137.672815</v>
       </c>
       <c r="D83" t="n">
-        <v>-44.404149</v>
+        <v>-45.098845</v>
       </c>
       <c r="E83" t="n">
-        <v>2460018.572448</v>
+        <v>2459977.554802</v>
       </c>
       <c r="F83" t="n">
-        <v>7.8708661</v>
+        <v>36.2995129</v>
       </c>
       <c r="G83" t="n">
-        <v>1.6355898</v>
+        <v>4.4333923</v>
       </c>
       <c r="H83" t="n">
-        <v>190.7947353</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.0314874</v>
+        <v>1322.2472746</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>2.2115007</v>
       </c>
       <c r="J83" t="n">
-        <v>33.4599699</v>
+        <v>3.169782</v>
       </c>
       <c r="K83" t="n">
-        <v>613.4104018</v>
+        <v>340.3118696</v>
       </c>
       <c r="L83" t="n">
-        <v>6.7213</v>
+        <v>9.8445</v>
       </c>
       <c r="M83" t="n">
-        <v>12.7781</v>
+        <v>42.4467</v>
       </c>
       <c r="N83" t="n">
-        <v>4633.87</v>
+        <v>4253.9</v>
       </c>
       <c r="O83" t="n">
-        <v>4.70763</v>
+        <v>4.57</v>
       </c>
       <c r="P83" t="n">
-        <v>0.630715</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>1.422947157415711</v>
+        <v>0.617519</v>
+      </c>
+      <c r="Q83" s="3" t="n">
+        <v>5.968498212205658</v>
       </c>
       <c r="R83" t="n">
-        <v>0.3529309610224289</v>
+        <v>0.1945912951651126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6678.01</v>
+        <v>2431.01</v>
       </c>
       <c r="B84" t="n">
-        <v>253864764</v>
+        <v>258804746</v>
       </c>
       <c r="C84" t="n">
-        <v>283.536275</v>
+        <v>37.765299</v>
       </c>
       <c r="D84" t="n">
-        <v>-36.65686</v>
+        <v>8.381625</v>
       </c>
       <c r="E84" t="n">
-        <v>2460149.83497</v>
+        <v>2460258.868869</v>
       </c>
       <c r="F84" t="n">
-        <v>3.4268387</v>
+        <v>0.224195</v>
       </c>
       <c r="G84" t="n">
-        <v>1.288</v>
+        <v>0.292</v>
       </c>
       <c r="H84" t="n">
-        <v>844</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.12571</v>
+        <v>540</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>5.59553</v>
       </c>
       <c r="J84" t="n">
-        <v>94.0962</v>
+        <v>2649.15</v>
       </c>
       <c r="K84" t="n">
-        <v>867</v>
+        <v>1998</v>
       </c>
       <c r="L84" t="n">
-        <v>8.8688</v>
+        <v>9.520899999999999</v>
       </c>
       <c r="M84" t="n">
-        <v>44.8496</v>
+        <v>36.0559</v>
       </c>
       <c r="N84" t="n">
-        <v>4794</v>
+        <v>4079</v>
       </c>
       <c r="O84" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="P84" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>4.318029703234699</v>
+        <v>0.68</v>
+      </c>
+      <c r="Q84" s="3" t="n">
+        <v>6.453311691204767</v>
       </c>
       <c r="R84" t="n">
-        <v>0.0352176809563584</v>
+        <v>0.1915281956726753</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6709.01</v>
+        <v>5801.01</v>
       </c>
       <c r="B85" t="n">
-        <v>20375215</v>
+        <v>243921117</v>
       </c>
       <c r="C85" t="n">
-        <v>167.608218</v>
+        <v>303.1668</v>
       </c>
       <c r="D85" t="n">
-        <v>-29.414302</v>
+        <v>-2.144437</v>
       </c>
       <c r="E85" t="n">
-        <v>2458544.543307</v>
+        <v>2459770.026754</v>
       </c>
       <c r="F85" t="n">
-        <v>2.3477336</v>
+        <v>3.067816</v>
       </c>
       <c r="G85" t="n">
-        <v>1.8624266</v>
+        <v>2.1103325</v>
       </c>
       <c r="H85" t="n">
-        <v>182.9434914</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.0903541</v>
+        <v>34536.7848173</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>11.7996868</v>
       </c>
       <c r="J85" t="n">
-        <v>215.4979378</v>
+        <v>72.44198299999999</v>
       </c>
       <c r="K85" t="n">
-        <v>977.1934094</v>
+        <v>744.0760606</v>
       </c>
       <c r="L85" t="n">
-        <v>8.8392</v>
+        <v>10.3622</v>
       </c>
       <c r="M85" t="n">
-        <v>39.7429</v>
+        <v>49.7876</v>
       </c>
       <c r="N85" t="n">
-        <v>4799</v>
+        <v>3965</v>
       </c>
       <c r="O85" t="n">
-        <v>4.66766</v>
+        <v>4.62</v>
       </c>
       <c r="P85" t="n">
-        <v>0.678033</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>4.12818079432414</v>
+        <v>0.636572</v>
+      </c>
+      <c r="Q85" s="3" t="n">
+        <v>7.581180974499388</v>
       </c>
       <c r="R85" t="n">
-        <v>0.03672621593360964</v>
+        <v>0.07251061220725062</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6713.01</v>
+        <v>5955.01</v>
       </c>
       <c r="B86" t="n">
-        <v>428673146</v>
+        <v>434116397</v>
       </c>
       <c r="C86" t="n">
-        <v>179.792354</v>
+        <v>355.467833</v>
       </c>
       <c r="D86" t="n">
-        <v>-20.355606</v>
+        <v>14.106803</v>
       </c>
       <c r="E86" t="n">
-        <v>2458571.522303</v>
+        <v>2459825.845336</v>
       </c>
       <c r="F86" t="n">
-        <v>2.1538049</v>
+        <v>0.5902387</v>
       </c>
       <c r="G86" t="n">
-        <v>1.6541007</v>
+        <v>1.045052</v>
       </c>
       <c r="H86" t="n">
-        <v>137.9312313</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.8814471</v>
+        <v>518.7240999000001</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>1.6802901</v>
       </c>
       <c r="J86" t="n">
-        <v>331.6009868</v>
+        <v>517.0065166000001</v>
       </c>
       <c r="K86" t="n">
-        <v>1088.3628347</v>
+        <v>1216.1685093</v>
       </c>
       <c r="L86" t="n">
-        <v>7.0276</v>
+        <v>10.3224</v>
       </c>
       <c r="M86" t="n">
-        <v>20.3632</v>
+        <v>42.8747</v>
       </c>
       <c r="N86" t="n">
-        <v>4944.24</v>
+        <v>3844</v>
       </c>
       <c r="O86" t="n">
-        <v>4.58767</v>
+        <v>4.6589</v>
       </c>
       <c r="P86" t="n">
-        <v>0.757603</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1.909890670031086</v>
+        <v>0.590924</v>
+      </c>
+      <c r="Q86" s="3" t="n">
+        <v>8.091722393905563</v>
       </c>
       <c r="R86" t="n">
-        <v>0.2228342109737272</v>
+        <v>0.1022963165103159</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6726.01</v>
+        <v>396.03</v>
       </c>
       <c r="B87" t="n">
-        <v>121490076</v>
+        <v>178155732</v>
       </c>
       <c r="C87" t="n">
-        <v>343.572379</v>
+        <v>42.984978</v>
       </c>
       <c r="D87" t="n">
-        <v>-43.010229</v>
+        <v>-30.814061</v>
       </c>
       <c r="E87" t="n">
-        <v>2460160.495921</v>
+        <v>2459117.261055</v>
       </c>
       <c r="F87" t="n">
-        <v>14.2456603</v>
+        <v>11.2304605</v>
       </c>
       <c r="G87" t="n">
-        <v>3.403</v>
+        <v>3.6009978</v>
       </c>
       <c r="H87" t="n">
-        <v>1084</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.68209</v>
+        <v>208.629137</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>2.0754665</v>
       </c>
       <c r="J87" t="n">
-        <v>180.487</v>
+        <v>210.3340005</v>
       </c>
       <c r="K87" t="n">
-        <v>1021</v>
+        <v>971.2859803</v>
       </c>
       <c r="L87" t="n">
-        <v>8.998799999999999</v>
+        <v>5.9053</v>
       </c>
       <c r="M87" t="n">
-        <v>46.2122</v>
+        <v>31.964</v>
       </c>
       <c r="N87" t="n">
-        <v>4760</v>
+        <v>6308.31</v>
       </c>
       <c r="O87" t="n">
-        <v>4.57</v>
+        <v>4.438</v>
       </c>
       <c r="P87" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>4.479953862662206</v>
+        <v>1.2845</v>
+      </c>
+      <c r="Q87" s="3" t="n">
+        <v>16.45944919601968</v>
       </c>
       <c r="R87" t="n">
-        <v>0.01321577039811966</v>
+        <v>0.08132008275074698</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6902.01</v>
+        <v>396.02</v>
       </c>
       <c r="B88" t="n">
-        <v>167656187</v>
+        <v>178155732</v>
       </c>
       <c r="C88" t="n">
-        <v>102.504272</v>
+        <v>42.984978</v>
       </c>
       <c r="D88" t="n">
-        <v>-60.248678</v>
+        <v>-30.814061</v>
       </c>
       <c r="E88" t="n">
-        <v>2458358.329043</v>
+        <v>2459169.27128</v>
       </c>
       <c r="F88" t="n">
-        <v>36.4358589</v>
+        <v>3.58529</v>
       </c>
       <c r="G88" t="n">
-        <v>9.252253400000001</v>
+        <v>2.495</v>
       </c>
       <c r="H88" t="n">
-        <v>384.0441817</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.8743721</v>
+        <v>180</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>1.77141</v>
       </c>
       <c r="J88" t="n">
-        <v>58.2895066</v>
+        <v>646.628</v>
       </c>
       <c r="K88" t="n">
-        <v>704.7212129</v>
+        <v>1404</v>
       </c>
       <c r="L88" t="n">
-        <v>5.6801</v>
+        <v>5.9053</v>
       </c>
       <c r="M88" t="n">
-        <v>34.0071</v>
+        <v>31.964</v>
       </c>
       <c r="N88" t="n">
-        <v>6597</v>
+        <v>6308.31</v>
       </c>
       <c r="O88" t="n">
-        <v>4.28305</v>
+        <v>4.438</v>
       </c>
       <c r="P88" t="n">
-        <v>1.40426</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>33.76423036948551</v>
+        <v>1.28</v>
+      </c>
+      <c r="Q88" s="3" t="n">
+        <v>16.45944919601968</v>
       </c>
       <c r="R88" t="n">
-        <v>0.05602137878216408</v>
+        <v>0.08132008275074698</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6965.01</v>
+        <v>396.01</v>
       </c>
       <c r="B89" t="n">
-        <v>80224448</v>
+        <v>178155732</v>
       </c>
       <c r="C89" t="n">
-        <v>103.678273</v>
+        <v>42.984978</v>
       </c>
       <c r="D89" t="n">
-        <v>24.245141</v>
+        <v>-30.814061</v>
       </c>
       <c r="E89" t="n">
-        <v>2459505.193695</v>
+        <v>2459120.537697</v>
       </c>
       <c r="F89" t="n">
-        <v>5.9693397</v>
+        <v>5.9739124</v>
       </c>
       <c r="G89" t="n">
-        <v>3.441038</v>
+        <v>3.1235464</v>
       </c>
       <c r="H89" t="n">
-        <v>105.5424205</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.3473608</v>
+        <v>232.5621027</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>2.3917735</v>
       </c>
       <c r="J89" t="n">
-        <v>334.6170929</v>
+        <v>488.0089226</v>
       </c>
       <c r="K89" t="n">
-        <v>1090.8292631</v>
+        <v>1198.7446729</v>
       </c>
       <c r="L89" t="n">
-        <v>6.3103</v>
+        <v>5.9053</v>
       </c>
       <c r="M89" t="n">
-        <v>31.1664</v>
+        <v>31.964</v>
       </c>
       <c r="N89" t="n">
-        <v>6007</v>
+        <v>6308.31</v>
       </c>
       <c r="O89" t="n">
-        <v>4.37729</v>
+        <v>4.438</v>
       </c>
       <c r="P89" t="n">
-        <v>1.12993</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>2.880011854113967</v>
+        <v>1.2845</v>
+      </c>
+      <c r="Q89" s="3" t="n">
+        <v>16.45944919601968</v>
       </c>
       <c r="R89" t="n">
-        <v>0.05173693485062012</v>
+        <v>0.08132008275074698</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6965.02</v>
+        <v>554.02</v>
       </c>
       <c r="B90" t="n">
-        <v>80224448</v>
+        <v>407966340</v>
       </c>
       <c r="C90" t="n">
-        <v>103.678273</v>
+        <v>60.748336</v>
       </c>
       <c r="D90" t="n">
-        <v>24.245141</v>
+        <v>9.207768</v>
       </c>
       <c r="E90" t="n">
-        <v>2459508.008646</v>
+        <v>2458438.475888</v>
       </c>
       <c r="F90" t="n">
-        <v>28.0693949</v>
+        <v>3.0440441</v>
       </c>
       <c r="G90" t="n">
-        <v>6.0393818</v>
+        <v>1.3542885</v>
       </c>
       <c r="H90" t="n">
-        <v>154.3008171</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.6221344</v>
+        <v>82.7350431</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>1.3337425</v>
       </c>
       <c r="J90" t="n">
-        <v>42.4755605</v>
+        <v>1500.1020491</v>
       </c>
       <c r="K90" t="n">
-        <v>651.1102456</v>
+        <v>1587.2668665</v>
       </c>
       <c r="L90" t="n">
-        <v>6.3103</v>
+        <v>6.4386</v>
       </c>
       <c r="M90" t="n">
-        <v>31.1664</v>
+        <v>45.6181</v>
       </c>
       <c r="N90" t="n">
-        <v>6007</v>
+        <v>6337.87</v>
       </c>
       <c r="O90" t="n">
-        <v>4.37729</v>
+        <v>4.438</v>
       </c>
       <c r="P90" t="n">
-        <v>1.12993</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>2.880011854113967</v>
+        <v>1.42717</v>
+      </c>
+      <c r="Q90" s="3" t="n">
+        <v>31.3192949850797</v>
       </c>
       <c r="R90" t="n">
-        <v>0.05173693485062012</v>
+        <v>0.09557954007745355</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6978.01</v>
+        <v>554.01</v>
       </c>
       <c r="B91" t="n">
-        <v>320847025</v>
+        <v>407966340</v>
       </c>
       <c r="C91" t="n">
-        <v>299.638248</v>
+        <v>60.748336</v>
       </c>
       <c r="D91" t="n">
-        <v>-54.937423</v>
+        <v>9.207768</v>
       </c>
       <c r="E91" t="n">
-        <v>2458661.083459</v>
+        <v>2458442.61543</v>
       </c>
       <c r="F91" t="n">
-        <v>9.125813600000001</v>
+        <v>7.0491608</v>
       </c>
       <c r="G91" t="n">
-        <v>3.173012</v>
+        <v>3.5024531</v>
       </c>
       <c r="H91" t="n">
-        <v>169.7218223</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.9704787</v>
+        <v>300.5227138</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>2.8464941</v>
       </c>
       <c r="J91" t="n">
-        <v>42.107688</v>
+        <v>489.6346689</v>
       </c>
       <c r="K91" t="n">
-        <v>649.6958588</v>
+        <v>1199.7417985</v>
       </c>
       <c r="L91" t="n">
-        <v>7.5621</v>
+        <v>6.4386</v>
       </c>
       <c r="M91" t="n">
-        <v>23.6103</v>
+        <v>45.6181</v>
       </c>
       <c r="N91" t="n">
-        <v>4747.13</v>
+        <v>6337.87</v>
       </c>
       <c r="O91" t="n">
-        <v>4.56794</v>
+        <v>4.438</v>
       </c>
       <c r="P91" t="n">
-        <v>0.750709</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>2.337273193337812</v>
+        <v>1.42717</v>
+      </c>
+      <c r="Q91" s="3" t="n">
+        <v>31.3192949850797</v>
       </c>
       <c r="R91" t="n">
-        <v>0.08153377876240343</v>
+        <v>0.09557954007745355</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6985.01</v>
+        <v>6902.01</v>
       </c>
       <c r="B92" t="n">
-        <v>59490344</v>
+        <v>167656187</v>
       </c>
       <c r="C92" t="n">
-        <v>108.993831</v>
+        <v>102.504272</v>
       </c>
       <c r="D92" t="n">
-        <v>18.691658</v>
+        <v>-60.248678</v>
       </c>
       <c r="E92" t="n">
-        <v>2459509.801369</v>
+        <v>2458358.329043</v>
       </c>
       <c r="F92" t="n">
-        <v>748.7146251</v>
+        <v>36.4358589</v>
       </c>
       <c r="G92" t="n">
-        <v>6.6689152</v>
+        <v>9.252253400000001</v>
       </c>
       <c r="H92" t="n">
-        <v>1655.3509066</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.4308988</v>
+        <v>384.0441817</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>2.8743721</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1991332</v>
+        <v>58.2895066</v>
       </c>
       <c r="K92" t="n">
-        <v>170.3749226</v>
+        <v>704.7212129</v>
       </c>
       <c r="L92" t="n">
-        <v>8.3323</v>
+        <v>5.6801</v>
       </c>
       <c r="M92" t="n">
-        <v>46.2206</v>
+        <v>34.0071</v>
       </c>
       <c r="N92" t="n">
-        <v>5235</v>
+        <v>6597</v>
       </c>
       <c r="O92" t="n">
-        <v>4.5339</v>
+        <v>4.28305</v>
       </c>
       <c r="P92" t="n">
-        <v>0.844852</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>3.979865678119569</v>
+        <v>1.40426</v>
+      </c>
+      <c r="Q92" s="3" t="n">
+        <v>33.76423036948551</v>
       </c>
       <c r="R92" t="n">
-        <v>0.05116830390931167</v>
+        <v>0.05602137878216408</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7062.01</v>
+        <v>2326.01</v>
       </c>
       <c r="B93" t="n">
-        <v>23961340</v>
+        <v>175456679</v>
       </c>
       <c r="C93" t="n">
-        <v>313.292091</v>
+        <v>350.491313</v>
       </c>
       <c r="D93" t="n">
-        <v>-9.044055</v>
+        <v>-40.174352</v>
       </c>
       <c r="E93" t="n">
-        <v>2460528.435521</v>
+        <v>2460201.334015</v>
       </c>
       <c r="F93" t="n">
-        <v>10.5137924</v>
+        <v>58.9970907</v>
       </c>
       <c r="G93" t="n">
-        <v>2.275</v>
+        <v>5.722</v>
       </c>
       <c r="H93" t="n">
-        <v>1611</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.1867</v>
-      </c>
-      <c r="J93" t="n">
-        <v>25.6571</v>
-      </c>
-      <c r="K93" t="n">
-        <v>627</v>
-      </c>
+        <v>2725</v>
+      </c>
+      <c r="I93" s="3" t="n"/>
       <c r="L93" t="n">
-        <v>8.863</v>
+        <v>9.456</v>
       </c>
       <c r="M93" t="n">
-        <v>47.6049</v>
-      </c>
-      <c r="N93" t="n">
-        <v>4942</v>
-      </c>
-      <c r="O93" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>4.366730157831123</v>
+        <v>154.124</v>
+      </c>
+      <c r="Q93" s="3" t="n">
+        <v>187.1954334784244</v>
       </c>
       <c r="R93" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.0305854259260738</v>
       </c>
     </row>
   </sheetData>

--- a/results/GAIA__TESS_candidate__matches__unique_planets.xlsx
+++ b/results/GAIA__TESS_candidate__matches__unique_planets.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,7 +1011,7 @@
         <v>1.15</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>1.616889990960014</v>
+        <v>1.616889990960015</v>
       </c>
       <c r="R9" t="n">
         <v>0.5469902615930315</v>
@@ -2128,7 +2128,7 @@
         <v>0.74982</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2.608985362147536</v>
+        <v>2.608985367019665</v>
       </c>
       <c r="R29" t="n">
         <v>0.2277199720930105</v>
@@ -2245,63 +2245,63 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2443.01</v>
+        <v>6965.01</v>
       </c>
       <c r="B32" t="n">
-        <v>318753380</v>
+        <v>80224448</v>
       </c>
       <c r="C32" t="n">
-        <v>40.179861</v>
+        <v>103.678273</v>
       </c>
       <c r="D32" t="n">
-        <v>1.199676</v>
+        <v>24.245141</v>
       </c>
       <c r="E32" t="n">
-        <v>2459148.098617</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F32" t="n">
-        <v>15.6692322</v>
+        <v>5.9693397</v>
       </c>
       <c r="G32" t="n">
-        <v>4.562853</v>
+        <v>3.441038</v>
       </c>
       <c r="H32" t="n">
-        <v>1393.3814802</v>
+        <v>105.5424205</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>2.6868893</v>
+        <v>1.3473608</v>
       </c>
       <c r="J32" t="n">
-        <v>13.2931176</v>
+        <v>334.6170929</v>
       </c>
       <c r="K32" t="n">
-        <v>486.9971964</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L32" t="n">
-        <v>8.296900000000001</v>
+        <v>6.3103</v>
       </c>
       <c r="M32" t="n">
-        <v>23.9258</v>
+        <v>31.1664</v>
       </c>
       <c r="N32" t="n">
-        <v>4214.44</v>
+        <v>6007</v>
       </c>
       <c r="O32" t="n">
-        <v>4.52845</v>
+        <v>4.37729</v>
       </c>
       <c r="P32" t="n">
-        <v>0.732115</v>
+        <v>1.12993</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2.839885605748058</v>
+        <v>2.880011854113967</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1818675256571092</v>
+        <v>0.05173693485062012</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6965.01</v>
+        <v>6965.02</v>
       </c>
       <c r="B33" t="n">
         <v>80224448</v>
@@ -2313,25 +2313,25 @@
         <v>24.245141</v>
       </c>
       <c r="E33" t="n">
-        <v>2459505.193695</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F33" t="n">
-        <v>5.9693397</v>
+        <v>28.0693949</v>
       </c>
       <c r="G33" t="n">
-        <v>3.441038</v>
+        <v>6.0393818</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5424205</v>
+        <v>154.3008171</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.3473608</v>
+        <v>1.6221344</v>
       </c>
       <c r="J33" t="n">
-        <v>334.6170929</v>
+        <v>42.4755605</v>
       </c>
       <c r="K33" t="n">
-        <v>1090.8292631</v>
+        <v>651.1102456</v>
       </c>
       <c r="L33" t="n">
         <v>6.3103</v>
@@ -2357,58 +2357,58 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6965.02</v>
+        <v>2443.01</v>
       </c>
       <c r="B34" t="n">
-        <v>80224448</v>
+        <v>318753380</v>
       </c>
       <c r="C34" t="n">
-        <v>103.678273</v>
+        <v>40.179861</v>
       </c>
       <c r="D34" t="n">
-        <v>24.245141</v>
+        <v>1.199676</v>
       </c>
       <c r="E34" t="n">
-        <v>2459508.008646</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F34" t="n">
-        <v>28.0693949</v>
+        <v>15.6692322</v>
       </c>
       <c r="G34" t="n">
-        <v>6.0393818</v>
+        <v>4.562853</v>
       </c>
       <c r="H34" t="n">
-        <v>154.3008171</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>1.6221344</v>
+        <v>2.6868893</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4755605</v>
+        <v>13.2931176</v>
       </c>
       <c r="K34" t="n">
-        <v>651.1102456</v>
+        <v>486.9971964</v>
       </c>
       <c r="L34" t="n">
-        <v>6.3103</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>31.1664</v>
+        <v>23.9258</v>
       </c>
       <c r="N34" t="n">
-        <v>6007</v>
+        <v>4214.44</v>
       </c>
       <c r="O34" t="n">
-        <v>4.37729</v>
+        <v>4.52845</v>
       </c>
       <c r="P34" t="n">
-        <v>1.12993</v>
+        <v>0.732115</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2.880011854113967</v>
+        <v>2.970022591198855</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05173693485062012</v>
+        <v>0.1818675256571092</v>
       </c>
     </row>
     <row r="35">
@@ -4925,7 +4925,7 @@
         <v>0.603336</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>5.02924784540017</v>
+        <v>5.029247845400172</v>
       </c>
       <c r="R79" t="n">
         <v>0.08879781145072711</v>
@@ -4981,7 +4981,7 @@
         <v>0.700727</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>5.066808676581831</v>
+        <v>5.06680867658183</v>
       </c>
       <c r="R80" t="n">
         <v>0.02144133406012659</v>
@@ -5653,7 +5653,7 @@
         <v>1.40426</v>
       </c>
       <c r="Q92" s="3" t="n">
-        <v>33.76423036948551</v>
+        <v>33.7642303694855</v>
       </c>
       <c r="R92" t="n">
         <v>0.05602137878216408</v>
@@ -5692,7 +5692,7 @@
         <v>154.124</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>187.1954334784244</v>
+        <v>187.1954334784243</v>
       </c>
       <c r="R93" t="n">
         <v>0.0305854259260738</v>

--- a/results/GAIA__TESS_candidate__matches__unique_planets.xlsx
+++ b/results/GAIA__TESS_candidate__matches__unique_planets.xlsx
@@ -574,1119 +574,1119 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1773.01</v>
+        <v>6276.02</v>
       </c>
       <c r="B2" t="n">
-        <v>332064670</v>
+        <v>397362481</v>
       </c>
       <c r="C2" t="n">
-        <v>133.146837</v>
+        <v>175.256304</v>
       </c>
       <c r="D2" t="n">
-        <v>28.329815</v>
+        <v>-44.404149</v>
       </c>
       <c r="E2" t="n">
-        <v>2458870.692828</v>
+        <v>2460014.846822</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7365463</v>
+        <v>4.4653471</v>
       </c>
       <c r="G2" t="n">
-        <v>1.5732208</v>
+        <v>1.5691486</v>
       </c>
       <c r="H2" t="n">
-        <v>384.6733121</v>
+        <v>186.7606727</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>2.0231121</v>
+        <v>0.8856846</v>
       </c>
       <c r="J2" t="n">
-        <v>2657.8322415</v>
+        <v>71.2440519</v>
       </c>
       <c r="K2" t="n">
-        <v>1831.2668801</v>
+        <v>740.9807105</v>
       </c>
       <c r="L2" t="n">
-        <v>5.2058</v>
+        <v>6.7213</v>
       </c>
       <c r="M2" t="n">
-        <v>12.5855</v>
+        <v>12.7781</v>
       </c>
       <c r="N2" t="n">
-        <v>5250</v>
+        <v>4633.87</v>
       </c>
       <c r="O2" t="n">
-        <v>4.42</v>
+        <v>4.70763</v>
       </c>
       <c r="P2" t="n">
-        <v>0.963515</v>
+        <v>0.630715</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>1.058179580845991</v>
+        <v>0.2867433196738231</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2680494911322885</v>
+        <v>0.3529309610224289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2011.03</v>
+        <v>6276.03</v>
       </c>
       <c r="B3" t="n">
-        <v>136916387</v>
+        <v>397362481</v>
       </c>
       <c r="C3" t="n">
-        <v>230.440115</v>
+        <v>175.256304</v>
       </c>
       <c r="D3" t="n">
-        <v>-48.318817</v>
+        <v>-44.404149</v>
       </c>
       <c r="E3" t="n">
-        <v>2460081.126376</v>
+        <v>2460018.572448</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.8708661</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5341354</v>
+        <v>1.6355898</v>
       </c>
       <c r="H3" t="n">
-        <v>195.1972939</v>
+        <v>190.7947353</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>1.6208326</v>
+        <v>1.0314874</v>
       </c>
       <c r="J3" t="n">
-        <v>335.6075222</v>
+        <v>33.4599699</v>
       </c>
       <c r="K3" t="n">
-        <v>1091.635552</v>
+        <v>613.4104018</v>
       </c>
       <c r="L3" t="n">
-        <v>5.0494</v>
+        <v>6.7213</v>
       </c>
       <c r="M3" t="n">
-        <v>14.682</v>
+        <v>12.7781</v>
       </c>
       <c r="N3" t="n">
-        <v>5739</v>
+        <v>4633.87</v>
       </c>
       <c r="O3" t="n">
-        <v>4.51</v>
+        <v>4.70763</v>
       </c>
       <c r="P3" t="n">
-        <v>1.02607</v>
+        <v>0.630715</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>1.244933048070707</v>
+        <v>0.2867433196738231</v>
       </c>
       <c r="R3" t="n">
-        <v>0.824166803690751</v>
+        <v>0.3529309610224289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2011.02</v>
+        <v>6276.01</v>
       </c>
       <c r="B4" t="n">
-        <v>136916387</v>
+        <v>397362481</v>
       </c>
       <c r="C4" t="n">
-        <v>230.440115</v>
+        <v>175.256304</v>
       </c>
       <c r="D4" t="n">
-        <v>-48.318817</v>
+        <v>-44.404149</v>
       </c>
       <c r="E4" t="n">
-        <v>2458650.89757</v>
+        <v>2460017.108056</v>
       </c>
       <c r="F4" t="n">
-        <v>27.5920718</v>
+        <v>6.207472</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2743016</v>
+        <v>1.5587404</v>
       </c>
       <c r="H4" t="n">
-        <v>555.3352929</v>
+        <v>230.9041397</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2.7050278</v>
+        <v>0.9558514</v>
       </c>
       <c r="J4" t="n">
-        <v>31.3830711</v>
+        <v>45.9200706</v>
       </c>
       <c r="K4" t="n">
-        <v>603.6616824</v>
+        <v>663.9270852</v>
       </c>
       <c r="L4" t="n">
-        <v>5.0494</v>
+        <v>6.7213</v>
       </c>
       <c r="M4" t="n">
-        <v>14.682</v>
+        <v>12.7781</v>
       </c>
       <c r="N4" t="n">
-        <v>5739</v>
+        <v>4633.87</v>
       </c>
       <c r="O4" t="n">
-        <v>4.51</v>
+        <v>4.70763</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02607</v>
+        <v>0.630715</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>1.244933048070707</v>
+        <v>0.2867433196738231</v>
       </c>
       <c r="R4" t="n">
-        <v>0.824166803690751</v>
+        <v>0.3529309610224289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2011.01</v>
+        <v>1773.01</v>
       </c>
       <c r="B5" t="n">
-        <v>136916387</v>
+        <v>332064670</v>
       </c>
       <c r="C5" t="n">
-        <v>230.440115</v>
+        <v>133.146837</v>
       </c>
       <c r="D5" t="n">
-        <v>-48.318817</v>
+        <v>28.329815</v>
       </c>
       <c r="E5" t="n">
-        <v>2458631.767617</v>
+        <v>2458870.692828</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5778362</v>
+        <v>0.7365463</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8772499</v>
+        <v>1.5732208</v>
       </c>
       <c r="H5" t="n">
-        <v>217.3994918</v>
+        <v>384.6733121</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>1.5422129</v>
+        <v>2.0231121</v>
       </c>
       <c r="J5" t="n">
-        <v>99.9013415</v>
+        <v>2657.8322415</v>
       </c>
       <c r="K5" t="n">
-        <v>806.3295568999999</v>
+        <v>1831.2668801</v>
       </c>
       <c r="L5" t="n">
-        <v>5.0494</v>
+        <v>5.2058</v>
       </c>
       <c r="M5" t="n">
-        <v>14.682</v>
+        <v>12.5855</v>
       </c>
       <c r="N5" t="n">
-        <v>5739</v>
+        <v>5250</v>
       </c>
       <c r="O5" t="n">
-        <v>4.51</v>
+        <v>4.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.02607</v>
+        <v>0.963515</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>1.244933048070707</v>
+        <v>0.2982785483918946</v>
       </c>
       <c r="R5" t="n">
-        <v>0.824166803690751</v>
+        <v>0.2680494911322885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6276.03</v>
+        <v>186.01</v>
       </c>
       <c r="B6" t="n">
-        <v>397362481</v>
+        <v>279741379</v>
       </c>
       <c r="C6" t="n">
-        <v>175.256304</v>
+        <v>51.750188</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.404149</v>
+        <v>-63.500166</v>
       </c>
       <c r="E6" t="n">
-        <v>2460018.572448</v>
+        <v>2460202.210988</v>
       </c>
       <c r="F6" t="n">
-        <v>7.8708661</v>
+        <v>35.6134391</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6355898</v>
+        <v>3.512</v>
       </c>
       <c r="H6" t="n">
-        <v>190.7947353</v>
+        <v>1575</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>1.0314874</v>
+        <v>3.12194</v>
       </c>
       <c r="J6" t="n">
-        <v>33.4599699</v>
+        <v>10.8612</v>
       </c>
       <c r="K6" t="n">
-        <v>613.4104018</v>
+        <v>505</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7213</v>
+        <v>6.9934</v>
       </c>
       <c r="M6" t="n">
-        <v>12.7781</v>
+        <v>16.32</v>
       </c>
       <c r="N6" t="n">
-        <v>4633.87</v>
+        <v>4628.53</v>
       </c>
       <c r="O6" t="n">
-        <v>4.70763</v>
+        <v>4.32239</v>
       </c>
       <c r="P6" t="n">
-        <v>0.630715</v>
+        <v>0.71</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>1.422947157415711</v>
+        <v>0.3548866763539361</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3529309610224289</v>
+        <v>0.216873501772725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6276.01</v>
+        <v>186.02</v>
       </c>
       <c r="B7" t="n">
-        <v>397362481</v>
+        <v>279741379</v>
       </c>
       <c r="C7" t="n">
-        <v>175.256304</v>
+        <v>51.750188</v>
       </c>
       <c r="D7" t="n">
-        <v>-44.404149</v>
+        <v>-63.500166</v>
       </c>
       <c r="E7" t="n">
-        <v>2460017.108056</v>
+        <v>2460201.824941</v>
       </c>
       <c r="F7" t="n">
-        <v>6.207472</v>
+        <v>7.7897726</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5587404</v>
+        <v>2.376</v>
       </c>
       <c r="H7" t="n">
-        <v>230.9041397</v>
+        <v>194</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.9558514</v>
+        <v>1.00084</v>
       </c>
       <c r="J7" t="n">
-        <v>45.9200706</v>
+        <v>144.765</v>
       </c>
       <c r="K7" t="n">
-        <v>663.9270852</v>
+        <v>966</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7213</v>
+        <v>6.9934</v>
       </c>
       <c r="M7" t="n">
-        <v>12.7781</v>
+        <v>16.32</v>
       </c>
       <c r="N7" t="n">
-        <v>4633.87</v>
+        <v>4628.53</v>
       </c>
       <c r="O7" t="n">
-        <v>4.70763</v>
+        <v>4.32239</v>
       </c>
       <c r="P7" t="n">
-        <v>0.630715</v>
+        <v>0.71</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>1.422947157415711</v>
+        <v>0.3548866763539361</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3529309610224289</v>
+        <v>0.216873501772725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6276.02</v>
+        <v>4470.01</v>
       </c>
       <c r="B8" t="n">
-        <v>397362481</v>
+        <v>256364928</v>
       </c>
       <c r="C8" t="n">
-        <v>175.256304</v>
+        <v>300.182122</v>
       </c>
       <c r="D8" t="n">
-        <v>-44.404149</v>
+        <v>22.709776</v>
       </c>
       <c r="E8" t="n">
-        <v>2460014.846822</v>
+        <v>2459770.410421</v>
       </c>
       <c r="F8" t="n">
-        <v>4.4653471</v>
+        <v>2.2185748</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5691486</v>
+        <v>1.8233621</v>
       </c>
       <c r="H8" t="n">
-        <v>186.7606727</v>
+        <v>25854.2144559</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.8856846</v>
+        <v>13.3010355</v>
       </c>
       <c r="J8" t="n">
-        <v>71.2440519</v>
+        <v>348.1506195</v>
       </c>
       <c r="K8" t="n">
-        <v>740.9807105</v>
+        <v>1101.6954166</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7213</v>
+        <v>6.8481</v>
       </c>
       <c r="M8" t="n">
-        <v>12.7781</v>
+        <v>19.7638</v>
       </c>
       <c r="N8" t="n">
-        <v>4633.87</v>
+        <v>5023</v>
       </c>
       <c r="O8" t="n">
-        <v>4.70763</v>
+        <v>4.58</v>
       </c>
       <c r="P8" t="n">
-        <v>0.630715</v>
+        <v>0.776484</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>1.422947157415711</v>
+        <v>0.3674313583697655</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3529309610224289</v>
+        <v>0.1256230421635217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>144.01</v>
+        <v>5789.01</v>
       </c>
       <c r="B9" t="n">
-        <v>261136679</v>
+        <v>87216634</v>
       </c>
       <c r="C9" t="n">
-        <v>84.29928</v>
+        <v>302.773447</v>
       </c>
       <c r="D9" t="n">
-        <v>-80.46460399999999</v>
+        <v>16.189714</v>
       </c>
       <c r="E9" t="n">
-        <v>2460011.550653</v>
+        <v>2459776.255982</v>
       </c>
       <c r="F9" t="n">
-        <v>6.267832</v>
+        <v>12.9256051</v>
       </c>
       <c r="G9" t="n">
-        <v>2.789</v>
+        <v>1.691</v>
       </c>
       <c r="H9" t="n">
-        <v>321</v>
+        <v>790</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>1.99779</v>
+        <v>2.53704</v>
       </c>
       <c r="J9" t="n">
-        <v>203.434</v>
+        <v>8.719390000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>1052</v>
+        <v>478</v>
       </c>
       <c r="L9" t="n">
-        <v>5.1054</v>
+        <v>6.5715</v>
       </c>
       <c r="M9" t="n">
-        <v>18.2702</v>
+        <v>20.4581</v>
       </c>
       <c r="N9" t="n">
-        <v>5950</v>
+        <v>5132</v>
       </c>
       <c r="O9" t="n">
-        <v>4.438</v>
+        <v>4.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.15</v>
+        <v>0.88</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>1.616889990960015</v>
+        <v>0.3838088176575846</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5469902615930315</v>
+        <v>0.2860097255631882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4470.01</v>
+        <v>6713.01</v>
       </c>
       <c r="B10" t="n">
-        <v>256364928</v>
+        <v>428673146</v>
       </c>
       <c r="C10" t="n">
-        <v>300.182122</v>
+        <v>179.792354</v>
       </c>
       <c r="D10" t="n">
-        <v>22.709776</v>
+        <v>-20.355606</v>
       </c>
       <c r="E10" t="n">
-        <v>2459770.410421</v>
+        <v>2458571.522303</v>
       </c>
       <c r="F10" t="n">
-        <v>2.2185748</v>
+        <v>2.1538049</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8233621</v>
+        <v>1.6541007</v>
       </c>
       <c r="H10" t="n">
-        <v>25854.2144559</v>
+        <v>137.9312313</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>13.3010355</v>
+        <v>0.8814471</v>
       </c>
       <c r="J10" t="n">
-        <v>348.1506195</v>
+        <v>331.6009868</v>
       </c>
       <c r="K10" t="n">
-        <v>1101.6954166</v>
+        <v>1088.3628347</v>
       </c>
       <c r="L10" t="n">
-        <v>6.8481</v>
+        <v>7.0276</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7638</v>
+        <v>20.3632</v>
       </c>
       <c r="N10" t="n">
-        <v>5023</v>
+        <v>4944.24</v>
       </c>
       <c r="O10" t="n">
-        <v>4.58</v>
+        <v>4.58767</v>
       </c>
       <c r="P10" t="n">
-        <v>0.776484</v>
+        <v>0.757603</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>1.756279763925608</v>
+        <v>0.3874143410133924</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1256230421635217</v>
+        <v>0.2228342109737272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>186.01</v>
+        <v>2011.02</v>
       </c>
       <c r="B11" t="n">
-        <v>279741379</v>
+        <v>136916387</v>
       </c>
       <c r="C11" t="n">
-        <v>51.750188</v>
+        <v>230.440115</v>
       </c>
       <c r="D11" t="n">
-        <v>-63.500166</v>
+        <v>-48.318817</v>
       </c>
       <c r="E11" t="n">
-        <v>2460202.210988</v>
+        <v>2458650.89757</v>
       </c>
       <c r="F11" t="n">
-        <v>35.6134391</v>
+        <v>27.5920718</v>
       </c>
       <c r="G11" t="n">
-        <v>3.512</v>
+        <v>3.2743016</v>
       </c>
       <c r="H11" t="n">
-        <v>1575</v>
+        <v>555.3352929</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>3.12194</v>
+        <v>2.7050278</v>
       </c>
       <c r="J11" t="n">
-        <v>10.8612</v>
+        <v>31.3830711</v>
       </c>
       <c r="K11" t="n">
-        <v>505</v>
+        <v>603.6616824</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9934</v>
+        <v>5.0494</v>
       </c>
       <c r="M11" t="n">
-        <v>16.32</v>
+        <v>14.682</v>
       </c>
       <c r="N11" t="n">
-        <v>4628.53</v>
+        <v>5739</v>
       </c>
       <c r="O11" t="n">
-        <v>4.32239</v>
+        <v>4.51</v>
       </c>
       <c r="P11" t="n">
-        <v>0.71</v>
+        <v>1.02607</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>1.768355141422782</v>
+        <v>0.3908429833159373</v>
       </c>
       <c r="R11" t="n">
-        <v>0.216873501772725</v>
+        <v>0.824166803690751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>186.02</v>
+        <v>2011.01</v>
       </c>
       <c r="B12" t="n">
-        <v>279741379</v>
+        <v>136916387</v>
       </c>
       <c r="C12" t="n">
-        <v>51.750188</v>
+        <v>230.440115</v>
       </c>
       <c r="D12" t="n">
-        <v>-63.500166</v>
+        <v>-48.318817</v>
       </c>
       <c r="E12" t="n">
-        <v>2460201.824941</v>
+        <v>2458631.767617</v>
       </c>
       <c r="F12" t="n">
-        <v>7.7897726</v>
+        <v>11.5778362</v>
       </c>
       <c r="G12" t="n">
-        <v>2.376</v>
+        <v>3.8772499</v>
       </c>
       <c r="H12" t="n">
-        <v>194</v>
+        <v>217.3994918</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1.00084</v>
+        <v>1.5422129</v>
       </c>
       <c r="J12" t="n">
-        <v>144.765</v>
+        <v>99.9013415</v>
       </c>
       <c r="K12" t="n">
-        <v>966</v>
+        <v>806.3295568999999</v>
       </c>
       <c r="L12" t="n">
-        <v>6.9934</v>
+        <v>5.0494</v>
       </c>
       <c r="M12" t="n">
-        <v>16.32</v>
+        <v>14.682</v>
       </c>
       <c r="N12" t="n">
-        <v>4628.53</v>
+        <v>5739</v>
       </c>
       <c r="O12" t="n">
-        <v>4.32239</v>
+        <v>4.51</v>
       </c>
       <c r="P12" t="n">
-        <v>0.71</v>
+        <v>1.02607</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>1.768355141422782</v>
+        <v>0.3908429833159373</v>
       </c>
       <c r="R12" t="n">
-        <v>0.216873501772725</v>
+        <v>0.824166803690751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5789.01</v>
+        <v>2011.03</v>
       </c>
       <c r="B13" t="n">
-        <v>87216634</v>
+        <v>136916387</v>
       </c>
       <c r="C13" t="n">
-        <v>302.773447</v>
+        <v>230.440115</v>
       </c>
       <c r="D13" t="n">
-        <v>16.189714</v>
+        <v>-48.318817</v>
       </c>
       <c r="E13" t="n">
-        <v>2459776.255982</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12.9256051</v>
+        <v>2460081.126376</v>
       </c>
       <c r="G13" t="n">
-        <v>1.691</v>
+        <v>3.5341354</v>
       </c>
       <c r="H13" t="n">
-        <v>790</v>
+        <v>195.1972939</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2.53704</v>
+        <v>1.6208326</v>
       </c>
       <c r="J13" t="n">
-        <v>8.719390000000001</v>
+        <v>335.6075222</v>
       </c>
       <c r="K13" t="n">
-        <v>478</v>
+        <v>1091.635552</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5715</v>
+        <v>5.0494</v>
       </c>
       <c r="M13" t="n">
-        <v>20.4581</v>
+        <v>14.682</v>
       </c>
       <c r="N13" t="n">
-        <v>5132</v>
+        <v>5739</v>
       </c>
       <c r="O13" t="n">
-        <v>4.49</v>
+        <v>4.51</v>
       </c>
       <c r="P13" t="n">
-        <v>0.88</v>
+        <v>1.02607</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>1.772154586364076</v>
+        <v>0.3908429833159373</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2860097255631882</v>
+        <v>0.824166803690751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6713.01</v>
+        <v>1821.01</v>
       </c>
       <c r="B14" t="n">
-        <v>428673146</v>
+        <v>82308728</v>
       </c>
       <c r="C14" t="n">
-        <v>179.792354</v>
+        <v>168.637658</v>
       </c>
       <c r="D14" t="n">
-        <v>-20.355606</v>
+        <v>25.710596</v>
       </c>
       <c r="E14" t="n">
-        <v>2458571.522303</v>
+        <v>2459664.085255</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1538049</v>
+        <v>9.4893231</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6541007</v>
+        <v>2.757</v>
       </c>
       <c r="H14" t="n">
-        <v>137.9312313</v>
+        <v>940</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.8814471</v>
+        <v>2.4304</v>
       </c>
       <c r="J14" t="n">
-        <v>331.6009868</v>
+        <v>41.924</v>
       </c>
       <c r="K14" t="n">
-        <v>1088.3628347</v>
+        <v>708</v>
       </c>
       <c r="L14" t="n">
-        <v>7.0276</v>
+        <v>6.9859</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3632</v>
+        <v>21.5618</v>
       </c>
       <c r="N14" t="n">
-        <v>4944.24</v>
+        <v>5120</v>
       </c>
       <c r="O14" t="n">
-        <v>4.58767</v>
+        <v>4.6</v>
       </c>
       <c r="P14" t="n">
-        <v>0.757603</v>
+        <v>0.77</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>1.909890670031086</v>
+        <v>0.401192355278147</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2228342109737272</v>
+        <v>0.05814337774157254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1821.01</v>
+        <v>2194.01</v>
       </c>
       <c r="B15" t="n">
-        <v>82308728</v>
+        <v>271478281</v>
       </c>
       <c r="C15" t="n">
-        <v>168.637658</v>
+        <v>299.156339</v>
       </c>
       <c r="D15" t="n">
-        <v>25.710596</v>
+        <v>-31.335181</v>
       </c>
       <c r="E15" t="n">
-        <v>2459664.085255</v>
+        <v>2460141.982191</v>
       </c>
       <c r="F15" t="n">
-        <v>9.4893231</v>
+        <v>15.3419095</v>
       </c>
       <c r="G15" t="n">
-        <v>2.757</v>
+        <v>2.736</v>
       </c>
       <c r="H15" t="n">
-        <v>940</v>
+        <v>683</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>2.4304</v>
+        <v>1.7005</v>
       </c>
       <c r="J15" t="n">
-        <v>41.924</v>
+        <v>14.2526</v>
       </c>
       <c r="K15" t="n">
-        <v>708</v>
+        <v>541</v>
       </c>
       <c r="L15" t="n">
-        <v>6.9859</v>
+        <v>7.4259</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5618</v>
+        <v>19.5711</v>
       </c>
       <c r="N15" t="n">
-        <v>5120</v>
+        <v>4669</v>
       </c>
       <c r="O15" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="P15" t="n">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>1.953747416139957</v>
+        <v>0.4106751666545436</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05814337774157254</v>
+        <v>0.2060338426977061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1726.01</v>
+        <v>2009.01</v>
       </c>
       <c r="B16" t="n">
-        <v>130181866</v>
+        <v>243187830</v>
       </c>
       <c r="C16" t="n">
-        <v>117.47937</v>
+        <v>16.908292</v>
       </c>
       <c r="D16" t="n">
-        <v>27.363134</v>
+        <v>22.952868</v>
       </c>
       <c r="E16" t="n">
-        <v>2458845.373051</v>
+        <v>2458783.768755</v>
       </c>
       <c r="F16" t="n">
-        <v>7.107934</v>
+        <v>1071.0898448</v>
       </c>
       <c r="G16" t="n">
-        <v>3.440833</v>
+        <v>2.1734134</v>
       </c>
       <c r="H16" t="n">
-        <v>501.6058242</v>
+        <v>865.169438</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>2.2881711</v>
+        <v>2.2407785</v>
       </c>
       <c r="J16" t="n">
-        <v>145.5706555</v>
+        <v>1.3880259</v>
       </c>
       <c r="K16" t="n">
-        <v>885.9071544</v>
+        <v>276.8338183</v>
       </c>
       <c r="L16" t="n">
-        <v>6.2683</v>
+        <v>7.3551</v>
       </c>
       <c r="M16" t="n">
-        <v>22.4035</v>
+        <v>20.5272</v>
       </c>
       <c r="N16" t="n">
-        <v>5694.11</v>
+        <v>4755.33</v>
       </c>
       <c r="O16" t="n">
-        <v>4.53108</v>
+        <v>4.62683</v>
       </c>
       <c r="P16" t="n">
-        <v>0.902932</v>
+        <v>0.701499</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2.060089842471463</v>
+        <v>0.4197725624934676</v>
       </c>
       <c r="R16" t="n">
-        <v>0.007274958046568345</v>
+        <v>0.2489958576352085</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1726.02</v>
+        <v>5084.01</v>
       </c>
       <c r="B17" t="n">
-        <v>130181866</v>
+        <v>438260486</v>
       </c>
       <c r="C17" t="n">
-        <v>117.47937</v>
+        <v>45.954561</v>
       </c>
       <c r="D17" t="n">
-        <v>27.363134</v>
+        <v>20.110588</v>
       </c>
       <c r="E17" t="n">
-        <v>2459583.637103</v>
+        <v>2460252.991856</v>
       </c>
       <c r="F17" t="n">
-        <v>20.5438153</v>
+        <v>5.8321337</v>
       </c>
       <c r="G17" t="n">
-        <v>4.0537919</v>
+        <v>2.039</v>
       </c>
       <c r="H17" t="n">
-        <v>799.3817133</v>
+        <v>274</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>2.5734283</v>
+        <v>1.15554</v>
       </c>
       <c r="J17" t="n">
-        <v>35.3582059</v>
+        <v>49.8722</v>
       </c>
       <c r="K17" t="n">
-        <v>621.931143</v>
+        <v>740</v>
       </c>
       <c r="L17" t="n">
-        <v>6.2683</v>
+        <v>7.564</v>
       </c>
       <c r="M17" t="n">
-        <v>22.4035</v>
+        <v>21.3575</v>
       </c>
       <c r="N17" t="n">
-        <v>5694.11</v>
+        <v>4544</v>
       </c>
       <c r="O17" t="n">
-        <v>4.53108</v>
+        <v>4.54</v>
       </c>
       <c r="P17" t="n">
-        <v>0.902932</v>
+        <v>0.75</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2.060089842471463</v>
+        <v>0.4448564264671393</v>
       </c>
       <c r="R17" t="n">
-        <v>0.007274958046568345</v>
+        <v>0.03576864546243089</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2194.01</v>
+        <v>1099.01</v>
       </c>
       <c r="B18" t="n">
-        <v>271478281</v>
+        <v>290348383</v>
       </c>
       <c r="C18" t="n">
-        <v>299.156339</v>
+        <v>328.718171</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.335181</v>
+        <v>-77.338802</v>
       </c>
       <c r="E18" t="n">
-        <v>2460141.982191</v>
+        <v>2460140.220927</v>
       </c>
       <c r="F18" t="n">
-        <v>15.3419095</v>
+        <v>6.441006</v>
       </c>
       <c r="G18" t="n">
-        <v>2.736</v>
+        <v>1.812</v>
       </c>
       <c r="H18" t="n">
-        <v>683</v>
+        <v>914</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1.7005</v>
+        <v>2.56374</v>
       </c>
       <c r="J18" t="n">
-        <v>14.2526</v>
+        <v>87.89019999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>541</v>
+        <v>853</v>
       </c>
       <c r="L18" t="n">
-        <v>7.4259</v>
+        <v>7.3661</v>
       </c>
       <c r="M18" t="n">
-        <v>19.5711</v>
+        <v>23.606</v>
       </c>
       <c r="N18" t="n">
-        <v>4669</v>
+        <v>4867</v>
       </c>
       <c r="O18" t="n">
-        <v>4.63</v>
+        <v>4.438</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>2.086618763444284</v>
+        <v>0.4478926327097606</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2060338426977061</v>
+        <v>0.1472633163109245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2009.01</v>
+        <v>260.01</v>
       </c>
       <c r="B19" t="n">
-        <v>243187830</v>
+        <v>37749396</v>
       </c>
       <c r="C19" t="n">
-        <v>16.908292</v>
+        <v>4.773018</v>
       </c>
       <c r="D19" t="n">
-        <v>22.952868</v>
+        <v>-9.966150000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>2458783.768755</v>
+        <v>2458392.294018</v>
       </c>
       <c r="F19" t="n">
-        <v>1071.0898448</v>
+        <v>13.4758478</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1734134</v>
+        <v>2.0643913</v>
       </c>
       <c r="H19" t="n">
-        <v>865.169438</v>
+        <v>708.9461601</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>2.2407785</v>
+        <v>1.9840882</v>
       </c>
       <c r="J19" t="n">
-        <v>1.3880259</v>
+        <v>10.1837519</v>
       </c>
       <c r="K19" t="n">
-        <v>276.8338183</v>
+        <v>455.6136246</v>
       </c>
       <c r="L19" t="n">
-        <v>7.3551</v>
+        <v>8.4991</v>
       </c>
       <c r="M19" t="n">
-        <v>20.5272</v>
+        <v>20.1852</v>
       </c>
       <c r="N19" t="n">
-        <v>4755.33</v>
+        <v>4111</v>
       </c>
       <c r="O19" t="n">
-        <v>4.62683</v>
+        <v>4.6461</v>
       </c>
       <c r="P19" t="n">
-        <v>0.701499</v>
+        <v>0.618173</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2.116113831581009</v>
+        <v>0.4505480152053747</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2489958576352085</v>
+        <v>0.1536852942719399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1099.01</v>
+        <v>1726.01</v>
       </c>
       <c r="B20" t="n">
-        <v>290348383</v>
+        <v>130181866</v>
       </c>
       <c r="C20" t="n">
-        <v>328.718171</v>
+        <v>117.47937</v>
       </c>
       <c r="D20" t="n">
-        <v>-77.338802</v>
+        <v>27.363134</v>
       </c>
       <c r="E20" t="n">
-        <v>2460140.220927</v>
+        <v>2458845.373051</v>
       </c>
       <c r="F20" t="n">
-        <v>6.441006</v>
+        <v>7.107934</v>
       </c>
       <c r="G20" t="n">
-        <v>1.812</v>
+        <v>3.440833</v>
       </c>
       <c r="H20" t="n">
-        <v>914</v>
+        <v>501.6058242</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>2.56374</v>
+        <v>2.2881711</v>
       </c>
       <c r="J20" t="n">
-        <v>87.89019999999999</v>
+        <v>145.5706555</v>
       </c>
       <c r="K20" t="n">
-        <v>853</v>
+        <v>885.9071544</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3661</v>
+        <v>6.2683</v>
       </c>
       <c r="M20" t="n">
-        <v>23.606</v>
+        <v>22.4035</v>
       </c>
       <c r="N20" t="n">
-        <v>4867</v>
+        <v>5694.11</v>
       </c>
       <c r="O20" t="n">
-        <v>4.438</v>
+        <v>4.53108</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8</v>
+        <v>0.902932</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2.231973848418512</v>
+        <v>0.4593093079944327</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1472633163109245</v>
+        <v>0.007274958046568345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5084.01</v>
+        <v>1726.02</v>
       </c>
       <c r="B21" t="n">
-        <v>438260486</v>
+        <v>130181866</v>
       </c>
       <c r="C21" t="n">
-        <v>45.954561</v>
+        <v>117.47937</v>
       </c>
       <c r="D21" t="n">
-        <v>20.110588</v>
+        <v>27.363134</v>
       </c>
       <c r="E21" t="n">
-        <v>2460252.991856</v>
+        <v>2459583.637103</v>
       </c>
       <c r="F21" t="n">
-        <v>5.8321337</v>
+        <v>20.5438153</v>
       </c>
       <c r="G21" t="n">
-        <v>2.039</v>
+        <v>4.0537919</v>
       </c>
       <c r="H21" t="n">
-        <v>274</v>
+        <v>799.3817133</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>1.15554</v>
+        <v>2.5734283</v>
       </c>
       <c r="J21" t="n">
-        <v>49.8722</v>
+        <v>35.3582059</v>
       </c>
       <c r="K21" t="n">
-        <v>740</v>
+        <v>621.931143</v>
       </c>
       <c r="L21" t="n">
-        <v>7.564</v>
+        <v>6.2683</v>
       </c>
       <c r="M21" t="n">
-        <v>21.3575</v>
+        <v>22.4035</v>
       </c>
       <c r="N21" t="n">
-        <v>4544</v>
+        <v>5694.11</v>
       </c>
       <c r="O21" t="n">
-        <v>4.54</v>
+        <v>4.53108</v>
       </c>
       <c r="P21" t="n">
-        <v>0.75</v>
+        <v>0.902932</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>2.266108314030604</v>
+        <v>0.4593093079944327</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03576864546243089</v>
+        <v>0.007274958046568345</v>
       </c>
     </row>
     <row r="22">
@@ -1739,7 +1739,7 @@
         <v>0.750709</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>2.337273193337812</v>
+        <v>0.4615010489705457</v>
       </c>
       <c r="R22" t="n">
         <v>0.08153377876240343</v>
@@ -1747,223 +1747,226 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>260.01</v>
+        <v>4328.01</v>
       </c>
       <c r="B23" t="n">
-        <v>37749396</v>
+        <v>77175217</v>
       </c>
       <c r="C23" t="n">
-        <v>4.773018</v>
+        <v>68.288836</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.966150000000001</v>
+        <v>-36.945858</v>
       </c>
       <c r="E23" t="n">
-        <v>2458392.294018</v>
+        <v>2458459.446061</v>
       </c>
       <c r="F23" t="n">
-        <v>13.4758478</v>
+        <v>703.79367</v>
       </c>
       <c r="G23" t="n">
-        <v>2.0643913</v>
+        <v>2.9297301</v>
       </c>
       <c r="H23" t="n">
-        <v>708.9461601</v>
+        <v>601.9566843</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>1.9840882</v>
+        <v>1.860295</v>
       </c>
       <c r="J23" t="n">
-        <v>10.1837519</v>
+        <v>0.3066589</v>
       </c>
       <c r="K23" t="n">
-        <v>455.6136246</v>
+        <v>189.7945133</v>
       </c>
       <c r="L23" t="n">
-        <v>8.4991</v>
+        <v>7.7679</v>
       </c>
       <c r="M23" t="n">
-        <v>20.1852</v>
+        <v>25.0039</v>
       </c>
       <c r="N23" t="n">
-        <v>4111</v>
+        <v>4709</v>
       </c>
       <c r="O23" t="n">
-        <v>4.6461</v>
+        <v>4.57486</v>
       </c>
       <c r="P23" t="n">
-        <v>0.618173</v>
+        <v>0.739835</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>2.343640475796769</v>
+        <v>0.4903048318517658</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1536852942719399</v>
+        <v>0.02282511607964633</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2666.01</v>
+        <v>1028.01</v>
       </c>
       <c r="B24" t="n">
-        <v>170889511</v>
+        <v>447283466</v>
       </c>
       <c r="C24" t="n">
-        <v>139.480865</v>
+        <v>157.098337</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.387525</v>
+        <v>-51.705409</v>
       </c>
       <c r="E24" t="n">
-        <v>2459259.141383</v>
+        <v>2458544.48066</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.01606</v>
       </c>
       <c r="G24" t="n">
-        <v>1.445</v>
+        <v>2.843</v>
       </c>
       <c r="H24" t="n">
-        <v>22040</v>
+        <v>240</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>16.6553</v>
+        <v>1.20704</v>
       </c>
       <c r="J24" t="n">
-        <v>21.4281</v>
+        <v>2784.04</v>
       </c>
       <c r="K24" t="n">
-        <v>599</v>
+        <v>2023</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9887</v>
+        <v>7.9059</v>
       </c>
       <c r="M24" t="n">
-        <v>32.6024</v>
+        <v>23.7748</v>
       </c>
       <c r="N24" t="n">
-        <v>5212</v>
+        <v>4634</v>
       </c>
       <c r="O24" t="n">
-        <v>4.3</v>
+        <v>4.64</v>
       </c>
       <c r="P24" t="n">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>2.391281741446773</v>
+        <v>0.4908905971903037</v>
       </c>
       <c r="R24" t="n">
-        <v>0.03358799800878934</v>
+        <v>0.02376373411801855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4328.01</v>
+        <v>144.01</v>
       </c>
       <c r="B25" t="n">
-        <v>77175217</v>
+        <v>261136679</v>
       </c>
       <c r="C25" t="n">
-        <v>68.288836</v>
+        <v>84.29928</v>
       </c>
       <c r="D25" t="n">
-        <v>-36.945858</v>
+        <v>-80.46460399999999</v>
       </c>
       <c r="E25" t="n">
-        <v>2458459.446061</v>
+        <v>2460011.550653</v>
       </c>
       <c r="F25" t="n">
-        <v>703.79367</v>
+        <v>6.267832</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9297301</v>
+        <v>2.789</v>
       </c>
       <c r="H25" t="n">
-        <v>601.9566843</v>
+        <v>321</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>1.860295</v>
+        <v>1.99779</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3066589</v>
+        <v>203.434</v>
       </c>
       <c r="K25" t="n">
-        <v>189.7945133</v>
+        <v>1052</v>
       </c>
       <c r="L25" t="n">
-        <v>7.7679</v>
+        <v>5.1054</v>
       </c>
       <c r="M25" t="n">
-        <v>25.0039</v>
+        <v>18.2702</v>
       </c>
       <c r="N25" t="n">
-        <v>4709</v>
+        <v>5950</v>
       </c>
       <c r="O25" t="n">
-        <v>4.57486</v>
+        <v>4.438</v>
       </c>
       <c r="P25" t="n">
-        <v>0.739835</v>
+        <v>1.15</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>2.496769003128451</v>
+        <v>0.4925180821275104</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02282511607964633</v>
+        <v>0.5469902615930315</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1028.01</v>
+        <v>2540.01</v>
       </c>
       <c r="B26" t="n">
-        <v>447283466</v>
+        <v>354518617</v>
       </c>
       <c r="C26" t="n">
-        <v>157.098337</v>
+        <v>82.558548</v>
       </c>
       <c r="D26" t="n">
-        <v>-51.705409</v>
+        <v>-42.697946</v>
       </c>
       <c r="E26" t="n">
-        <v>2458544.48066</v>
+        <v>2458480.943804</v>
       </c>
       <c r="F26" t="n">
-        <v>1.01606</v>
+        <v>12.7187255</v>
       </c>
       <c r="G26" t="n">
-        <v>2.843</v>
+        <v>3.1582562</v>
       </c>
       <c r="H26" t="n">
-        <v>240</v>
+        <v>1144.1789073</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>1.20704</v>
+        <v>2.5924633</v>
       </c>
       <c r="J26" t="n">
-        <v>2784.04</v>
+        <v>12.2599233</v>
       </c>
       <c r="K26" t="n">
-        <v>2023</v>
+        <v>477.2453303</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9059</v>
+        <v>8.273099999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>23.7748</v>
+        <v>19.1419</v>
       </c>
       <c r="N26" t="n">
-        <v>4634</v>
+        <v>4036.3</v>
       </c>
       <c r="O26" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="P26" t="n">
-        <v>0.68</v>
+        <v>0.661076</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>2.520844037452445</v>
+        <v>0.4942593800058451</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02376373411801855</v>
+        <v>0.07410788920890607</v>
       </c>
     </row>
     <row r="27">
@@ -2016,7 +2019,7 @@
         <v>0.66</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>2.573431856217872</v>
+        <v>0.4942593800058451</v>
       </c>
       <c r="R27" t="n">
         <v>0.07410788920890607</v>
@@ -2024,114 +2027,111 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2540.01</v>
+        <v>802.01</v>
       </c>
       <c r="B28" t="n">
-        <v>354518617</v>
+        <v>167303382</v>
       </c>
       <c r="C28" t="n">
-        <v>82.558548</v>
+        <v>97.985715</v>
       </c>
       <c r="D28" t="n">
-        <v>-42.697946</v>
+        <v>-68.7118</v>
       </c>
       <c r="E28" t="n">
-        <v>2458480.943804</v>
+        <v>2458327.391469</v>
       </c>
       <c r="F28" t="n">
-        <v>12.7187255</v>
+        <v>3.693916</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1582562</v>
+        <v>1.7264201</v>
       </c>
       <c r="H28" t="n">
-        <v>1144.1789073</v>
+        <v>74.807186</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>2.5924633</v>
+        <v>0.6501353</v>
       </c>
       <c r="J28" t="n">
-        <v>12.2599233</v>
+        <v>186.8668956</v>
       </c>
       <c r="K28" t="n">
-        <v>477.2453303</v>
+        <v>942.9807829</v>
       </c>
       <c r="L28" t="n">
-        <v>8.273099999999999</v>
+        <v>7.5209</v>
       </c>
       <c r="M28" t="n">
-        <v>19.1419</v>
+        <v>28.1042</v>
       </c>
       <c r="N28" t="n">
-        <v>4036.3</v>
+        <v>5235.78</v>
       </c>
       <c r="O28" t="n">
-        <v>4.65</v>
+        <v>4.438</v>
       </c>
       <c r="P28" t="n">
-        <v>0.661076</v>
+        <v>0.74982</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>2.573431856217872</v>
+        <v>0.5189477047468581</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07410788920890607</v>
+        <v>0.2277199720930105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>802.01</v>
+        <v>2666.01</v>
       </c>
       <c r="B29" t="n">
-        <v>167303382</v>
+        <v>170889511</v>
       </c>
       <c r="C29" t="n">
-        <v>97.985715</v>
+        <v>139.480865</v>
       </c>
       <c r="D29" t="n">
-        <v>-68.7118</v>
+        <v>-3.387525</v>
       </c>
       <c r="E29" t="n">
-        <v>2458327.391469</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.693916</v>
+        <v>2459259.141383</v>
       </c>
       <c r="G29" t="n">
-        <v>1.7264201</v>
+        <v>1.445</v>
       </c>
       <c r="H29" t="n">
-        <v>74.807186</v>
+        <v>22040</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>0.6501353</v>
+        <v>16.6553</v>
       </c>
       <c r="J29" t="n">
-        <v>186.8668956</v>
+        <v>21.4281</v>
       </c>
       <c r="K29" t="n">
-        <v>942.9807829</v>
+        <v>599</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5209</v>
+        <v>6.9887</v>
       </c>
       <c r="M29" t="n">
-        <v>28.1042</v>
+        <v>32.6024</v>
       </c>
       <c r="N29" t="n">
-        <v>5235.78</v>
+        <v>5212</v>
       </c>
       <c r="O29" t="n">
-        <v>4.438</v>
+        <v>4.3</v>
       </c>
       <c r="P29" t="n">
-        <v>0.74982</v>
+        <v>1.11</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2.608985367019665</v>
+        <v>0.5318810556663451</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2277199720930105</v>
+        <v>0.03358799800878934</v>
       </c>
     </row>
     <row r="30">
@@ -2181,7 +2181,7 @@
         <v>0.782479</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>2.76374786632559</v>
+        <v>0.5509692875422728</v>
       </c>
       <c r="R30" t="n">
         <v>0.06661906644424098</v>
@@ -2237,7 +2237,7 @@
         <v>0.782479</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2.76374786632559</v>
+        <v>0.5509692875422728</v>
       </c>
       <c r="R31" t="n">
         <v>0.06661906644424098</v>
@@ -2245,226 +2245,226 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6965.01</v>
+        <v>2443.01</v>
       </c>
       <c r="B32" t="n">
-        <v>80224448</v>
+        <v>318753380</v>
       </c>
       <c r="C32" t="n">
-        <v>103.678273</v>
+        <v>40.179861</v>
       </c>
       <c r="D32" t="n">
-        <v>24.245141</v>
+        <v>1.199676</v>
       </c>
       <c r="E32" t="n">
-        <v>2459505.193695</v>
+        <v>2459148.098617</v>
       </c>
       <c r="F32" t="n">
-        <v>5.9693397</v>
+        <v>15.6692322</v>
       </c>
       <c r="G32" t="n">
-        <v>3.441038</v>
+        <v>4.562853</v>
       </c>
       <c r="H32" t="n">
-        <v>105.5424205</v>
+        <v>1393.3814802</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>1.3473608</v>
+        <v>2.6868893</v>
       </c>
       <c r="J32" t="n">
-        <v>334.6170929</v>
+        <v>13.2931176</v>
       </c>
       <c r="K32" t="n">
-        <v>1090.8292631</v>
+        <v>486.9971964</v>
       </c>
       <c r="L32" t="n">
-        <v>6.3103</v>
+        <v>8.296900000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>31.1664</v>
+        <v>23.9258</v>
       </c>
       <c r="N32" t="n">
-        <v>6007</v>
+        <v>4214.44</v>
       </c>
       <c r="O32" t="n">
-        <v>4.37729</v>
+        <v>4.52845</v>
       </c>
       <c r="P32" t="n">
-        <v>1.12993</v>
+        <v>0.732115</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>2.880011854113967</v>
+        <v>0.5717471349768956</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05173693485062012</v>
+        <v>0.1818675256571092</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6965.02</v>
+        <v>253.01</v>
       </c>
       <c r="B33" t="n">
-        <v>80224448</v>
+        <v>322063810</v>
       </c>
       <c r="C33" t="n">
-        <v>103.678273</v>
+        <v>14.318503</v>
       </c>
       <c r="D33" t="n">
-        <v>24.245141</v>
+        <v>-51.585251</v>
       </c>
       <c r="E33" t="n">
-        <v>2459508.008646</v>
+        <v>2458355.622789</v>
       </c>
       <c r="F33" t="n">
-        <v>28.0693949</v>
+        <v>3.5104148</v>
       </c>
       <c r="G33" t="n">
-        <v>6.0393818</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>154.3008171</v>
+        <v>308.8285985</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1.6221344</v>
+        <v>1.328654</v>
       </c>
       <c r="J33" t="n">
-        <v>42.4755605</v>
+        <v>64.709886</v>
       </c>
       <c r="K33" t="n">
-        <v>651.1102456</v>
+        <v>723.3731892</v>
       </c>
       <c r="L33" t="n">
-        <v>6.3103</v>
+        <v>9.3626</v>
       </c>
       <c r="M33" t="n">
-        <v>31.1664</v>
+        <v>30.8431</v>
       </c>
       <c r="N33" t="n">
-        <v>6007</v>
+        <v>4020</v>
       </c>
       <c r="O33" t="n">
-        <v>4.37729</v>
+        <v>4.438</v>
       </c>
       <c r="P33" t="n">
-        <v>1.12993</v>
+        <v>0.639371</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>2.880011854113967</v>
+        <v>0.6133383587341605</v>
       </c>
       <c r="R33" t="n">
-        <v>0.05173693485062012</v>
+        <v>0.08762883919541069</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2443.01</v>
+        <v>1793.01</v>
       </c>
       <c r="B34" t="n">
-        <v>318753380</v>
+        <v>304142124</v>
       </c>
       <c r="C34" t="n">
-        <v>40.179861</v>
+        <v>164.856336</v>
       </c>
       <c r="D34" t="n">
-        <v>1.199676</v>
+        <v>-56.623556</v>
       </c>
       <c r="E34" t="n">
-        <v>2459148.098617</v>
+        <v>2460017.429225</v>
       </c>
       <c r="F34" t="n">
-        <v>15.6692322</v>
+        <v>55.087</v>
       </c>
       <c r="G34" t="n">
-        <v>4.562853</v>
+        <v>5.709</v>
       </c>
       <c r="H34" t="n">
-        <v>1393.3814802</v>
+        <v>2509</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>2.6868893</v>
+        <v>4.36639</v>
       </c>
       <c r="J34" t="n">
-        <v>13.2931176</v>
+        <v>16.5899</v>
       </c>
       <c r="K34" t="n">
-        <v>486.9971964</v>
+        <v>562</v>
       </c>
       <c r="L34" t="n">
-        <v>8.296900000000001</v>
+        <v>7.8436</v>
       </c>
       <c r="M34" t="n">
-        <v>23.9258</v>
+        <v>36.9941</v>
       </c>
       <c r="N34" t="n">
-        <v>4214.44</v>
+        <v>5175</v>
       </c>
       <c r="O34" t="n">
-        <v>4.52845</v>
+        <v>4.51</v>
       </c>
       <c r="P34" t="n">
-        <v>0.732115</v>
+        <v>0.87</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>2.970022591198855</v>
+        <v>0.6140621103416706</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1818675256571092</v>
+        <v>0.2165786356227843</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1793.01</v>
+        <v>431.02</v>
       </c>
       <c r="B35" t="n">
-        <v>304142124</v>
+        <v>31374837</v>
       </c>
       <c r="C35" t="n">
-        <v>164.856336</v>
+        <v>83.26925</v>
       </c>
       <c r="D35" t="n">
-        <v>-56.623556</v>
+        <v>-26.72387</v>
       </c>
       <c r="E35" t="n">
-        <v>2460017.429225</v>
+        <v>2458438.375965</v>
       </c>
       <c r="F35" t="n">
-        <v>55.087</v>
+        <v>0.4900589</v>
       </c>
       <c r="G35" t="n">
-        <v>5.709</v>
+        <v>1.0123328</v>
       </c>
       <c r="H35" t="n">
-        <v>2509</v>
+        <v>291.0399722</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>4.36639</v>
+        <v>1.4741529</v>
       </c>
       <c r="J35" t="n">
-        <v>16.5899</v>
+        <v>2120.4474663</v>
       </c>
       <c r="K35" t="n">
-        <v>562</v>
+        <v>1730.7192689</v>
       </c>
       <c r="L35" t="n">
-        <v>7.8436</v>
+        <v>8.170500000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>36.9941</v>
+        <v>32.5686</v>
       </c>
       <c r="N35" t="n">
-        <v>5175</v>
+        <v>4891</v>
       </c>
       <c r="O35" t="n">
-        <v>4.51</v>
+        <v>4.62</v>
       </c>
       <c r="P35" t="n">
-        <v>0.87</v>
+        <v>0.7266319999999999</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>3.075412942076768</v>
+        <v>0.6174161199227388</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2165786356227843</v>
+        <v>0.0767170384367596</v>
       </c>
     </row>
     <row r="36">
@@ -2517,7 +2517,7 @@
         <v>0.7266319999999999</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>3.180623248192477</v>
+        <v>0.6174161199227388</v>
       </c>
       <c r="R36" t="n">
         <v>0.0767170384367596</v>
@@ -2525,1066 +2525,1066 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>431.02</v>
+        <v>179.01</v>
       </c>
       <c r="B37" t="n">
-        <v>31374837</v>
+        <v>207141131</v>
       </c>
       <c r="C37" t="n">
-        <v>83.26925</v>
+        <v>44.262014</v>
       </c>
       <c r="D37" t="n">
-        <v>-26.72387</v>
+        <v>-56.191869</v>
       </c>
       <c r="E37" t="n">
-        <v>2458438.375965</v>
+        <v>2458354.588198</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4900589</v>
+        <v>4.1374379</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0123328</v>
+        <v>1.8454937</v>
       </c>
       <c r="H37" t="n">
-        <v>291.0399722</v>
+        <v>1125.5354645</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>1.4741529</v>
+        <v>2.6757659</v>
       </c>
       <c r="J37" t="n">
-        <v>2120.4474663</v>
+        <v>168.3361754</v>
       </c>
       <c r="K37" t="n">
-        <v>1730.7192689</v>
+        <v>918.6796864</v>
       </c>
       <c r="L37" t="n">
-        <v>8.170500000000001</v>
+        <v>8.179600000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>32.5686</v>
+        <v>38.5653</v>
       </c>
       <c r="N37" t="n">
-        <v>4891</v>
+        <v>5058</v>
       </c>
       <c r="O37" t="n">
-        <v>4.62</v>
+        <v>4.51761</v>
       </c>
       <c r="P37" t="n">
-        <v>0.7266319999999999</v>
+        <v>0.802633</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>3.180623248192477</v>
+        <v>0.644849102669757</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0767170384367596</v>
+        <v>0.02954374353693721</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>253.01</v>
+        <v>5961.01</v>
       </c>
       <c r="B38" t="n">
-        <v>322063810</v>
+        <v>262689575</v>
       </c>
       <c r="C38" t="n">
-        <v>14.318503</v>
+        <v>349.216044</v>
       </c>
       <c r="D38" t="n">
-        <v>-51.585251</v>
+        <v>5.695887</v>
       </c>
       <c r="E38" t="n">
-        <v>2458355.622789</v>
+        <v>2459447.785905</v>
       </c>
       <c r="F38" t="n">
-        <v>3.5104148</v>
+        <v>1.617487</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1.2809267</v>
       </c>
       <c r="H38" t="n">
-        <v>308.8285985</v>
+        <v>342.1852102</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>1.328654</v>
+        <v>1.3134056</v>
       </c>
       <c r="J38" t="n">
-        <v>64.709886</v>
+        <v>197.2074933</v>
       </c>
       <c r="K38" t="n">
-        <v>723.3731892</v>
+        <v>955.7638559</v>
       </c>
       <c r="L38" t="n">
-        <v>9.3626</v>
+        <v>9.039199999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>30.8431</v>
+        <v>26.2533</v>
       </c>
       <c r="N38" t="n">
-        <v>4020</v>
+        <v>3900.68</v>
       </c>
       <c r="O38" t="n">
-        <v>4.438</v>
+        <v>4.5239</v>
       </c>
       <c r="P38" t="n">
-        <v>0.639371</v>
+        <v>0.7017099999999999</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>3.21466158162215</v>
+        <v>0.6499443003767492</v>
       </c>
       <c r="R38" t="n">
-        <v>0.08762883919541069</v>
+        <v>0.01821666933566217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>179.01</v>
+        <v>836.02</v>
       </c>
       <c r="B39" t="n">
-        <v>207141131</v>
+        <v>440887364</v>
       </c>
       <c r="C39" t="n">
-        <v>44.262014</v>
+        <v>225.079883</v>
       </c>
       <c r="D39" t="n">
-        <v>-56.191869</v>
+        <v>-24.454202</v>
       </c>
       <c r="E39" t="n">
-        <v>2458354.588198</v>
+        <v>2459355.705342</v>
       </c>
       <c r="F39" t="n">
-        <v>4.1374379</v>
+        <v>3.8167262</v>
       </c>
       <c r="G39" t="n">
-        <v>1.8454937</v>
+        <v>1.602</v>
       </c>
       <c r="H39" t="n">
-        <v>1125.5354645</v>
+        <v>580</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>2.6757659</v>
+        <v>1.69257</v>
       </c>
       <c r="J39" t="n">
-        <v>168.3361754</v>
+        <v>40.9119</v>
       </c>
       <c r="K39" t="n">
-        <v>918.6796864</v>
+        <v>763.9863872</v>
       </c>
       <c r="L39" t="n">
-        <v>8.179600000000001</v>
+        <v>8.6486</v>
       </c>
       <c r="M39" t="n">
-        <v>38.5653</v>
+        <v>27.5024</v>
       </c>
       <c r="N39" t="n">
-        <v>5058</v>
+        <v>4476</v>
       </c>
       <c r="O39" t="n">
-        <v>4.51761</v>
+        <v>4.58156</v>
       </c>
       <c r="P39" t="n">
-        <v>0.802633</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>3.281657243391717</v>
+        <v>0.6568774317723755</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02954374353693721</v>
+        <v>0.1003368034905729</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5961.01</v>
+        <v>836.01</v>
       </c>
       <c r="B40" t="n">
-        <v>262689575</v>
+        <v>440887364</v>
       </c>
       <c r="C40" t="n">
-        <v>349.216044</v>
+        <v>225.079883</v>
       </c>
       <c r="D40" t="n">
-        <v>5.695887</v>
+        <v>-24.454202</v>
       </c>
       <c r="E40" t="n">
-        <v>2459447.785905</v>
+        <v>2459356.164023</v>
       </c>
       <c r="F40" t="n">
-        <v>1.617487</v>
+        <v>8.5954792</v>
       </c>
       <c r="G40" t="n">
-        <v>1.2809267</v>
+        <v>2.47</v>
       </c>
       <c r="H40" t="n">
-        <v>342.1852102</v>
+        <v>1140</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>1.3134056</v>
+        <v>2.64032</v>
       </c>
       <c r="J40" t="n">
-        <v>197.2074933</v>
+        <v>40.8229</v>
       </c>
       <c r="K40" t="n">
-        <v>955.7638559</v>
+        <v>704</v>
       </c>
       <c r="L40" t="n">
-        <v>9.039199999999999</v>
+        <v>8.6486</v>
       </c>
       <c r="M40" t="n">
-        <v>26.2533</v>
+        <v>27.5024</v>
       </c>
       <c r="N40" t="n">
-        <v>3900.68</v>
+        <v>4476</v>
       </c>
       <c r="O40" t="n">
-        <v>4.5239</v>
+        <v>4.58156</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>3.403379315970769</v>
+        <v>0.6568774317723755</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01821666933566217</v>
+        <v>0.1003368034905729</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4307.02</v>
+        <v>6965.01</v>
       </c>
       <c r="B41" t="n">
-        <v>141186075</v>
+        <v>80224448</v>
       </c>
       <c r="C41" t="n">
-        <v>81.32749800000001</v>
+        <v>103.678273</v>
       </c>
       <c r="D41" t="n">
-        <v>-75.69373400000001</v>
+        <v>24.245141</v>
       </c>
       <c r="E41" t="n">
-        <v>2458328.004126</v>
+        <v>2459505.193695</v>
       </c>
       <c r="F41" t="n">
-        <v>4.6545798</v>
+        <v>5.9693397</v>
       </c>
       <c r="G41" t="n">
-        <v>3.1445137</v>
+        <v>3.441038</v>
       </c>
       <c r="H41" t="n">
-        <v>24.5834929</v>
+        <v>105.5424205</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0.5531037</v>
+        <v>1.3473608</v>
       </c>
       <c r="J41" t="n">
-        <v>454.0182322</v>
+        <v>334.6170929</v>
       </c>
       <c r="K41" t="n">
-        <v>1177.3025181</v>
+        <v>1090.8292631</v>
       </c>
       <c r="L41" t="n">
-        <v>6.6418</v>
+        <v>6.3103</v>
       </c>
       <c r="M41" t="n">
-        <v>36.0469</v>
+        <v>31.1664</v>
       </c>
       <c r="N41" t="n">
-        <v>6079.16</v>
+        <v>6007</v>
       </c>
       <c r="O41" t="n">
-        <v>4.438</v>
+        <v>4.37729</v>
       </c>
       <c r="P41" t="n">
-        <v>1.09843</v>
+        <v>1.12993</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>3.40741529341964</v>
+        <v>0.660819973828768</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.05173693485062012</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4307.01</v>
+        <v>6965.02</v>
       </c>
       <c r="B42" t="n">
-        <v>141186075</v>
+        <v>80224448</v>
       </c>
       <c r="C42" t="n">
-        <v>81.32749800000001</v>
+        <v>103.678273</v>
       </c>
       <c r="D42" t="n">
-        <v>-75.69373400000001</v>
+        <v>24.245141</v>
       </c>
       <c r="E42" t="n">
-        <v>2458349.759358</v>
+        <v>2459508.008646</v>
       </c>
       <c r="F42" t="n">
-        <v>32.696666</v>
+        <v>28.0693949</v>
       </c>
       <c r="G42" t="n">
-        <v>4.428309</v>
+        <v>6.0393818</v>
       </c>
       <c r="H42" t="n">
-        <v>108.5170828</v>
+        <v>154.3008171</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>1.3159881</v>
+        <v>1.6221344</v>
       </c>
       <c r="J42" t="n">
-        <v>33.7475807</v>
+        <v>42.4755605</v>
       </c>
       <c r="K42" t="n">
-        <v>614.7243418</v>
+        <v>651.1102456</v>
       </c>
       <c r="L42" t="n">
-        <v>6.6418</v>
+        <v>6.3103</v>
       </c>
       <c r="M42" t="n">
-        <v>36.0469</v>
+        <v>31.1664</v>
       </c>
       <c r="N42" t="n">
-        <v>6079.16</v>
+        <v>6007</v>
       </c>
       <c r="O42" t="n">
-        <v>4.438</v>
+        <v>4.37729</v>
       </c>
       <c r="P42" t="n">
-        <v>1.09843</v>
+        <v>1.12993</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>3.40741529341964</v>
+        <v>0.660819973828768</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1616304778941326</v>
+        <v>0.05173693485062012</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>836.01</v>
+        <v>560.01</v>
       </c>
       <c r="B43" t="n">
-        <v>440887364</v>
+        <v>101011575</v>
       </c>
       <c r="C43" t="n">
-        <v>225.079883</v>
+        <v>129.688303</v>
       </c>
       <c r="D43" t="n">
-        <v>-24.454202</v>
+        <v>-13.256527</v>
       </c>
       <c r="E43" t="n">
-        <v>2459356.164023</v>
+        <v>2459982.845399</v>
       </c>
       <c r="F43" t="n">
-        <v>8.5954792</v>
+        <v>6.3980642</v>
       </c>
       <c r="G43" t="n">
-        <v>2.47</v>
+        <v>2.004</v>
       </c>
       <c r="H43" t="n">
-        <v>1140</v>
+        <v>1656</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>2.64032</v>
+        <v>2.62025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.8229</v>
+        <v>33.7178</v>
       </c>
       <c r="K43" t="n">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="L43" t="n">
-        <v>8.6486</v>
+        <v>8.592499999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>27.5024</v>
+        <v>31.5666</v>
       </c>
       <c r="N43" t="n">
-        <v>4476</v>
+        <v>4695</v>
       </c>
       <c r="O43" t="n">
-        <v>4.58156</v>
+        <v>4.5</v>
       </c>
       <c r="P43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>3.425707330003564</v>
+        <v>0.6771192007578941</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1003368034905729</v>
+        <v>0.03908929712115194</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>836.02</v>
+        <v>560.02</v>
       </c>
       <c r="B44" t="n">
-        <v>440887364</v>
+        <v>101011575</v>
       </c>
       <c r="C44" t="n">
-        <v>225.079883</v>
+        <v>129.688303</v>
       </c>
       <c r="D44" t="n">
-        <v>-24.454202</v>
+        <v>-13.256527</v>
       </c>
       <c r="E44" t="n">
-        <v>2459355.705342</v>
+        <v>2459987.337647</v>
       </c>
       <c r="F44" t="n">
-        <v>3.8167262</v>
+        <v>18.8792871</v>
       </c>
       <c r="G44" t="n">
-        <v>1.602</v>
+        <v>3.262</v>
       </c>
       <c r="H44" t="n">
-        <v>580</v>
+        <v>1199</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>1.69257</v>
+        <v>1.99787</v>
       </c>
       <c r="J44" t="n">
-        <v>40.9119</v>
+        <v>10.5814</v>
       </c>
       <c r="K44" t="n">
-        <v>763.9863872</v>
+        <v>502</v>
       </c>
       <c r="L44" t="n">
-        <v>8.6486</v>
+        <v>8.592499999999999</v>
       </c>
       <c r="M44" t="n">
-        <v>27.5024</v>
+        <v>31.5666</v>
       </c>
       <c r="N44" t="n">
-        <v>4476</v>
+        <v>4695</v>
       </c>
       <c r="O44" t="n">
-        <v>4.58156</v>
+        <v>4.5</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>3.425707330003564</v>
+        <v>0.6771192007578941</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1003368034905729</v>
+        <v>0.03908929712115194</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>560.02</v>
+        <v>214.02</v>
       </c>
       <c r="B45" t="n">
-        <v>101011575</v>
+        <v>167415965</v>
       </c>
       <c r="C45" t="n">
-        <v>129.688303</v>
+        <v>99.458741</v>
       </c>
       <c r="D45" t="n">
-        <v>-13.256527</v>
+        <v>-70.931327</v>
       </c>
       <c r="E45" t="n">
-        <v>2459987.337647</v>
+        <v>2460174.709658</v>
       </c>
       <c r="F45" t="n">
-        <v>18.8792871</v>
+        <v>9.695961</v>
       </c>
       <c r="G45" t="n">
-        <v>3.262</v>
+        <v>2.772</v>
       </c>
       <c r="H45" t="n">
-        <v>1199</v>
+        <v>122</v>
       </c>
       <c r="I45" s="3" t="n">
-        <v>1.99787</v>
+        <v>0.808552</v>
       </c>
       <c r="J45" t="n">
-        <v>10.5814</v>
+        <v>66.2914</v>
       </c>
       <c r="K45" t="n">
-        <v>502</v>
+        <v>794</v>
       </c>
       <c r="L45" t="n">
-        <v>8.592499999999999</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>31.5666</v>
+        <v>38.96</v>
       </c>
       <c r="N45" t="n">
-        <v>4695</v>
+        <v>5346.2</v>
       </c>
       <c r="O45" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="P45" t="n">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>3.521787600818508</v>
+        <v>0.700395699782739</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03908929712115194</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>560.01</v>
+        <v>214.01</v>
       </c>
       <c r="B46" t="n">
-        <v>101011575</v>
+        <v>167415965</v>
       </c>
       <c r="C46" t="n">
-        <v>129.688303</v>
+        <v>99.458741</v>
       </c>
       <c r="D46" t="n">
-        <v>-13.256527</v>
+        <v>-70.931327</v>
       </c>
       <c r="E46" t="n">
-        <v>2459982.845399</v>
+        <v>2460154.945542</v>
       </c>
       <c r="F46" t="n">
-        <v>6.3980642</v>
+        <v>18.5537012</v>
       </c>
       <c r="G46" t="n">
-        <v>2.004</v>
+        <v>3.438</v>
       </c>
       <c r="H46" t="n">
-        <v>1656</v>
+        <v>448</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>2.62025</v>
+        <v>1.57606</v>
       </c>
       <c r="J46" t="n">
-        <v>33.7178</v>
+        <v>25.0891</v>
       </c>
       <c r="K46" t="n">
-        <v>671</v>
+        <v>623</v>
       </c>
       <c r="L46" t="n">
-        <v>8.592499999999999</v>
+        <v>8.008900000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>31.5666</v>
+        <v>38.96</v>
       </c>
       <c r="N46" t="n">
-        <v>4695</v>
+        <v>5346.2</v>
       </c>
       <c r="O46" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="P46" t="n">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>3.521787600818508</v>
+        <v>0.700395699782739</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03908929712115194</v>
+        <v>0.1669777466970116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>214.01</v>
+        <v>262.01</v>
       </c>
       <c r="B47" t="n">
-        <v>167415965</v>
+        <v>70513361</v>
       </c>
       <c r="C47" t="n">
-        <v>99.458741</v>
+        <v>32.534687</v>
       </c>
       <c r="D47" t="n">
-        <v>-70.931327</v>
+        <v>-31.070627</v>
       </c>
       <c r="E47" t="n">
-        <v>2460154.945542</v>
+        <v>2459136.576258</v>
       </c>
       <c r="F47" t="n">
-        <v>18.5537012</v>
+        <v>11.1452784</v>
       </c>
       <c r="G47" t="n">
-        <v>3.438</v>
+        <v>1.3947705</v>
       </c>
       <c r="H47" t="n">
-        <v>448</v>
+        <v>566.2736451</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>1.57606</v>
+        <v>2.0671456</v>
       </c>
       <c r="J47" t="n">
-        <v>25.0891</v>
+        <v>56.9132658</v>
       </c>
       <c r="K47" t="n">
-        <v>623</v>
+        <v>700.5241733</v>
       </c>
       <c r="L47" t="n">
-        <v>8.008900000000001</v>
+        <v>8.134499999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>38.96</v>
+        <v>43.932</v>
       </c>
       <c r="N47" t="n">
-        <v>5346.2</v>
+        <v>5302.58</v>
       </c>
       <c r="O47" t="n">
-        <v>4.6</v>
+        <v>4.53515</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8</v>
+        <v>0.848675</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>3.568330244588864</v>
+        <v>0.7258240036623652</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.1492879722753243</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>214.02</v>
+        <v>402.01</v>
       </c>
       <c r="B48" t="n">
-        <v>167415965</v>
+        <v>120896927</v>
       </c>
       <c r="C48" t="n">
-        <v>99.458741</v>
+        <v>36.867885</v>
       </c>
       <c r="D48" t="n">
-        <v>-70.931327</v>
+        <v>-27.636117</v>
       </c>
       <c r="E48" t="n">
-        <v>2460174.709658</v>
+        <v>2459139.126535</v>
       </c>
       <c r="F48" t="n">
-        <v>9.695961</v>
+        <v>4.7559737</v>
       </c>
       <c r="G48" t="n">
-        <v>2.772</v>
+        <v>2.5469696</v>
       </c>
       <c r="H48" t="n">
-        <v>122</v>
+        <v>398.6310113</v>
       </c>
       <c r="I48" s="3" t="n">
-        <v>0.808552</v>
+        <v>1.725417</v>
       </c>
       <c r="J48" t="n">
-        <v>66.2914</v>
+        <v>161.7314334</v>
       </c>
       <c r="K48" t="n">
-        <v>794</v>
+        <v>909.5327855</v>
       </c>
       <c r="L48" t="n">
-        <v>8.008900000000001</v>
+        <v>8.3157</v>
       </c>
       <c r="M48" t="n">
-        <v>38.96</v>
+        <v>44.8155</v>
       </c>
       <c r="N48" t="n">
-        <v>5346.2</v>
+        <v>5175.2</v>
       </c>
       <c r="O48" t="n">
-        <v>4.6</v>
+        <v>4.37657</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8</v>
+        <v>0.841842</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>3.568330244588864</v>
+        <v>0.7395070566116456</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1669777466970116</v>
+        <v>0.1131206969624331</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5082.01</v>
+        <v>402.02</v>
       </c>
       <c r="B49" t="n">
-        <v>437011608</v>
+        <v>120896927</v>
       </c>
       <c r="C49" t="n">
-        <v>106.569578</v>
+        <v>36.867885</v>
       </c>
       <c r="D49" t="n">
-        <v>22.683148</v>
+        <v>-27.636117</v>
       </c>
       <c r="E49" t="n">
-        <v>2460284.802643</v>
+        <v>2459118.955569</v>
       </c>
       <c r="F49" t="n">
-        <v>4.2403543</v>
+        <v>17.1807214</v>
       </c>
       <c r="G49" t="n">
-        <v>2.353</v>
+        <v>2.1004813</v>
       </c>
       <c r="H49" t="n">
-        <v>842</v>
+        <v>680.1385904</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>2.64301</v>
+        <v>2.1954034</v>
       </c>
       <c r="J49" t="n">
-        <v>255.637</v>
+        <v>29.1782002</v>
       </c>
       <c r="K49" t="n">
-        <v>1113</v>
+        <v>592.7674866</v>
       </c>
       <c r="L49" t="n">
-        <v>7.6253</v>
+        <v>8.3157</v>
       </c>
       <c r="M49" t="n">
-        <v>43.1406</v>
+        <v>44.8155</v>
       </c>
       <c r="N49" t="n">
-        <v>5670</v>
+        <v>5175.2</v>
       </c>
       <c r="O49" t="n">
-        <v>4.5</v>
+        <v>4.37657</v>
       </c>
       <c r="P49" t="n">
-        <v>0.93</v>
+        <v>0.841842</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>3.649745289465404</v>
+        <v>0.7395070566116456</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06111348028634735</v>
+        <v>0.1131206969624331</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>262.01</v>
+        <v>5082.01</v>
       </c>
       <c r="B50" t="n">
-        <v>70513361</v>
+        <v>437011608</v>
       </c>
       <c r="C50" t="n">
-        <v>32.534687</v>
+        <v>106.569578</v>
       </c>
       <c r="D50" t="n">
-        <v>-31.070627</v>
+        <v>22.683148</v>
       </c>
       <c r="E50" t="n">
-        <v>2459136.576258</v>
+        <v>2460284.802643</v>
       </c>
       <c r="F50" t="n">
-        <v>11.1452784</v>
+        <v>4.2403543</v>
       </c>
       <c r="G50" t="n">
-        <v>1.3947705</v>
+        <v>2.353</v>
       </c>
       <c r="H50" t="n">
-        <v>566.2736451</v>
+        <v>842</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>2.0671456</v>
+        <v>2.64301</v>
       </c>
       <c r="J50" t="n">
-        <v>56.9132658</v>
+        <v>255.637</v>
       </c>
       <c r="K50" t="n">
-        <v>700.5241733</v>
+        <v>1113</v>
       </c>
       <c r="L50" t="n">
-        <v>8.134499999999999</v>
+        <v>7.6253</v>
       </c>
       <c r="M50" t="n">
-        <v>43.932</v>
+        <v>43.1406</v>
       </c>
       <c r="N50" t="n">
-        <v>5302.58</v>
+        <v>5670</v>
       </c>
       <c r="O50" t="n">
-        <v>4.53515</v>
+        <v>4.5</v>
       </c>
       <c r="P50" t="n">
-        <v>0.848675</v>
+        <v>0.93</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>3.674405832762042</v>
+        <v>0.7408912010216151</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1492879722753243</v>
+        <v>0.06111348028634735</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>402.02</v>
+        <v>4517.01</v>
       </c>
       <c r="B51" t="n">
-        <v>120896927</v>
+        <v>301289516</v>
       </c>
       <c r="C51" t="n">
-        <v>36.867885</v>
+        <v>351.771776</v>
       </c>
       <c r="D51" t="n">
-        <v>-27.636117</v>
+        <v>-1.285343</v>
       </c>
       <c r="E51" t="n">
-        <v>2459118.955569</v>
+        <v>2460231.733831</v>
       </c>
       <c r="F51" t="n">
-        <v>17.1807214</v>
+        <v>1.2089755</v>
       </c>
       <c r="G51" t="n">
-        <v>2.1004813</v>
+        <v>1.286</v>
       </c>
       <c r="H51" t="n">
-        <v>680.1385904</v>
+        <v>668</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>2.1954034</v>
+        <v>1.68645</v>
       </c>
       <c r="J51" t="n">
-        <v>29.1782002</v>
+        <v>325.749</v>
       </c>
       <c r="K51" t="n">
-        <v>592.7674866</v>
+        <v>1183</v>
       </c>
       <c r="L51" t="n">
-        <v>8.3157</v>
+        <v>9.0684</v>
       </c>
       <c r="M51" t="n">
-        <v>44.8155</v>
+        <v>29.661</v>
       </c>
       <c r="N51" t="n">
-        <v>5175.2</v>
+        <v>4199</v>
       </c>
       <c r="O51" t="n">
-        <v>4.37657</v>
+        <v>4.65321</v>
       </c>
       <c r="P51" t="n">
-        <v>0.841842</v>
+        <v>0.63</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>3.769031705355568</v>
+        <v>0.7477829337452678</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1131206969624331</v>
+        <v>0.216608172812752</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>402.01</v>
+        <v>6266.01</v>
       </c>
       <c r="B52" t="n">
-        <v>120896927</v>
+        <v>193023697</v>
       </c>
       <c r="C52" t="n">
-        <v>36.867885</v>
+        <v>155.597851</v>
       </c>
       <c r="D52" t="n">
-        <v>-27.636117</v>
+        <v>-28.847487</v>
       </c>
       <c r="E52" t="n">
-        <v>2459139.126535</v>
+        <v>2460013.265158</v>
       </c>
       <c r="F52" t="n">
-        <v>4.7559737</v>
+        <v>2.7895524</v>
       </c>
       <c r="G52" t="n">
-        <v>2.5469696</v>
+        <v>1.969</v>
       </c>
       <c r="H52" t="n">
-        <v>398.6310113</v>
+        <v>262</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>1.725417</v>
+        <v>0.986147</v>
       </c>
       <c r="J52" t="n">
-        <v>161.7314334</v>
+        <v>376.853</v>
       </c>
       <c r="K52" t="n">
-        <v>909.5327855</v>
+        <v>1227</v>
       </c>
       <c r="L52" t="n">
-        <v>8.3157</v>
+        <v>8.5953</v>
       </c>
       <c r="M52" t="n">
-        <v>44.8155</v>
+        <v>42.6435</v>
       </c>
       <c r="N52" t="n">
-        <v>5175.2</v>
+        <v>5039</v>
       </c>
       <c r="O52" t="n">
-        <v>4.37657</v>
+        <v>4.62</v>
       </c>
       <c r="P52" t="n">
-        <v>0.841842</v>
+        <v>0.74</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>3.769031705355568</v>
+        <v>0.7484988608411366</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1131206969624331</v>
+        <v>0.01595707167941454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6266.01</v>
+        <v>4307.01</v>
       </c>
       <c r="B53" t="n">
-        <v>193023697</v>
+        <v>141186075</v>
       </c>
       <c r="C53" t="n">
-        <v>155.597851</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D53" t="n">
-        <v>-28.847487</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E53" t="n">
-        <v>2460013.265158</v>
+        <v>2458349.759358</v>
       </c>
       <c r="F53" t="n">
-        <v>2.7895524</v>
+        <v>32.696666</v>
       </c>
       <c r="G53" t="n">
-        <v>1.969</v>
+        <v>4.428309</v>
       </c>
       <c r="H53" t="n">
-        <v>262</v>
+        <v>108.5170828</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>0.986147</v>
+        <v>1.3159881</v>
       </c>
       <c r="J53" t="n">
-        <v>376.853</v>
+        <v>33.7475807</v>
       </c>
       <c r="K53" t="n">
-        <v>1227</v>
+        <v>614.7243418</v>
       </c>
       <c r="L53" t="n">
-        <v>8.5953</v>
+        <v>6.6418</v>
       </c>
       <c r="M53" t="n">
-        <v>42.6435</v>
+        <v>36.0469</v>
       </c>
       <c r="N53" t="n">
-        <v>5039</v>
+        <v>6079.16</v>
       </c>
       <c r="O53" t="n">
-        <v>4.62</v>
+        <v>4.438</v>
       </c>
       <c r="P53" t="n">
-        <v>0.74</v>
+        <v>1.09843</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>3.8722412377071</v>
+        <v>0.7486329289985523</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01595707167941454</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4517.01</v>
+        <v>4307.02</v>
       </c>
       <c r="B54" t="n">
-        <v>301289516</v>
+        <v>141186075</v>
       </c>
       <c r="C54" t="n">
-        <v>351.771776</v>
+        <v>81.32749800000001</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.285343</v>
+        <v>-75.69373400000001</v>
       </c>
       <c r="E54" t="n">
-        <v>2460231.733831</v>
+        <v>2458328.004126</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2089755</v>
+        <v>4.6545798</v>
       </c>
       <c r="G54" t="n">
-        <v>1.286</v>
+        <v>3.1445137</v>
       </c>
       <c r="H54" t="n">
-        <v>668</v>
+        <v>24.5834929</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>1.68645</v>
+        <v>0.5531037</v>
       </c>
       <c r="J54" t="n">
-        <v>325.749</v>
+        <v>454.0182322</v>
       </c>
       <c r="K54" t="n">
-        <v>1183</v>
+        <v>1177.3025181</v>
       </c>
       <c r="L54" t="n">
-        <v>9.0684</v>
+        <v>6.6418</v>
       </c>
       <c r="M54" t="n">
-        <v>29.661</v>
+        <v>36.0469</v>
       </c>
       <c r="N54" t="n">
-        <v>4199</v>
+        <v>6079.16</v>
       </c>
       <c r="O54" t="n">
-        <v>4.65321</v>
+        <v>4.438</v>
       </c>
       <c r="P54" t="n">
-        <v>0.63</v>
+        <v>1.09843</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>3.917080320565909</v>
+        <v>0.7486329289985523</v>
       </c>
       <c r="R54" t="n">
-        <v>0.216608172812752</v>
+        <v>0.1616304778941326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6985.01</v>
+        <v>174.05</v>
       </c>
       <c r="B55" t="n">
-        <v>59490344</v>
+        <v>425997655</v>
       </c>
       <c r="C55" t="n">
-        <v>108.993831</v>
+        <v>55.459031</v>
       </c>
       <c r="D55" t="n">
-        <v>18.691658</v>
+        <v>-62.767267</v>
       </c>
       <c r="E55" t="n">
-        <v>2459509.801369</v>
+        <v>2460197.038739</v>
       </c>
       <c r="F55" t="n">
-        <v>748.7146251</v>
+        <v>7.9076222</v>
       </c>
       <c r="G55" t="n">
-        <v>6.6689152</v>
+        <v>2.611</v>
       </c>
       <c r="H55" t="n">
-        <v>1655.3509066</v>
+        <v>217</v>
       </c>
       <c r="I55" s="3" t="n">
-        <v>3.4308988</v>
+        <v>0.969819</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1991332</v>
+        <v>44.8107</v>
       </c>
       <c r="K55" t="n">
-        <v>170.3749226</v>
+        <v>720</v>
       </c>
       <c r="L55" t="n">
-        <v>8.3323</v>
+        <v>8.751300000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>46.2206</v>
+        <v>39.0341</v>
       </c>
       <c r="N55" t="n">
-        <v>5235</v>
+        <v>4813</v>
       </c>
       <c r="O55" t="n">
-        <v>4.5339</v>
+        <v>4.38</v>
       </c>
       <c r="P55" t="n">
-        <v>0.844852</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>3.979865678119569</v>
+        <v>0.7672495374917921</v>
       </c>
       <c r="R55" t="n">
-        <v>0.05116830390931167</v>
+        <v>0.05462548793553362</v>
       </c>
     </row>
     <row r="56">
@@ -3637,7 +3637,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>3.992721170613064</v>
+        <v>0.7672495374917921</v>
       </c>
       <c r="R56" t="n">
         <v>0.05462548793553362</v>
@@ -3693,7 +3693,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>3.992721170613064</v>
+        <v>0.7672495374917921</v>
       </c>
       <c r="R57" t="n">
         <v>0.05462548793553362</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>174.05</v>
+        <v>174.04</v>
       </c>
       <c r="B58" t="n">
         <v>425997655</v>
@@ -3713,25 +3713,25 @@
         <v>-62.767267</v>
       </c>
       <c r="E58" t="n">
-        <v>2460197.038739</v>
+        <v>2460203.017928</v>
       </c>
       <c r="F58" t="n">
-        <v>7.9076222</v>
+        <v>3.9766833</v>
       </c>
       <c r="G58" t="n">
-        <v>2.611</v>
+        <v>1.859</v>
       </c>
       <c r="H58" t="n">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>0.969819</v>
+        <v>0.757588</v>
       </c>
       <c r="J58" t="n">
-        <v>44.8107</v>
+        <v>89.0886</v>
       </c>
       <c r="K58" t="n">
-        <v>720</v>
+        <v>855</v>
       </c>
       <c r="L58" t="n">
         <v>8.751300000000001</v>
@@ -3749,7 +3749,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>3.992721170613064</v>
+        <v>0.7672495374917921</v>
       </c>
       <c r="R58" t="n">
         <v>0.05462548793553362</v>
@@ -3805,7 +3805,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>3.992721170613064</v>
+        <v>0.7672495374917921</v>
       </c>
       <c r="R59" t="n">
         <v>0.05462548793553362</v>
@@ -3813,170 +3813,170 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>174.04</v>
+        <v>6985.01</v>
       </c>
       <c r="B60" t="n">
-        <v>425997655</v>
+        <v>59490344</v>
       </c>
       <c r="C60" t="n">
-        <v>55.459031</v>
+        <v>108.993831</v>
       </c>
       <c r="D60" t="n">
-        <v>-62.767267</v>
+        <v>18.691658</v>
       </c>
       <c r="E60" t="n">
-        <v>2460203.017928</v>
+        <v>2459509.801369</v>
       </c>
       <c r="F60" t="n">
-        <v>3.9766833</v>
+        <v>748.7146251</v>
       </c>
       <c r="G60" t="n">
-        <v>1.859</v>
+        <v>6.6689152</v>
       </c>
       <c r="H60" t="n">
-        <v>142</v>
+        <v>1655.3509066</v>
       </c>
       <c r="I60" s="3" t="n">
-        <v>0.757588</v>
+        <v>3.4308988</v>
       </c>
       <c r="J60" t="n">
-        <v>89.0886</v>
+        <v>0.1991332</v>
       </c>
       <c r="K60" t="n">
-        <v>855</v>
+        <v>170.3749226</v>
       </c>
       <c r="L60" t="n">
-        <v>8.751300000000001</v>
+        <v>8.3323</v>
       </c>
       <c r="M60" t="n">
-        <v>39.0341</v>
+        <v>46.2206</v>
       </c>
       <c r="N60" t="n">
-        <v>4813</v>
+        <v>5235</v>
       </c>
       <c r="O60" t="n">
-        <v>4.38</v>
+        <v>4.5339</v>
       </c>
       <c r="P60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.844852</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>3.992721170613064</v>
+        <v>0.7790013188329817</v>
       </c>
       <c r="R60" t="n">
-        <v>0.05462548793553362</v>
+        <v>0.05116830390931167</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>200.01</v>
+        <v>6709.01</v>
       </c>
       <c r="B61" t="n">
-        <v>410214986</v>
+        <v>20375215</v>
       </c>
       <c r="C61" t="n">
-        <v>354.915467</v>
+        <v>167.608218</v>
       </c>
       <c r="D61" t="n">
-        <v>-69.196043</v>
+        <v>-29.414302</v>
       </c>
       <c r="E61" t="n">
-        <v>2458332.308323</v>
+        <v>2458544.543307</v>
       </c>
       <c r="F61" t="n">
-        <v>8.1382222</v>
+        <v>2.3477336</v>
       </c>
       <c r="G61" t="n">
-        <v>3.2797025</v>
+        <v>1.8624266</v>
       </c>
       <c r="H61" t="n">
-        <v>3852.0299874</v>
+        <v>182.9434914</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>6.1757682</v>
+        <v>1.0903541</v>
       </c>
       <c r="J61" t="n">
-        <v>115.8275563</v>
+        <v>215.4979378</v>
       </c>
       <c r="K61" t="n">
-        <v>836.7056912</v>
+        <v>977.1934094</v>
       </c>
       <c r="L61" t="n">
-        <v>7.8541</v>
+        <v>8.8392</v>
       </c>
       <c r="M61" t="n">
-        <v>44.0622</v>
+        <v>39.7429</v>
       </c>
       <c r="N61" t="n">
-        <v>5414</v>
+        <v>4799</v>
       </c>
       <c r="O61" t="n">
-        <v>4.438</v>
+        <v>4.66766</v>
       </c>
       <c r="P61" t="n">
-        <v>0.951985</v>
+        <v>0.678033</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>4.006602775726686</v>
+        <v>0.7921862544542181</v>
       </c>
       <c r="R61" t="n">
-        <v>0.05260215923995968</v>
+        <v>0.03672621593360964</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>509.02</v>
+        <v>200.01</v>
       </c>
       <c r="B62" t="n">
-        <v>453211454</v>
+        <v>410214986</v>
       </c>
       <c r="C62" t="n">
-        <v>117.924642</v>
+        <v>354.915467</v>
       </c>
       <c r="D62" t="n">
-        <v>9.385241000000001</v>
+        <v>-69.196043</v>
       </c>
       <c r="E62" t="n">
-        <v>2460259.048369</v>
+        <v>2458332.308323</v>
       </c>
       <c r="F62" t="n">
-        <v>21.4003129</v>
+        <v>8.1382222</v>
       </c>
       <c r="G62" t="n">
-        <v>5.3847459</v>
+        <v>3.2797025</v>
       </c>
       <c r="H62" t="n">
-        <v>960.7539877</v>
+        <v>3852.0299874</v>
       </c>
       <c r="I62" s="3" t="n">
-        <v>3.0010426</v>
+        <v>6.1757682</v>
       </c>
       <c r="J62" t="n">
-        <v>35.2811724</v>
+        <v>115.8275563</v>
       </c>
       <c r="K62" t="n">
-        <v>621.592122</v>
+        <v>836.7056912</v>
       </c>
       <c r="L62" t="n">
-        <v>7.9259</v>
+        <v>7.8541</v>
       </c>
       <c r="M62" t="n">
-        <v>48.9739</v>
+        <v>44.0622</v>
       </c>
       <c r="N62" t="n">
-        <v>5560.26</v>
+        <v>5414</v>
       </c>
       <c r="O62" t="n">
         <v>4.438</v>
       </c>
       <c r="P62" t="n">
-        <v>0.962324</v>
+        <v>0.951985</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>4.060332463177636</v>
+        <v>0.7950396628636013</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1017032808558144</v>
+        <v>0.05260215923995968</v>
       </c>
     </row>
     <row r="63">
@@ -4029,7 +4029,7 @@
         <v>0.96</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>4.060332463177636</v>
+        <v>0.8130028941603513</v>
       </c>
       <c r="R63" t="n">
         <v>0.1017032808558144</v>
@@ -4037,674 +4037,674 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4568.01</v>
+        <v>509.02</v>
       </c>
       <c r="B64" t="n">
-        <v>447088034</v>
+        <v>453211454</v>
       </c>
       <c r="C64" t="n">
-        <v>238.702259</v>
+        <v>117.924642</v>
       </c>
       <c r="D64" t="n">
-        <v>-65.901121</v>
+        <v>9.385241000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>2460121.465283</v>
+        <v>2460259.048369</v>
       </c>
       <c r="F64" t="n">
-        <v>14.0063765</v>
+        <v>21.4003129</v>
       </c>
       <c r="G64" t="n">
-        <v>1.971</v>
+        <v>5.3847459</v>
       </c>
       <c r="H64" t="n">
-        <v>300</v>
+        <v>960.7539877</v>
       </c>
       <c r="I64" s="3" t="n">
-        <v>2.26316</v>
+        <v>3.0010426</v>
       </c>
       <c r="J64" t="n">
-        <v>19.2603</v>
+        <v>35.2811724</v>
       </c>
       <c r="K64" t="n">
-        <v>583</v>
+        <v>621.592122</v>
       </c>
       <c r="L64" t="n">
-        <v>6.9608</v>
+        <v>7.9259</v>
       </c>
       <c r="M64" t="n">
-        <v>48.0378</v>
+        <v>48.9739</v>
       </c>
       <c r="N64" t="n">
-        <v>5899</v>
+        <v>5560.26</v>
       </c>
       <c r="O64" t="n">
-        <v>4.22221</v>
+        <v>4.438</v>
       </c>
       <c r="P64" t="n">
-        <v>1.33</v>
+        <v>0.962324</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>4.090376870471276</v>
+        <v>0.8130028941603513</v>
       </c>
       <c r="R64" t="n">
-        <v>0.01183878718422854</v>
+        <v>0.1017032808558144</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6709.01</v>
+        <v>2459.01</v>
       </c>
       <c r="B65" t="n">
-        <v>20375215</v>
+        <v>192790476</v>
       </c>
       <c r="C65" t="n">
-        <v>167.608218</v>
+        <v>82.143332</v>
       </c>
       <c r="D65" t="n">
-        <v>-29.414302</v>
+        <v>-39.373046</v>
       </c>
       <c r="E65" t="n">
-        <v>2458544.543307</v>
+        <v>2458452.334564</v>
       </c>
       <c r="F65" t="n">
-        <v>2.3477336</v>
+        <v>19.1047019</v>
       </c>
       <c r="G65" t="n">
-        <v>1.8624266</v>
+        <v>3.2516728</v>
       </c>
       <c r="H65" t="n">
-        <v>182.9434914</v>
+        <v>1906.0596245</v>
       </c>
       <c r="I65" s="3" t="n">
-        <v>1.0903541</v>
+        <v>2.9365337</v>
       </c>
       <c r="J65" t="n">
-        <v>215.4979378</v>
+        <v>8.5187297</v>
       </c>
       <c r="K65" t="n">
-        <v>977.1934094</v>
+        <v>435.7259839</v>
       </c>
       <c r="L65" t="n">
-        <v>8.8392</v>
+        <v>9.395099999999999</v>
       </c>
       <c r="M65" t="n">
-        <v>39.7429</v>
+        <v>36.6113</v>
       </c>
       <c r="N65" t="n">
-        <v>4799</v>
+        <v>4195</v>
       </c>
       <c r="O65" t="n">
-        <v>4.66766</v>
+        <v>4.59888</v>
       </c>
       <c r="P65" t="n">
-        <v>0.678033</v>
+        <v>0.6750930000000001</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>4.12818079432414</v>
+        <v>0.8221113924668629</v>
       </c>
       <c r="R65" t="n">
-        <v>0.03672621593360964</v>
+        <v>0.04566165863559627</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>652.01</v>
+        <v>6678.01</v>
       </c>
       <c r="B66" t="n">
-        <v>22221375</v>
+        <v>253864764</v>
       </c>
       <c r="C66" t="n">
-        <v>149.123515</v>
+        <v>283.536275</v>
       </c>
       <c r="D66" t="n">
-        <v>-24.099186</v>
+        <v>-36.65686</v>
       </c>
       <c r="E66" t="n">
-        <v>2460013.591733</v>
+        <v>2460149.83497</v>
       </c>
       <c r="F66" t="n">
-        <v>3.9846589</v>
+        <v>3.4268387</v>
       </c>
       <c r="G66" t="n">
-        <v>2.146</v>
+        <v>1.288</v>
       </c>
       <c r="H66" t="n">
-        <v>445</v>
+        <v>844</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>2.12827</v>
+        <v>2.12571</v>
       </c>
       <c r="J66" t="n">
-        <v>647.901</v>
+        <v>94.0962</v>
       </c>
       <c r="K66" t="n">
-        <v>1405</v>
+        <v>867</v>
       </c>
       <c r="L66" t="n">
-        <v>7.3635</v>
+        <v>8.8688</v>
       </c>
       <c r="M66" t="n">
-        <v>45.683</v>
+        <v>44.8496</v>
       </c>
       <c r="N66" t="n">
-        <v>5903</v>
+        <v>4794</v>
       </c>
       <c r="O66" t="n">
-        <v>4.44653</v>
+        <v>4.55</v>
       </c>
       <c r="P66" t="n">
-        <v>1.03</v>
+        <v>0.77</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>4.161623333076339</v>
+        <v>0.8304014956405525</v>
       </c>
       <c r="R66" t="n">
-        <v>0.09064358825212875</v>
+        <v>0.0352176809563584</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>141.01</v>
+        <v>461.01</v>
       </c>
       <c r="B67" t="n">
-        <v>403224672</v>
+        <v>4646810</v>
       </c>
       <c r="C67" t="n">
-        <v>338.983717</v>
+        <v>38.271253</v>
       </c>
       <c r="D67" t="n">
-        <v>-59.864829</v>
+        <v>-10.352178</v>
       </c>
       <c r="E67" t="n">
-        <v>2460178.671412</v>
+        <v>2458416.351956</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0082361</v>
+        <v>10.9245478</v>
       </c>
       <c r="G67" t="n">
-        <v>1.41</v>
+        <v>1.8716477</v>
       </c>
       <c r="H67" t="n">
-        <v>228</v>
+        <v>653.537141</v>
       </c>
       <c r="I67" s="3" t="n">
-        <v>1.7202</v>
+        <v>1.9015018</v>
       </c>
       <c r="J67" t="n">
-        <v>1882.94</v>
+        <v>35.242668</v>
       </c>
       <c r="K67" t="n">
-        <v>1835</v>
+        <v>621.4224577</v>
       </c>
       <c r="L67" t="n">
-        <v>7.384</v>
+        <v>8.872299999999999</v>
       </c>
       <c r="M67" t="n">
-        <v>48.0883</v>
+        <v>45.5621</v>
       </c>
       <c r="N67" t="n">
-        <v>5795.29</v>
+        <v>4884</v>
       </c>
       <c r="O67" t="n">
-        <v>4.438</v>
+        <v>4.49</v>
       </c>
       <c r="P67" t="n">
-        <v>1.13</v>
+        <v>0.74413</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>4.208501350154981</v>
+        <v>0.8367864053140719</v>
       </c>
       <c r="R67" t="n">
-        <v>0.06928742024772654</v>
+        <v>0.09656722333313997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2459.01</v>
+        <v>7062.01</v>
       </c>
       <c r="B68" t="n">
-        <v>192790476</v>
+        <v>23961340</v>
       </c>
       <c r="C68" t="n">
-        <v>82.143332</v>
+        <v>313.292091</v>
       </c>
       <c r="D68" t="n">
-        <v>-39.373046</v>
+        <v>-9.044055</v>
       </c>
       <c r="E68" t="n">
-        <v>2458452.334564</v>
+        <v>2460528.435521</v>
       </c>
       <c r="F68" t="n">
-        <v>19.1047019</v>
+        <v>10.5137924</v>
       </c>
       <c r="G68" t="n">
-        <v>3.2516728</v>
+        <v>2.275</v>
       </c>
       <c r="H68" t="n">
-        <v>1906.0596245</v>
+        <v>1611</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>2.9365337</v>
+        <v>3.1867</v>
       </c>
       <c r="J68" t="n">
-        <v>8.5187297</v>
+        <v>25.6571</v>
       </c>
       <c r="K68" t="n">
-        <v>435.7259839</v>
+        <v>627</v>
       </c>
       <c r="L68" t="n">
-        <v>9.395099999999999</v>
+        <v>8.863</v>
       </c>
       <c r="M68" t="n">
-        <v>36.6113</v>
+        <v>47.6049</v>
       </c>
       <c r="N68" t="n">
-        <v>4195</v>
+        <v>4942</v>
       </c>
       <c r="O68" t="n">
-        <v>4.59888</v>
+        <v>4.58</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6750930000000001</v>
+        <v>0.77</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>4.31253190430223</v>
+        <v>0.8414447015604939</v>
       </c>
       <c r="R68" t="n">
-        <v>0.04566165863559627</v>
+        <v>0.02720601594492704</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>440.01</v>
+        <v>652.01</v>
       </c>
       <c r="B69" t="n">
-        <v>143350972</v>
+        <v>22221375</v>
       </c>
       <c r="C69" t="n">
-        <v>82.245986</v>
+        <v>149.123515</v>
       </c>
       <c r="D69" t="n">
-        <v>-17.429564</v>
+        <v>-24.099186</v>
       </c>
       <c r="E69" t="n">
-        <v>2458439.13519</v>
+        <v>2460013.591733</v>
       </c>
       <c r="F69" t="n">
-        <v>1.0817</v>
+        <v>3.9846589</v>
       </c>
       <c r="G69" t="n">
-        <v>1.588</v>
+        <v>2.146</v>
       </c>
       <c r="H69" t="n">
-        <v>341.533</v>
+        <v>445</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>2.07554</v>
+        <v>2.12827</v>
       </c>
       <c r="J69" t="n">
-        <v>2462.7009749</v>
+        <v>647.901</v>
       </c>
       <c r="K69" t="n">
-        <v>1796.6880123</v>
+        <v>1405</v>
       </c>
       <c r="L69" t="n">
-        <v>7.6818</v>
+        <v>7.3635</v>
       </c>
       <c r="M69" t="n">
-        <v>49.3375</v>
+        <v>45.683</v>
       </c>
       <c r="N69" t="n">
-        <v>5759.2</v>
+        <v>5903</v>
       </c>
       <c r="O69" t="n">
-        <v>4.45</v>
+        <v>4.44653</v>
       </c>
       <c r="P69" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>4.315781758736281</v>
+        <v>0.8547755436046757</v>
       </c>
       <c r="R69" t="n">
-        <v>0.05708224099375498</v>
+        <v>0.09064358825212875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6678.01</v>
+        <v>6726.01</v>
       </c>
       <c r="B70" t="n">
-        <v>253864764</v>
+        <v>121490076</v>
       </c>
       <c r="C70" t="n">
-        <v>283.536275</v>
+        <v>343.572379</v>
       </c>
       <c r="D70" t="n">
-        <v>-36.65686</v>
+        <v>-43.010229</v>
       </c>
       <c r="E70" t="n">
-        <v>2460149.83497</v>
+        <v>2460160.495921</v>
       </c>
       <c r="F70" t="n">
-        <v>3.4268387</v>
+        <v>14.2456603</v>
       </c>
       <c r="G70" t="n">
-        <v>1.288</v>
+        <v>3.403</v>
       </c>
       <c r="H70" t="n">
-        <v>844</v>
+        <v>1084</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>2.12571</v>
+        <v>3.68209</v>
       </c>
       <c r="J70" t="n">
-        <v>94.0962</v>
+        <v>180.487</v>
       </c>
       <c r="K70" t="n">
-        <v>867</v>
+        <v>1021</v>
       </c>
       <c r="L70" t="n">
-        <v>8.8688</v>
+        <v>8.998799999999999</v>
       </c>
       <c r="M70" t="n">
-        <v>44.8496</v>
+        <v>46.2122</v>
       </c>
       <c r="N70" t="n">
-        <v>4794</v>
+        <v>4760</v>
       </c>
       <c r="O70" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="P70" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>4.318029703234699</v>
+        <v>0.8610807273540143</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0352176809563584</v>
+        <v>0.01321577039811966</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>461.01</v>
+        <v>141.01</v>
       </c>
       <c r="B71" t="n">
-        <v>4646810</v>
+        <v>403224672</v>
       </c>
       <c r="C71" t="n">
-        <v>38.271253</v>
+        <v>338.983717</v>
       </c>
       <c r="D71" t="n">
-        <v>-10.352178</v>
+        <v>-59.864829</v>
       </c>
       <c r="E71" t="n">
-        <v>2458416.351956</v>
+        <v>2460178.671412</v>
       </c>
       <c r="F71" t="n">
-        <v>10.9245478</v>
+        <v>1.0082361</v>
       </c>
       <c r="G71" t="n">
-        <v>1.8716477</v>
+        <v>1.41</v>
       </c>
       <c r="H71" t="n">
-        <v>653.537141</v>
+        <v>228</v>
       </c>
       <c r="I71" s="3" t="n">
-        <v>1.9015018</v>
+        <v>1.7202</v>
       </c>
       <c r="J71" t="n">
-        <v>35.242668</v>
+        <v>1882.94</v>
       </c>
       <c r="K71" t="n">
-        <v>621.4224577</v>
+        <v>1835</v>
       </c>
       <c r="L71" t="n">
-        <v>8.872299999999999</v>
+        <v>7.384</v>
       </c>
       <c r="M71" t="n">
-        <v>45.5621</v>
+        <v>48.0883</v>
       </c>
       <c r="N71" t="n">
-        <v>4884</v>
+        <v>5795.29</v>
       </c>
       <c r="O71" t="n">
-        <v>4.49</v>
+        <v>4.438</v>
       </c>
       <c r="P71" t="n">
-        <v>0.74413</v>
+        <v>1.13</v>
       </c>
       <c r="Q71" s="3" t="n">
-        <v>4.353113514170607</v>
+        <v>0.8687447736409838</v>
       </c>
       <c r="R71" t="n">
-        <v>0.09656722333313997</v>
+        <v>0.06928742024772654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7062.01</v>
+        <v>440.01</v>
       </c>
       <c r="B72" t="n">
-        <v>23961340</v>
+        <v>143350972</v>
       </c>
       <c r="C72" t="n">
-        <v>313.292091</v>
+        <v>82.245986</v>
       </c>
       <c r="D72" t="n">
-        <v>-9.044055</v>
+        <v>-17.429564</v>
       </c>
       <c r="E72" t="n">
-        <v>2460528.435521</v>
+        <v>2458439.13519</v>
       </c>
       <c r="F72" t="n">
-        <v>10.5137924</v>
+        <v>1.0817</v>
       </c>
       <c r="G72" t="n">
-        <v>2.275</v>
+        <v>1.588</v>
       </c>
       <c r="H72" t="n">
-        <v>1611</v>
+        <v>341.533</v>
       </c>
       <c r="I72" s="3" t="n">
-        <v>3.1867</v>
+        <v>2.07554</v>
       </c>
       <c r="J72" t="n">
-        <v>25.6571</v>
+        <v>2462.7009749</v>
       </c>
       <c r="K72" t="n">
-        <v>627</v>
+        <v>1796.6880123</v>
       </c>
       <c r="L72" t="n">
-        <v>8.863</v>
+        <v>7.6818</v>
       </c>
       <c r="M72" t="n">
-        <v>47.6049</v>
+        <v>49.3375</v>
       </c>
       <c r="N72" t="n">
-        <v>4942</v>
+        <v>5759.2</v>
       </c>
       <c r="O72" t="n">
-        <v>4.58</v>
+        <v>4.45</v>
       </c>
       <c r="P72" t="n">
-        <v>0.77</v>
+        <v>1.02</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>4.366730157831123</v>
+        <v>0.8727919849858926</v>
       </c>
       <c r="R72" t="n">
-        <v>0.02720601594492704</v>
+        <v>0.05708224099375498</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5972.01</v>
+        <v>2018.01</v>
       </c>
       <c r="B73" t="n">
-        <v>420814525</v>
+        <v>357501308</v>
       </c>
       <c r="C73" t="n">
-        <v>330.795022</v>
+        <v>229.837442</v>
       </c>
       <c r="D73" t="n">
-        <v>18.884242</v>
+        <v>29.207877</v>
       </c>
       <c r="E73" t="n">
-        <v>2460552.87974</v>
+        <v>2458958.257962</v>
       </c>
       <c r="F73" t="n">
-        <v>3.5247546</v>
+        <v>7.4355709</v>
       </c>
       <c r="G73" t="n">
-        <v>2.958</v>
+        <v>2.3450321</v>
       </c>
       <c r="H73" t="n">
-        <v>17803</v>
+        <v>1310.6803156</v>
       </c>
       <c r="I73" s="3" t="n">
-        <v>16.3776</v>
+        <v>2.2761564</v>
       </c>
       <c r="J73" t="n">
-        <v>587.098</v>
+        <v>26.0757607</v>
       </c>
       <c r="K73" t="n">
-        <v>1371</v>
+        <v>576.3403106</v>
       </c>
       <c r="L73" t="n">
-        <v>7.1274</v>
+        <v>8.962</v>
       </c>
       <c r="M73" t="n">
-        <v>48.3016</v>
+        <v>27.9956</v>
       </c>
       <c r="N73" t="n">
-        <v>6052</v>
+        <v>4218.9</v>
       </c>
       <c r="O73" t="n">
-        <v>4.34258</v>
+        <v>4.67</v>
       </c>
       <c r="P73" t="n">
-        <v>1.19</v>
+        <v>0.622512</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>4.377038819618784</v>
+        <v>0.8778436251987132</v>
       </c>
       <c r="R73" t="n">
-        <v>0.01731301610536855</v>
+        <v>0.2100230324731976</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6726.01</v>
+        <v>4568.01</v>
       </c>
       <c r="B74" t="n">
-        <v>121490076</v>
+        <v>447088034</v>
       </c>
       <c r="C74" t="n">
-        <v>343.572379</v>
+        <v>238.702259</v>
       </c>
       <c r="D74" t="n">
-        <v>-43.010229</v>
+        <v>-65.901121</v>
       </c>
       <c r="E74" t="n">
-        <v>2460160.495921</v>
+        <v>2460121.465283</v>
       </c>
       <c r="F74" t="n">
-        <v>14.2456603</v>
+        <v>14.0063765</v>
       </c>
       <c r="G74" t="n">
-        <v>3.403</v>
+        <v>1.971</v>
       </c>
       <c r="H74" t="n">
-        <v>1084</v>
+        <v>300</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>3.68209</v>
+        <v>2.26316</v>
       </c>
       <c r="J74" t="n">
-        <v>180.487</v>
+        <v>19.2603</v>
       </c>
       <c r="K74" t="n">
-        <v>1021</v>
+        <v>583</v>
       </c>
       <c r="L74" t="n">
-        <v>8.998799999999999</v>
+        <v>6.9608</v>
       </c>
       <c r="M74" t="n">
-        <v>46.2122</v>
+        <v>48.0378</v>
       </c>
       <c r="N74" t="n">
-        <v>4760</v>
+        <v>5899</v>
       </c>
       <c r="O74" t="n">
-        <v>4.57</v>
+        <v>4.22221</v>
       </c>
       <c r="P74" t="n">
-        <v>0.76</v>
+        <v>1.33</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>4.479953862662206</v>
+        <v>0.9074241396480609</v>
       </c>
       <c r="R74" t="n">
-        <v>0.01321577039811966</v>
+        <v>0.01183878718422854</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2018.01</v>
+        <v>544.01</v>
       </c>
       <c r="B75" t="n">
-        <v>357501308</v>
+        <v>50618703</v>
       </c>
       <c r="C75" t="n">
-        <v>229.837442</v>
+        <v>82.290072</v>
       </c>
       <c r="D75" t="n">
-        <v>29.207877</v>
+        <v>-0.342898</v>
       </c>
       <c r="E75" t="n">
-        <v>2458958.257962</v>
+        <v>2458469.756983</v>
       </c>
       <c r="F75" t="n">
-        <v>7.4355709</v>
+        <v>1.5483542</v>
       </c>
       <c r="G75" t="n">
-        <v>2.3450321</v>
+        <v>1.2030925</v>
       </c>
       <c r="H75" t="n">
-        <v>1310.6803156</v>
+        <v>926.4111032</v>
       </c>
       <c r="I75" s="3" t="n">
-        <v>2.2761564</v>
+        <v>2.1601741</v>
       </c>
       <c r="J75" t="n">
-        <v>26.0757607</v>
+        <v>240.1950345</v>
       </c>
       <c r="K75" t="n">
-        <v>576.3403106</v>
+        <v>1004.0625199</v>
       </c>
       <c r="L75" t="n">
-        <v>8.962</v>
+        <v>9.650399999999999</v>
       </c>
       <c r="M75" t="n">
-        <v>27.9956</v>
+        <v>41.1166</v>
       </c>
       <c r="N75" t="n">
-        <v>4218.9</v>
+        <v>4665</v>
       </c>
       <c r="O75" t="n">
-        <v>4.67</v>
+        <v>4.67631</v>
       </c>
       <c r="P75" t="n">
-        <v>0.622512</v>
+        <v>0.6634139999999999</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>4.588032766810645</v>
+        <v>0.9148994790230244</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2100230324731976</v>
+        <v>0.04285830752449767</v>
       </c>
     </row>
     <row r="76">
@@ -4757,7 +4757,7 @@
         <v>0.71</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>4.794261754598314</v>
+        <v>0.9183959118142599</v>
       </c>
       <c r="R76" t="n">
         <v>0.1214124616387142</v>
@@ -4765,114 +4765,114 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>544.01</v>
+        <v>4310.01</v>
       </c>
       <c r="B77" t="n">
-        <v>50618703</v>
+        <v>303317324</v>
       </c>
       <c r="C77" t="n">
-        <v>82.290072</v>
+        <v>351.903531</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.342898</v>
+        <v>-25.508462</v>
       </c>
       <c r="E77" t="n">
-        <v>2458469.756983</v>
+        <v>2458365.181534</v>
       </c>
       <c r="F77" t="n">
-        <v>1.5483542</v>
+        <v>739.1670007</v>
       </c>
       <c r="G77" t="n">
-        <v>1.2030925</v>
+        <v>5.7183604</v>
       </c>
       <c r="H77" t="n">
-        <v>926.4111032</v>
+        <v>1376.1395053</v>
       </c>
       <c r="I77" s="3" t="n">
-        <v>2.1601741</v>
+        <v>2.6735992</v>
       </c>
       <c r="J77" t="n">
-        <v>240.1950345</v>
+        <v>0.0724872</v>
       </c>
       <c r="K77" t="n">
-        <v>1004.0625199</v>
+        <v>132.3381364</v>
       </c>
       <c r="L77" t="n">
-        <v>9.650399999999999</v>
+        <v>9.4961</v>
       </c>
       <c r="M77" t="n">
-        <v>41.1166</v>
+        <v>40.0268</v>
       </c>
       <c r="N77" t="n">
-        <v>4665</v>
+        <v>4159</v>
       </c>
       <c r="O77" t="n">
-        <v>4.67631</v>
+        <v>4.53501</v>
       </c>
       <c r="P77" t="n">
-        <v>0.6634139999999999</v>
+        <v>0.7210839999999999</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>4.802977507666216</v>
+        <v>0.9268181679763448</v>
       </c>
       <c r="R77" t="n">
-        <v>0.04285830752449767</v>
+        <v>0.04720909238790994</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4310.01</v>
+        <v>5972.01</v>
       </c>
       <c r="B78" t="n">
-        <v>303317324</v>
+        <v>420814525</v>
       </c>
       <c r="C78" t="n">
-        <v>351.903531</v>
+        <v>330.795022</v>
       </c>
       <c r="D78" t="n">
-        <v>-25.508462</v>
+        <v>18.884242</v>
       </c>
       <c r="E78" t="n">
-        <v>2458365.181534</v>
+        <v>2460552.87974</v>
       </c>
       <c r="F78" t="n">
-        <v>739.1670007</v>
+        <v>3.5247546</v>
       </c>
       <c r="G78" t="n">
-        <v>5.7183604</v>
+        <v>2.958</v>
       </c>
       <c r="H78" t="n">
-        <v>1376.1395053</v>
+        <v>17803</v>
       </c>
       <c r="I78" s="3" t="n">
-        <v>2.6735992</v>
+        <v>16.3776</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0724872</v>
+        <v>587.098</v>
       </c>
       <c r="K78" t="n">
-        <v>132.3381364</v>
+        <v>1371</v>
       </c>
       <c r="L78" t="n">
-        <v>9.4961</v>
+        <v>7.1274</v>
       </c>
       <c r="M78" t="n">
-        <v>40.0268</v>
+        <v>48.3016</v>
       </c>
       <c r="N78" t="n">
-        <v>4159</v>
+        <v>6052</v>
       </c>
       <c r="O78" t="n">
-        <v>4.53501</v>
+        <v>4.34258</v>
       </c>
       <c r="P78" t="n">
-        <v>0.7210839999999999</v>
+        <v>1.19</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>4.856890565061564</v>
+        <v>0.9277953338473325</v>
       </c>
       <c r="R78" t="n">
-        <v>0.04720909238790994</v>
+        <v>0.01731301610536855</v>
       </c>
     </row>
     <row r="79">
@@ -4925,7 +4925,7 @@
         <v>0.603336</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>5.029247845400172</v>
+        <v>0.9567840981732363</v>
       </c>
       <c r="R79" t="n">
         <v>0.08879781145072711</v>
@@ -4981,7 +4981,7 @@
         <v>0.700727</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>5.06680867658183</v>
+        <v>0.96718553812742</v>
       </c>
       <c r="R80" t="n">
         <v>0.02144133406012659</v>
@@ -4989,170 +4989,170 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5140.01</v>
+        <v>5554.01</v>
       </c>
       <c r="B81" t="n">
-        <v>175193677</v>
+        <v>91287873</v>
       </c>
       <c r="C81" t="n">
-        <v>129.689446</v>
+        <v>104.74387</v>
       </c>
       <c r="D81" t="n">
-        <v>23.685265</v>
+        <v>28.715768</v>
       </c>
       <c r="E81" t="n">
-        <v>2459547.722323</v>
+        <v>2459515.17161</v>
       </c>
       <c r="F81" t="n">
-        <v>15.6113633</v>
+        <v>26.694279</v>
       </c>
       <c r="G81" t="n">
-        <v>3.2002615</v>
+        <v>3.7831301</v>
       </c>
       <c r="H81" t="n">
-        <v>520.4897607</v>
+        <v>1854.2924324</v>
       </c>
       <c r="I81" s="3" t="n">
-        <v>2.9033347</v>
+        <v>2.6845863</v>
       </c>
       <c r="J81" t="n">
-        <v>111.9728668</v>
+        <v>4.0851419</v>
       </c>
       <c r="K81" t="n">
-        <v>829.6557911</v>
+        <v>362.5947706</v>
       </c>
       <c r="L81" t="n">
-        <v>6.3687</v>
+        <v>9.83733</v>
       </c>
       <c r="M81" t="n">
-        <v>35.26</v>
+        <v>39.4478</v>
       </c>
       <c r="N81" t="n">
-        <v>6061.77</v>
+        <v>3997</v>
       </c>
       <c r="O81" t="n">
-        <v>4.31439</v>
+        <v>4.6288</v>
       </c>
       <c r="P81" t="n">
-        <v>1.22568</v>
+        <v>0.626722</v>
       </c>
       <c r="Q81" s="3" t="n">
-        <v>5.536407362972046</v>
+        <v>1.060334328044209</v>
       </c>
       <c r="R81" t="n">
-        <v>0.07805369347634761</v>
+        <v>0.05933370244641179</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5554.01</v>
+        <v>687.01</v>
       </c>
       <c r="B82" t="n">
-        <v>91287873</v>
+        <v>74534430</v>
       </c>
       <c r="C82" t="n">
-        <v>104.74387</v>
+        <v>137.672815</v>
       </c>
       <c r="D82" t="n">
-        <v>28.715768</v>
+        <v>-45.098845</v>
       </c>
       <c r="E82" t="n">
-        <v>2459515.17161</v>
+        <v>2459977.554802</v>
       </c>
       <c r="F82" t="n">
-        <v>26.694279</v>
+        <v>36.2995129</v>
       </c>
       <c r="G82" t="n">
-        <v>3.7831301</v>
+        <v>4.4333923</v>
       </c>
       <c r="H82" t="n">
-        <v>1854.2924324</v>
+        <v>1322.2472746</v>
       </c>
       <c r="I82" s="3" t="n">
-        <v>2.6845863</v>
+        <v>2.2115007</v>
       </c>
       <c r="J82" t="n">
-        <v>4.0851419</v>
+        <v>3.169782</v>
       </c>
       <c r="K82" t="n">
-        <v>362.5947706</v>
+        <v>340.3118696</v>
       </c>
       <c r="L82" t="n">
-        <v>9.83733</v>
+        <v>9.8445</v>
       </c>
       <c r="M82" t="n">
-        <v>39.4478</v>
+        <v>42.4467</v>
       </c>
       <c r="N82" t="n">
-        <v>3997</v>
+        <v>4253.9</v>
       </c>
       <c r="O82" t="n">
-        <v>4.6288</v>
+        <v>4.57</v>
       </c>
       <c r="P82" t="n">
-        <v>0.626722</v>
+        <v>0.617519</v>
       </c>
       <c r="Q82" s="3" t="n">
-        <v>5.572070940329513</v>
+        <v>1.136035185020281</v>
       </c>
       <c r="R82" t="n">
-        <v>0.05933370244641179</v>
+        <v>0.1945912951651126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>687.01</v>
+        <v>5140.01</v>
       </c>
       <c r="B83" t="n">
-        <v>74534430</v>
+        <v>175193677</v>
       </c>
       <c r="C83" t="n">
-        <v>137.672815</v>
+        <v>129.689446</v>
       </c>
       <c r="D83" t="n">
-        <v>-45.098845</v>
+        <v>23.685265</v>
       </c>
       <c r="E83" t="n">
-        <v>2459977.554802</v>
+        <v>2459547.722323</v>
       </c>
       <c r="F83" t="n">
-        <v>36.2995129</v>
+        <v>15.6113633</v>
       </c>
       <c r="G83" t="n">
-        <v>4.4333923</v>
+        <v>3.2002615</v>
       </c>
       <c r="H83" t="n">
-        <v>1322.2472746</v>
+        <v>520.4897607</v>
       </c>
       <c r="I83" s="3" t="n">
-        <v>2.2115007</v>
+        <v>2.9033347</v>
       </c>
       <c r="J83" t="n">
-        <v>3.169782</v>
+        <v>111.9728668</v>
       </c>
       <c r="K83" t="n">
-        <v>340.3118696</v>
+        <v>829.6557911</v>
       </c>
       <c r="L83" t="n">
-        <v>9.8445</v>
+        <v>6.3687</v>
       </c>
       <c r="M83" t="n">
-        <v>42.4467</v>
+        <v>35.26</v>
       </c>
       <c r="N83" t="n">
-        <v>4253.9</v>
+        <v>6061.77</v>
       </c>
       <c r="O83" t="n">
-        <v>4.57</v>
+        <v>4.31439</v>
       </c>
       <c r="P83" t="n">
-        <v>0.617519</v>
+        <v>1.22568</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>5.968498212205658</v>
+        <v>1.138633212457292</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1945912951651126</v>
+        <v>0.07805369347634761</v>
       </c>
     </row>
     <row r="84">
@@ -5205,7 +5205,7 @@
         <v>0.68</v>
       </c>
       <c r="Q84" s="3" t="n">
-        <v>6.453311691204767</v>
+        <v>1.23058468649537</v>
       </c>
       <c r="R84" t="n">
         <v>0.1915281956726753</v>
@@ -5261,7 +5261,7 @@
         <v>0.636572</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>7.581180974499388</v>
+        <v>1.441319669657973</v>
       </c>
       <c r="R85" t="n">
         <v>0.07251061220725062</v>
@@ -5317,7 +5317,7 @@
         <v>0.590924</v>
       </c>
       <c r="Q86" s="3" t="n">
-        <v>8.091722393905563</v>
+        <v>1.537740730459353</v>
       </c>
       <c r="R86" t="n">
         <v>0.1022963165103159</v>
@@ -5373,7 +5373,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q87" s="3" t="n">
-        <v>16.45944919601968</v>
+        <v>3.179218176694193</v>
       </c>
       <c r="R87" t="n">
         <v>0.08132008275074698</v>
@@ -5429,7 +5429,7 @@
         <v>1.28</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>16.45944919601968</v>
+        <v>3.179218176694193</v>
       </c>
       <c r="R88" t="n">
         <v>0.08132008275074698</v>
@@ -5485,7 +5485,7 @@
         <v>1.2845</v>
       </c>
       <c r="Q89" s="3" t="n">
-        <v>16.45944919601968</v>
+        <v>3.179218176694193</v>
       </c>
       <c r="R89" t="n">
         <v>0.08132008275074698</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>554.02</v>
+        <v>554.01</v>
       </c>
       <c r="B90" t="n">
         <v>407966340</v>
@@ -5505,25 +5505,25 @@
         <v>9.207768</v>
       </c>
       <c r="E90" t="n">
-        <v>2458438.475888</v>
+        <v>2458442.61543</v>
       </c>
       <c r="F90" t="n">
-        <v>3.0440441</v>
+        <v>7.0491608</v>
       </c>
       <c r="G90" t="n">
-        <v>1.3542885</v>
+        <v>3.5024531</v>
       </c>
       <c r="H90" t="n">
-        <v>82.7350431</v>
+        <v>300.5227138</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>1.3337425</v>
+        <v>2.8464941</v>
       </c>
       <c r="J90" t="n">
-        <v>1500.1020491</v>
+        <v>489.6346689</v>
       </c>
       <c r="K90" t="n">
-        <v>1587.2668665</v>
+        <v>1199.7417985</v>
       </c>
       <c r="L90" t="n">
         <v>6.4386</v>
@@ -5541,7 +5541,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>31.3192949850797</v>
+        <v>6.014569921184382</v>
       </c>
       <c r="R90" t="n">
         <v>0.09557954007745355</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>554.01</v>
+        <v>554.02</v>
       </c>
       <c r="B91" t="n">
         <v>407966340</v>
@@ -5561,25 +5561,25 @@
         <v>9.207768</v>
       </c>
       <c r="E91" t="n">
-        <v>2458442.61543</v>
+        <v>2458438.475888</v>
       </c>
       <c r="F91" t="n">
-        <v>7.0491608</v>
+        <v>3.0440441</v>
       </c>
       <c r="G91" t="n">
-        <v>3.5024531</v>
+        <v>1.3542885</v>
       </c>
       <c r="H91" t="n">
-        <v>300.5227138</v>
+        <v>82.7350431</v>
       </c>
       <c r="I91" s="3" t="n">
-        <v>2.8464941</v>
+        <v>1.3337425</v>
       </c>
       <c r="J91" t="n">
-        <v>489.6346689</v>
+        <v>1500.1020491</v>
       </c>
       <c r="K91" t="n">
-        <v>1199.7417985</v>
+        <v>1587.2668665</v>
       </c>
       <c r="L91" t="n">
         <v>6.4386</v>
@@ -5597,7 +5597,7 @@
         <v>1.42717</v>
       </c>
       <c r="Q91" s="3" t="n">
-        <v>31.3192949850797</v>
+        <v>6.014569921184382</v>
       </c>
       <c r="R91" t="n">
         <v>0.09557954007745355</v>
@@ -5653,7 +5653,7 @@
         <v>1.40426</v>
       </c>
       <c r="Q92" s="3" t="n">
-        <v>33.7642303694855</v>
+        <v>6.495497315098142</v>
       </c>
       <c r="R92" t="n">
         <v>0.05602137878216408</v>
@@ -5692,7 +5692,7 @@
         <v>154.124</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>187.1954334784243</v>
+        <v>35.71013763407622</v>
       </c>
       <c r="R93" t="n">
         <v>0.0305854259260738</v>
